--- a/TCC/Experimentos/CalibragemDaJanela/calibragem.xlsx
+++ b/TCC/Experimentos/CalibragemDaJanela/calibragem.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8100" windowWidth="15345" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="9450" windowWidth="15345" windowHeight="4575" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="calibragem janela" sheetId="1" r:id="rId1"/>
     <sheet name="calibragem Algoritmos" sheetId="2" r:id="rId2"/>
+    <sheet name="Calibragem Aloritmos 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="46">
   <si>
     <t>Tamanho da Jenala de Treino</t>
   </si>
@@ -135,6 +135,36 @@
   <si>
     <t>Mediana</t>
   </si>
+  <si>
+    <t>usar esse</t>
+  </si>
+  <si>
+    <t>Algoritmo IBK</t>
+  </si>
+  <si>
+    <t>Pripriedade(k)</t>
+  </si>
+  <si>
+    <t>Número de vitorias</t>
+  </si>
+  <si>
+    <t>Média do rangink</t>
+  </si>
+  <si>
+    <t>Média do ranking</t>
+  </si>
+  <si>
+    <t>Algoritmo J48</t>
+  </si>
+  <si>
+    <t>Algoritmo SMO</t>
+  </si>
+  <si>
+    <t>Algoritmo Random Florest</t>
+  </si>
+  <si>
+    <t>Algoritmo PART</t>
+  </si>
 </sst>
 </file>
 
@@ -163,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +212,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -289,12 +349,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -358,6 +429,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,24 +494,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7970,7 +8099,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8243,7 +8371,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$D$61</c15:sqref>
@@ -8272,7 +8400,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$B$62:$B$71</c15:sqref>
@@ -8317,7 +8445,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$D$62:$D$71</c15:sqref>
@@ -8361,7 +8489,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-7DCE-4ACA-B9D5-56FBD24EA843}"/>
                   </c:ext>
@@ -8374,7 +8502,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$E$61</c15:sqref>
@@ -8403,7 +8531,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$B$62:$B$71</c15:sqref>
@@ -8448,7 +8576,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$E$62:$E$71</c15:sqref>
@@ -8492,7 +8620,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-7DCE-4ACA-B9D5-56FBD24EA843}"/>
                   </c:ext>
@@ -8505,7 +8633,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$F$61</c15:sqref>
@@ -8534,7 +8662,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$B$62:$B$71</c15:sqref>
@@ -8579,7 +8707,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$F$62:$F$71</c15:sqref>
@@ -8623,7 +8751,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-7DCE-4ACA-B9D5-56FBD24EA843}"/>
                   </c:ext>
@@ -8636,7 +8764,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$G$61</c15:sqref>
@@ -8665,7 +8793,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$B$62:$B$71</c15:sqref>
@@ -8710,7 +8838,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$G$62:$G$71</c15:sqref>
@@ -8754,7 +8882,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-7DCE-4ACA-B9D5-56FBD24EA843}"/>
                   </c:ext>
@@ -8879,7 +9007,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9439,7 +9566,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$D$26</c15:sqref>
@@ -9468,7 +9595,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$B$27:$B$56</c15:sqref>
@@ -9573,7 +9700,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$D$27:$D$56</c15:sqref>
@@ -9677,7 +9804,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-DD11-4BDC-ACD4-6D0F51CF45F4}"/>
                   </c:ext>
@@ -9690,7 +9817,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$E$26</c15:sqref>
@@ -9719,7 +9846,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$B$27:$B$56</c15:sqref>
@@ -9824,7 +9951,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$E$27:$E$56</c15:sqref>
@@ -9928,7 +10055,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-DD11-4BDC-ACD4-6D0F51CF45F4}"/>
                   </c:ext>
@@ -9941,7 +10068,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$F$26</c15:sqref>
@@ -9970,7 +10097,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$B$27:$B$56</c15:sqref>
@@ -10075,7 +10202,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$F$27:$F$56</c15:sqref>
@@ -10179,7 +10306,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-DD11-4BDC-ACD4-6D0F51CF45F4}"/>
                   </c:ext>
@@ -10192,7 +10319,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$G$26</c15:sqref>
@@ -10221,7 +10348,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$B$27:$B$56</c15:sqref>
@@ -10326,7 +10453,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$G$27:$G$56</c15:sqref>
@@ -10430,7 +10557,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-DD11-4BDC-ACD4-6D0F51CF45F4}"/>
                   </c:ext>
@@ -10977,7 +11104,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$D$6</c15:sqref>
@@ -11006,7 +11133,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$B$7:$B$21</c15:sqref>
@@ -11066,7 +11193,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$D$7:$D$21</c15:sqref>
@@ -11125,7 +11252,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-A8D8-406E-83E6-DB6200624A53}"/>
                   </c:ext>
@@ -11138,7 +11265,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$E$6</c15:sqref>
@@ -11167,7 +11294,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$B$7:$B$21</c15:sqref>
@@ -11227,7 +11354,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$E$7:$E$21</c15:sqref>
@@ -11286,7 +11413,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-A8D8-406E-83E6-DB6200624A53}"/>
                   </c:ext>
@@ -11299,7 +11426,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$F$6</c15:sqref>
@@ -11328,7 +11455,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$B$7:$B$21</c15:sqref>
@@ -11388,7 +11515,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$F$7:$F$21</c15:sqref>
@@ -11447,7 +11574,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-A8D8-406E-83E6-DB6200624A53}"/>
                   </c:ext>
@@ -11460,7 +11587,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$G$6</c15:sqref>
@@ -11489,7 +11616,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$B$7:$B$21</c15:sqref>
@@ -11549,7 +11676,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$G$7:$G$21</c15:sqref>
@@ -11608,7 +11735,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-A8D8-406E-83E6-DB6200624A53}"/>
                   </c:ext>
@@ -12066,7 +12193,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$M$6</c15:sqref>
@@ -12095,7 +12222,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$K$7:$K$9</c15:sqref>
@@ -12118,7 +12245,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$M$7:$M$9</c15:sqref>
@@ -12141,7 +12268,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-8ED3-423A-BAF8-4DCDC1AACC0F}"/>
                   </c:ext>
@@ -12154,7 +12281,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$N$6</c15:sqref>
@@ -12183,7 +12310,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$K$7:$K$9</c15:sqref>
@@ -12206,7 +12333,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$N$7:$N$9</c15:sqref>
@@ -12229,7 +12356,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-8ED3-423A-BAF8-4DCDC1AACC0F}"/>
                   </c:ext>
@@ -12242,7 +12369,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$O$6</c15:sqref>
@@ -12271,7 +12398,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$K$7:$K$9</c15:sqref>
@@ -12294,7 +12421,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$O$7:$O$9</c15:sqref>
@@ -12317,7 +12444,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-8ED3-423A-BAF8-4DCDC1AACC0F}"/>
                   </c:ext>
@@ -12330,7 +12457,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$P$6</c15:sqref>
@@ -12359,7 +12486,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$K$7:$K$9</c15:sqref>
@@ -12382,7 +12509,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$P$7:$P$9</c15:sqref>
@@ -12405,7 +12532,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-8ED3-423A-BAF8-4DCDC1AACC0F}"/>
                   </c:ext>
@@ -13000,7 +13127,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$M$14</c15:sqref>
@@ -13029,7 +13156,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$K$15:$K$34</c15:sqref>
@@ -13104,7 +13231,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$M$15:$M$34</c15:sqref>
@@ -13178,7 +13305,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-FD8C-4C04-BCC7-FA6C0B372CFA}"/>
                   </c:ext>
@@ -13191,7 +13318,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$N$14</c15:sqref>
@@ -13220,7 +13347,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$K$15:$K$34</c15:sqref>
@@ -13295,7 +13422,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$N$15:$N$34</c15:sqref>
@@ -13369,7 +13496,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-FD8C-4C04-BCC7-FA6C0B372CFA}"/>
                   </c:ext>
@@ -13382,7 +13509,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$O$14</c15:sqref>
@@ -13411,7 +13538,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$K$15:$K$34</c15:sqref>
@@ -13486,7 +13613,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$O$15:$O$34</c15:sqref>
@@ -13560,7 +13687,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-FD8C-4C04-BCC7-FA6C0B372CFA}"/>
                   </c:ext>
@@ -13573,7 +13700,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$P$14</c15:sqref>
@@ -13602,7 +13729,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$K$15:$K$34</c15:sqref>
@@ -13677,7 +13804,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$P$15:$P$34</c15:sqref>
@@ -13751,7 +13878,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-FD8C-4C04-BCC7-FA6C0B372CFA}"/>
                   </c:ext>
@@ -14151,7 +14278,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$M$39</c15:sqref>
@@ -14180,7 +14307,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$K$40:$K$41</c15:sqref>
@@ -14200,7 +14327,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$M$40:$M$41</c15:sqref>
@@ -14220,7 +14347,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-ABFA-4769-927C-D858657871E2}"/>
                   </c:ext>
@@ -14233,7 +14360,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$N$39</c15:sqref>
@@ -14262,7 +14389,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$K$40:$K$41</c15:sqref>
@@ -14282,7 +14409,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$N$40:$N$41</c15:sqref>
@@ -14302,7 +14429,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-ABFA-4769-927C-D858657871E2}"/>
                   </c:ext>
@@ -14315,7 +14442,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$O$39</c15:sqref>
@@ -14344,7 +14471,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$K$40:$K$41</c15:sqref>
@@ -14364,7 +14491,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$O$40:$O$41</c15:sqref>
@@ -14384,7 +14511,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-ABFA-4769-927C-D858657871E2}"/>
                   </c:ext>
@@ -14397,7 +14524,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$P$39</c15:sqref>
@@ -14426,7 +14553,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$K$40:$K$41</c15:sqref>
@@ -14446,7 +14573,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'calibragem Algoritmos'!$P$40:$P$41</c15:sqref>
@@ -14466,7 +14593,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-ABFA-4769-927C-D858657871E2}"/>
                   </c:ext>
@@ -20362,8 +20489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AH196"/>
   <sheetViews>
-    <sheetView topLeftCell="N99" zoomScale="33" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L225" sqref="L225"/>
+    <sheetView topLeftCell="B136" zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20380,31 +20507,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
@@ -22639,28 +22766,28 @@
       <c r="E96" s="2"/>
     </row>
     <row r="103" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="28" t="s">
+      <c r="B103" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="57"/>
     </row>
     <row r="104" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="57"/>
+      <c r="H104" s="57"/>
       <c r="L104" s="4" t="s">
         <v>0</v>
       </c>
@@ -22673,7 +22800,7 @@
       <c r="O104" s="20"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B105" s="31"/>
+      <c r="B105" s="60"/>
       <c r="C105" s="10" t="s">
         <v>1</v>
       </c>
@@ -25959,10 +26086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:R72"/>
+  <dimension ref="B4:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+    <sheetView zoomScale="65" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25977,51 +26104,51 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="K4" s="32" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="K4" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="K5" s="31" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="K5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
@@ -26043,7 +26170,7 @@
       <c r="I6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="31"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="10" t="s">
         <v>1</v>
       </c>
@@ -26067,29 +26194,29 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="38">
+      <c r="B7" s="30">
         <v>1</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="31">
         <v>0.78983499999999995</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="31">
         <v>0.62570599999999998</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="31">
         <v>0.91525400000000001</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="31">
         <v>0.79886400000000002</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="31">
         <v>0.79090899999999997</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="34">
         <f>AVERAGE(C7:G7)</f>
         <v>0.78411360000000008</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="25">
         <f>MEDIAN(C7:G7)</f>
         <v>0.79090899999999997</v>
       </c>
@@ -26111,11 +26238,11 @@
       <c r="P7" s="24">
         <v>0.75568199999999996</v>
       </c>
-      <c r="Q7" s="42">
+      <c r="Q7" s="33">
         <f>AVERAGE(L7:P7)</f>
         <v>0.81152239999999998</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="25">
         <f>MEDIAN(L7:P7)</f>
         <v>0.773864</v>
       </c>
@@ -26139,11 +26266,11 @@
       <c r="G8" s="24">
         <v>0.78409099999999998</v>
       </c>
-      <c r="H8" s="42">
-        <f t="shared" ref="H7:H20" si="0">AVERAGE(C8:G8)</f>
+      <c r="H8" s="33">
+        <f t="shared" ref="H8:H20" si="0">AVERAGE(C8:G8)</f>
         <v>0.77891480000000013</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="25">
         <f t="shared" ref="I8:I21" si="1">MEDIAN(C8:G8)</f>
         <v>0.78708800000000001</v>
       </c>
@@ -26165,11 +26292,11 @@
       <c r="P8" s="24">
         <v>0.73977300000000001</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="33">
         <f>AVERAGE(L8:P8)</f>
         <v>0.8023070000000001</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="25">
         <f t="shared" ref="R8:R9" si="2">MEDIAN(L8:P8)</f>
         <v>0.76373599999999997</v>
       </c>
@@ -26193,37 +26320,37 @@
       <c r="G9" s="24">
         <v>0.78977299999999995</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="33">
         <f t="shared" si="0"/>
         <v>0.78102339999999992</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="25">
         <f t="shared" si="1"/>
         <v>0.78977299999999995</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="31">
         <v>0.76373599999999997</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="31">
         <v>0.88700599999999996</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="31">
         <v>0.90909099999999998</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="31">
         <v>0.773864</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="31">
         <v>0.73977300000000001</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="34">
         <f>AVERAGE(L9:P9)</f>
         <v>0.81469400000000003</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="25">
         <f t="shared" si="2"/>
         <v>0.773864</v>
       </c>
@@ -26247,19 +26374,19 @@
       <c r="G10" s="24">
         <v>0.77840900000000002</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="33">
         <f t="shared" si="0"/>
         <v>0.77666539999999995</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="25">
         <f t="shared" si="1"/>
         <v>0.77884600000000004</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="37">
         <f>AVERAGE(Q7:Q9)</f>
         <v>0.80950780000000011</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="25">
         <f>AVERAGE(R7:R9)</f>
         <v>0.77048799999999995</v>
       </c>
@@ -26283,11 +26410,11 @@
       <c r="G11" s="24">
         <v>0.773864</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="33">
         <f t="shared" si="0"/>
         <v>0.77368159999999997</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="25">
         <f t="shared" si="1"/>
         <v>0.77609899999999998</v>
       </c>
@@ -26311,23 +26438,23 @@
       <c r="G12" s="24">
         <v>0.76818200000000003</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="33">
         <f t="shared" si="0"/>
         <v>0.77293600000000007</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="25">
         <f t="shared" si="1"/>
         <v>0.76818200000000003</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
@@ -26348,25 +26475,25 @@
       <c r="G13" s="24">
         <v>0.76477300000000004</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="33">
         <f t="shared" si="0"/>
         <v>0.77156619999999998</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="25">
         <f t="shared" si="1"/>
         <v>0.76477300000000004</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="22">
@@ -26387,15 +26514,15 @@
       <c r="G14" s="24">
         <v>0.76249999999999996</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="33">
         <f t="shared" si="0"/>
         <v>0.77505100000000005</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="25">
         <f t="shared" si="1"/>
         <v>0.76249999999999996</v>
       </c>
-      <c r="K14" s="31"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="10" t="s">
         <v>1</v>
       </c>
@@ -26437,11 +26564,11 @@
       <c r="G15" s="24">
         <v>0.75454500000000002</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="33">
         <f t="shared" si="0"/>
         <v>0.7712848000000001</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="25">
         <f t="shared" si="1"/>
         <v>0.75961500000000004</v>
       </c>
@@ -26463,11 +26590,11 @@
       <c r="P15" s="24">
         <v>0.65113600000000005</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="33">
         <f t="shared" ref="Q15:Q33" si="3">AVERAGE(L15:P15)</f>
         <v>0.71705660000000004</v>
       </c>
-      <c r="R15" s="33">
+      <c r="R15" s="25">
         <f>MEDIAN(L15:P15)</f>
         <v>0.72802199999999995</v>
       </c>
@@ -26491,11 +26618,11 @@
       <c r="G16" s="24">
         <v>0.75795500000000005</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="33">
         <f t="shared" si="0"/>
         <v>0.76903400000000011</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="25">
         <f t="shared" si="1"/>
         <v>0.75961500000000004</v>
       </c>
@@ -26517,11 +26644,11 @@
       <c r="P16" s="24">
         <v>0.74886399999999997</v>
       </c>
-      <c r="Q16" s="42">
+      <c r="Q16" s="33">
         <f t="shared" si="3"/>
         <v>0.74861719999999998</v>
       </c>
-      <c r="R16" s="33">
+      <c r="R16" s="25">
         <f t="shared" ref="R16:R34" si="4">MEDIAN(L16:P16)</f>
         <v>0.74886399999999997</v>
       </c>
@@ -26545,11 +26672,11 @@
       <c r="G17" s="24">
         <v>0.75909099999999996</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="33">
         <f t="shared" si="0"/>
         <v>0.76879900000000012</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="25">
         <f t="shared" si="1"/>
         <v>0.76022699999999999</v>
       </c>
@@ -26571,11 +26698,11 @@
       <c r="P17" s="24">
         <v>0.75113600000000003</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="33">
         <f t="shared" si="3"/>
         <v>0.74270919999999996</v>
       </c>
-      <c r="R17" s="33">
+      <c r="R17" s="25">
         <f t="shared" si="4"/>
         <v>0.75274700000000005</v>
       </c>
@@ -26599,11 +26726,11 @@
       <c r="G18" s="24">
         <v>0.75795500000000005</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="33">
         <f t="shared" si="0"/>
         <v>0.76665739999999993</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="25">
         <f t="shared" si="1"/>
         <v>0.75795500000000005</v>
       </c>
@@ -26625,11 +26752,11 @@
       <c r="P18" s="24">
         <v>0.73863599999999996</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="33">
         <f t="shared" si="3"/>
         <v>0.7458612</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="25">
         <f t="shared" si="4"/>
         <v>0.75686799999999999</v>
       </c>
@@ -26653,11 +26780,11 @@
       <c r="G19" s="24">
         <v>0.75795500000000005</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="33">
         <f t="shared" si="0"/>
         <v>0.76355000000000006</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="25">
         <f t="shared" si="1"/>
         <v>0.75795500000000005</v>
       </c>
@@ -26679,11 +26806,11 @@
       <c r="P19" s="24">
         <v>0.746591</v>
       </c>
-      <c r="Q19" s="42">
+      <c r="Q19" s="33">
         <f t="shared" si="3"/>
         <v>0.76042279999999995</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="25">
         <f t="shared" si="4"/>
         <v>0.76235299999999995</v>
       </c>
@@ -26707,11 +26834,11 @@
       <c r="G20" s="24">
         <v>0.75681799999999999</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="33">
         <f t="shared" si="0"/>
         <v>0.76193200000000005</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="25">
         <f t="shared" si="1"/>
         <v>0.75681799999999999</v>
       </c>
@@ -26733,39 +26860,39 @@
       <c r="P20" s="24">
         <v>0.73636400000000002</v>
       </c>
-      <c r="Q20" s="42">
+      <c r="Q20" s="33">
         <f t="shared" si="3"/>
         <v>0.75499080000000007</v>
       </c>
-      <c r="R20" s="33">
+      <c r="R20" s="25">
         <f t="shared" si="4"/>
         <v>0.76098900000000003</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
+      <c r="B21" s="26">
         <v>29</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="27">
         <v>0.76236300000000001</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="27">
         <v>0.63135600000000003</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="27">
         <v>0.90909099999999998</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="27">
         <v>0.75568199999999996</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="27">
         <v>0.75454500000000002</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="36">
         <f>AVERAGE(C21:G21)</f>
         <v>0.76260740000000005</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="25">
         <f t="shared" si="1"/>
         <v>0.75568199999999996</v>
       </c>
@@ -26787,27 +26914,27 @@
       <c r="P21" s="24">
         <v>0.73636400000000002</v>
       </c>
-      <c r="Q21" s="42">
+      <c r="Q21" s="33">
         <f t="shared" si="3"/>
         <v>0.75347779999999998</v>
       </c>
-      <c r="R21" s="33">
+      <c r="R21" s="25">
         <f t="shared" si="4"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="33">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="25">
         <f>AVERAGE(H7:H21)</f>
         <v>0.77185444000000014</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="25">
         <f>AVERAGE(I7:I21)</f>
         <v>0.76840246666666678</v>
       </c>
@@ -26829,11 +26956,11 @@
       <c r="P22" s="24">
         <v>0.74431800000000004</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="33">
         <f t="shared" si="3"/>
         <v>0.75551420000000002</v>
       </c>
-      <c r="R22" s="33">
+      <c r="R22" s="25">
         <f t="shared" si="4"/>
         <v>0.76373599999999997</v>
       </c>
@@ -26857,25 +26984,25 @@
       <c r="P23" s="24">
         <v>0.74318200000000001</v>
       </c>
-      <c r="Q23" s="42">
+      <c r="Q23" s="33">
         <f t="shared" si="3"/>
         <v>0.7474172</v>
       </c>
-      <c r="R23" s="33">
+      <c r="R23" s="25">
         <f t="shared" si="4"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
       <c r="K24" s="23">
         <v>10</v>
       </c>
@@ -26894,27 +27021,27 @@
       <c r="P24" s="24">
         <v>0.74090900000000004</v>
       </c>
-      <c r="Q24" s="42">
+      <c r="Q24" s="33">
         <f t="shared" si="3"/>
         <v>0.7420770000000001</v>
       </c>
-      <c r="R24" s="33">
+      <c r="R24" s="25">
         <f t="shared" si="4"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
       <c r="K25" s="23">
         <v>11</v>
       </c>
@@ -26933,17 +27060,17 @@
       <c r="P25" s="24">
         <v>0.73977300000000001</v>
       </c>
-      <c r="Q25" s="42">
+      <c r="Q25" s="33">
         <f t="shared" si="3"/>
         <v>0.74388100000000001</v>
       </c>
-      <c r="R25" s="33">
+      <c r="R25" s="25">
         <f t="shared" si="4"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="10" t="s">
         <v>1</v>
       </c>
@@ -26983,11 +27110,11 @@
       <c r="P26" s="24">
         <v>0.73750000000000004</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="33">
         <f t="shared" si="3"/>
         <v>0.73925599999999991</v>
       </c>
-      <c r="R26" s="33">
+      <c r="R26" s="25">
         <f t="shared" si="4"/>
         <v>0.76236300000000001</v>
       </c>
@@ -27015,7 +27142,7 @@
         <f t="shared" ref="H27:H55" si="5">AVERAGE(C27:G27)</f>
         <v>0.75226459999999995</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="25">
         <f>MEDIAN(C27:G27)</f>
         <v>0.76373599999999997</v>
       </c>
@@ -27037,11 +27164,11 @@
       <c r="P27" s="24">
         <v>0.73863599999999996</v>
       </c>
-      <c r="Q27" s="42">
+      <c r="Q27" s="33">
         <f t="shared" si="3"/>
         <v>0.74249560000000003</v>
       </c>
-      <c r="R27" s="33">
+      <c r="R27" s="25">
         <f t="shared" si="4"/>
         <v>0.76236300000000001</v>
       </c>
@@ -27069,7 +27196,7 @@
         <f t="shared" si="5"/>
         <v>0.75266100000000002</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="25">
         <f t="shared" ref="I28:I56" si="6">MEDIAN(C28:G28)</f>
         <v>0.76249999999999996</v>
       </c>
@@ -27091,11 +27218,11 @@
       <c r="P28" s="24">
         <v>0.73977300000000001</v>
       </c>
-      <c r="Q28" s="42">
+      <c r="Q28" s="33">
         <f t="shared" si="3"/>
         <v>0.74068260000000008</v>
       </c>
-      <c r="R28" s="33">
+      <c r="R28" s="25">
         <f t="shared" si="4"/>
         <v>0.76236300000000001</v>
       </c>
@@ -27123,7 +27250,7 @@
         <f t="shared" si="5"/>
         <v>0.75432279999999996</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
@@ -27145,11 +27272,11 @@
       <c r="P29" s="24">
         <v>0.74090900000000004</v>
       </c>
-      <c r="Q29" s="42">
+      <c r="Q29" s="33">
         <f t="shared" si="3"/>
         <v>0.74497900000000006</v>
       </c>
-      <c r="R29" s="33">
+      <c r="R29" s="25">
         <f t="shared" si="4"/>
         <v>0.76236300000000001</v>
       </c>
@@ -27177,7 +27304,7 @@
         <f t="shared" si="5"/>
         <v>0.751946</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
@@ -27199,11 +27326,11 @@
       <c r="P30" s="24">
         <v>0.74545499999999998</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="33">
         <f t="shared" si="3"/>
         <v>0.74907619999999997</v>
       </c>
-      <c r="R30" s="33">
+      <c r="R30" s="25">
         <f t="shared" si="4"/>
         <v>0.76373599999999997</v>
       </c>
@@ -27231,7 +27358,7 @@
         <f t="shared" si="5"/>
         <v>0.75668900000000006</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
@@ -27253,11 +27380,11 @@
       <c r="P31" s="24">
         <v>0.74318200000000001</v>
       </c>
-      <c r="Q31" s="42">
+      <c r="Q31" s="33">
         <f t="shared" si="3"/>
         <v>0.75005980000000005</v>
       </c>
-      <c r="R31" s="33">
+      <c r="R31" s="25">
         <f t="shared" si="4"/>
         <v>0.76373599999999997</v>
       </c>
@@ -27285,7 +27412,7 @@
         <f t="shared" si="5"/>
         <v>0.75123459999999997</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
@@ -27307,16 +27434,16 @@
       <c r="P32" s="24">
         <v>0.74318200000000001</v>
       </c>
-      <c r="Q32" s="42">
+      <c r="Q32" s="33">
         <f t="shared" si="3"/>
         <v>0.75022540000000004</v>
       </c>
-      <c r="R32" s="33">
+      <c r="R32" s="25">
         <f t="shared" si="4"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="22">
         <v>7</v>
       </c>
@@ -27339,7 +27466,7 @@
         <f t="shared" si="5"/>
         <v>0.7508534</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
@@ -27361,16 +27488,16 @@
       <c r="P33" s="24">
         <v>0.73863599999999996</v>
       </c>
-      <c r="Q33" s="42">
+      <c r="Q33" s="33">
         <f t="shared" si="3"/>
         <v>0.75843159999999998</v>
       </c>
-      <c r="R33" s="33">
+      <c r="R33" s="25">
         <f t="shared" si="4"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="22">
         <v>8</v>
       </c>
@@ -27393,38 +27520,38 @@
         <f t="shared" si="5"/>
         <v>0.7484059999999999</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="30">
         <v>20</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="31">
         <v>0.76373599999999997</v>
       </c>
-      <c r="M34" s="39">
+      <c r="M34" s="31">
         <v>0.62005600000000005</v>
       </c>
-      <c r="N34" s="39">
+      <c r="N34" s="31">
         <v>0.90138700000000005</v>
       </c>
-      <c r="O34" s="39">
+      <c r="O34" s="31">
         <v>0.78181800000000001</v>
       </c>
-      <c r="P34" s="39">
+      <c r="P34" s="31">
         <v>0.73636400000000002</v>
       </c>
-      <c r="Q34" s="43">
+      <c r="Q34" s="34">
         <f>AVERAGE(L34:P34)</f>
         <v>0.76067220000000002</v>
       </c>
-      <c r="R34" s="33">
+      <c r="R34" s="25">
         <f t="shared" si="4"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="22">
         <v>9</v>
       </c>
@@ -27447,20 +27574,20 @@
         <f t="shared" si="5"/>
         <v>0.75004559999999998</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
-      <c r="Q35" s="33">
+      <c r="Q35" s="25">
         <f>AVERAGE(Q15:Q34)</f>
         <v>0.74739517</v>
       </c>
-      <c r="R35" s="33">
+      <c r="R35" s="25">
         <f>AVERAGE(R15:R34)</f>
         <v>0.75983274999999995</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="22">
         <v>10</v>
       </c>
@@ -27483,12 +27610,12 @@
         <f t="shared" si="5"/>
         <v>0.74893480000000001</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="22">
         <v>11</v>
       </c>
@@ -27511,21 +27638,21 @@
         <f t="shared" si="5"/>
         <v>0.75021380000000004</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
-      <c r="K37" s="32" t="s">
+      <c r="K37" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="22">
         <v>12</v>
       </c>
@@ -27548,23 +27675,23 @@
         <f t="shared" si="5"/>
         <v>0.75087520000000008</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
-      <c r="K38" s="31" t="s">
+      <c r="K38" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="28" t="s">
+      <c r="L38" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
     </row>
-    <row r="39" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="22">
         <v>13</v>
       </c>
@@ -27587,11 +27714,11 @@
         <f t="shared" si="5"/>
         <v>0.75152739999999996</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
-      <c r="K39" s="31"/>
+      <c r="K39" s="60"/>
       <c r="L39" s="10" t="s">
         <v>1</v>
       </c>
@@ -27614,7 +27741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="22">
         <v>14</v>
       </c>
@@ -27637,38 +27764,38 @@
         <f t="shared" si="5"/>
         <v>0.75798739999999998</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
-      <c r="K40" s="38" t="s">
+      <c r="K40" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="L40" s="39">
+      <c r="L40" s="31">
         <v>0.71977999999999998</v>
       </c>
-      <c r="M40" s="39">
+      <c r="M40" s="31">
         <v>0.64548000000000005</v>
       </c>
-      <c r="N40" s="39">
+      <c r="N40" s="31">
         <v>0.875193</v>
       </c>
-      <c r="O40" s="39">
+      <c r="O40" s="31">
         <v>0.78295499999999996</v>
       </c>
-      <c r="P40" s="39">
+      <c r="P40" s="31">
         <v>0.71477299999999999</v>
       </c>
-      <c r="Q40" s="39">
+      <c r="Q40" s="31">
         <f>AVERAGE(L40:P40)</f>
         <v>0.74763619999999997</v>
       </c>
-      <c r="R40" s="33">
+      <c r="R40" s="25">
         <f>MEDIAN(L40:P40)</f>
         <v>0.71977999999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="22">
         <v>15</v>
       </c>
@@ -27691,38 +27818,41 @@
         <f t="shared" si="5"/>
         <v>0.75627440000000001</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
-      <c r="K41" s="22" t="s">
+      <c r="K41" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L41" s="39">
         <v>0.55769199999999997</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M41" s="39">
         <v>0.54661000000000004</v>
       </c>
-      <c r="N41" s="24">
+      <c r="N41" s="39">
         <v>0.77503900000000003</v>
       </c>
-      <c r="O41" s="24">
+      <c r="O41" s="39">
         <v>0.604545</v>
       </c>
-      <c r="P41" s="24">
+      <c r="P41" s="39">
         <v>0.41136400000000001</v>
       </c>
-      <c r="Q41" s="35">
+      <c r="Q41" s="40">
         <f>AVERAGE(L41:P41)</f>
         <v>0.57904999999999995</v>
       </c>
-      <c r="R41" s="33">
+      <c r="R41" s="41">
         <f>MEDIAN(L41:P41)</f>
         <v>0.55769199999999997</v>
       </c>
+      <c r="S41" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="22">
         <v>16</v>
       </c>
@@ -27745,20 +27875,20 @@
         <f t="shared" si="5"/>
         <v>0.75772280000000003</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
-      <c r="Q42" s="33">
+      <c r="Q42" s="25">
         <f>AVERAGE(Q40:Q41)</f>
         <v>0.66334309999999996</v>
       </c>
-      <c r="R42" s="33">
+      <c r="R42" s="25">
         <f>AVERAGE(R40:R41)</f>
         <v>0.63873599999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="22">
         <v>17</v>
       </c>
@@ -27781,12 +27911,12 @@
         <f t="shared" si="5"/>
         <v>0.75630019999999987</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="22">
         <v>18</v>
       </c>
@@ -27809,12 +27939,12 @@
         <f t="shared" si="5"/>
         <v>0.75765719999999992</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="22">
         <v>19</v>
       </c>
@@ -27837,12 +27967,12 @@
         <f t="shared" si="5"/>
         <v>0.76079419999999998</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="22">
         <v>20</v>
       </c>
@@ -27865,12 +27995,12 @@
         <f t="shared" si="5"/>
         <v>0.75781139999999991</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="22">
         <v>21</v>
       </c>
@@ -27893,12 +28023,12 @@
         <f t="shared" si="5"/>
         <v>0.75603039999999999</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="22">
         <v>22</v>
       </c>
@@ -27921,7 +28051,7 @@
         <f t="shared" si="5"/>
         <v>0.75582779999999994</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I48" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
@@ -27949,7 +28079,7 @@
         <f t="shared" si="5"/>
         <v>0.75663000000000002</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
@@ -27977,7 +28107,7 @@
         <f t="shared" si="5"/>
         <v>0.75679560000000001</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
@@ -28005,7 +28135,7 @@
         <f t="shared" si="5"/>
         <v>0.75693200000000005</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
@@ -28033,7 +28163,7 @@
         <f t="shared" si="5"/>
         <v>0.7560846</v>
       </c>
-      <c r="I52" s="33">
+      <c r="I52" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
@@ -28061,7 +28191,7 @@
         <f t="shared" si="5"/>
         <v>0.75693180000000004</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
@@ -28089,7 +28219,7 @@
         <f t="shared" si="5"/>
         <v>0.75732860000000002</v>
       </c>
-      <c r="I54" s="33">
+      <c r="I54" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
@@ -28117,81 +28247,81 @@
         <f t="shared" si="5"/>
         <v>0.76003939999999992</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="38">
+      <c r="B56" s="30">
         <v>30</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="31">
         <v>0.76373599999999997</v>
       </c>
-      <c r="D56" s="39">
+      <c r="D56" s="31">
         <v>0.63418099999999999</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E56" s="31">
         <v>0.90138700000000005</v>
       </c>
-      <c r="F56" s="39">
+      <c r="F56" s="31">
         <v>0.77159100000000003</v>
       </c>
-      <c r="G56" s="39">
+      <c r="G56" s="31">
         <v>0.73636400000000002</v>
       </c>
-      <c r="H56" s="44">
+      <c r="H56" s="35">
         <f>AVERAGE(C56:G56)</f>
         <v>0.76145180000000001</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I56" s="25">
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="33">
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="25">
         <f>AVERAGE(H27:H56)</f>
         <v>0.75495246000000005</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="25">
         <f>AVERAGE(I27:I56)</f>
         <v>0.76369480000000034</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
     </row>
     <row r="61" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="31"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="10" t="s">
         <v>1</v>
       </c>
@@ -28207,7 +28337,7 @@
       <c r="G61" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H61" s="41" t="s">
+      <c r="H61" s="32" t="s">
         <v>30</v>
       </c>
       <c r="I61" s="13" t="s">
@@ -28233,11 +28363,11 @@
       <c r="G62" s="24">
         <v>0.74545499999999998</v>
       </c>
-      <c r="H62" s="42">
+      <c r="H62" s="33">
         <f t="shared" ref="H62:H71" si="7">AVERAGE(C62:G62)</f>
         <v>0.7542624</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="25">
         <f>MEDIAN(C62:G62)</f>
         <v>0.76510999999999996</v>
       </c>
@@ -28261,11 +28391,11 @@
       <c r="G63" s="24">
         <v>0.74318200000000001</v>
       </c>
-      <c r="H63" s="42">
+      <c r="H63" s="33">
         <f t="shared" si="7"/>
         <v>0.75507019999999991</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="25">
         <f t="shared" ref="I63:I71" si="8">MEDIAN(C63:G63)</f>
         <v>0.76236300000000001</v>
       </c>
@@ -28289,39 +28419,39 @@
       <c r="G64" s="24">
         <v>0.74204499999999995</v>
       </c>
-      <c r="H64" s="42">
+      <c r="H64" s="33">
         <f t="shared" si="7"/>
         <v>0.75622179999999994</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64" s="25">
         <f t="shared" si="8"/>
         <v>0.76373599999999997</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="38">
+      <c r="B65" s="30">
         <v>200</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="31">
         <v>0.76373599999999997</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="31">
         <v>0.910632</v>
       </c>
-      <c r="E65" s="39">
+      <c r="E65" s="31">
         <v>0.910632</v>
       </c>
-      <c r="F65" s="39">
+      <c r="F65" s="31">
         <v>0.77727299999999999</v>
       </c>
-      <c r="G65" s="39">
+      <c r="G65" s="31">
         <v>0.74318200000000001</v>
       </c>
-      <c r="H65" s="43">
+      <c r="H65" s="34">
         <f t="shared" si="7"/>
         <v>0.82109100000000002</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="25">
         <f t="shared" si="8"/>
         <v>0.77727299999999999</v>
       </c>
@@ -28345,11 +28475,11 @@
       <c r="G66" s="24">
         <v>0.74431800000000004</v>
       </c>
-      <c r="H66" s="42">
+      <c r="H66" s="33">
         <f t="shared" si="7"/>
         <v>0.75784380000000007</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="25">
         <f t="shared" si="8"/>
         <v>0.76236300000000001</v>
       </c>
@@ -28373,11 +28503,11 @@
       <c r="G67" s="24">
         <v>0.746591</v>
       </c>
-      <c r="H67" s="42">
+      <c r="H67" s="33">
         <f t="shared" si="7"/>
         <v>0.7576406</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I67" s="25">
         <f t="shared" si="8"/>
         <v>0.76373599999999997</v>
       </c>
@@ -28401,11 +28531,11 @@
       <c r="G68" s="24">
         <v>0.746591</v>
       </c>
-      <c r="H68" s="42">
+      <c r="H68" s="33">
         <f t="shared" si="7"/>
         <v>0.75635340000000006</v>
       </c>
-      <c r="I68" s="33">
+      <c r="I68" s="25">
         <f t="shared" si="8"/>
         <v>0.76510999999999996</v>
       </c>
@@ -28429,11 +28559,11 @@
       <c r="G69" s="24">
         <v>0.746591</v>
       </c>
-      <c r="H69" s="42">
+      <c r="H69" s="33">
         <f t="shared" si="7"/>
         <v>0.7588182</v>
       </c>
-      <c r="I69" s="33">
+      <c r="I69" s="25">
         <f t="shared" si="8"/>
         <v>0.76510999999999996</v>
       </c>
@@ -28457,11 +28587,11 @@
       <c r="G70" s="24">
         <v>0.74545499999999998</v>
       </c>
-      <c r="H70" s="42">
+      <c r="H70" s="33">
         <f t="shared" si="7"/>
         <v>0.75770380000000004</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="25">
         <f t="shared" si="8"/>
         <v>0.76236300000000001</v>
       </c>
@@ -28485,35 +28615,40 @@
       <c r="G71" s="24">
         <v>0.746591</v>
       </c>
-      <c r="H71" s="42">
+      <c r="H71" s="33">
         <f t="shared" si="7"/>
         <v>0.75734040000000002</v>
       </c>
-      <c r="I71" s="33">
+      <c r="I71" s="25">
         <f t="shared" si="8"/>
         <v>0.76236300000000001</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="33">
+      <c r="B72" s="62"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="25">
         <f>AVERAGE(H62:H71)</f>
         <v>0.76323456000000012</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="25">
         <f>AVERAGE(I62:I71)</f>
         <v>0.76495270000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:H60"/>
     <mergeCell ref="B72:G72"/>
     <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:Q38"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:Q5"/>
@@ -28526,14 +28661,5014 @@
     <mergeCell ref="K12:Q12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:H60"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BJ80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AC82" sqref="AC82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="50">
+        <v>1</v>
+      </c>
+      <c r="C2" s="50">
+        <v>3</v>
+      </c>
+      <c r="D2" s="50">
+        <v>5</v>
+      </c>
+      <c r="E2" s="50">
+        <v>7</v>
+      </c>
+      <c r="F2" s="50">
+        <v>9</v>
+      </c>
+      <c r="G2" s="50">
+        <v>11</v>
+      </c>
+      <c r="H2" s="50">
+        <v>13</v>
+      </c>
+      <c r="I2" s="50">
+        <v>15</v>
+      </c>
+      <c r="J2" s="50">
+        <v>17</v>
+      </c>
+      <c r="K2" s="50">
+        <v>19</v>
+      </c>
+      <c r="L2" s="50">
+        <v>21</v>
+      </c>
+      <c r="M2" s="50">
+        <v>23</v>
+      </c>
+      <c r="N2" s="50">
+        <v>25</v>
+      </c>
+      <c r="O2" s="50">
+        <v>27</v>
+      </c>
+      <c r="P2" s="50">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="50">
+        <v>1</v>
+      </c>
+      <c r="R2" s="50">
+        <v>3</v>
+      </c>
+      <c r="S2" s="50">
+        <v>5</v>
+      </c>
+      <c r="T2" s="50">
+        <v>7</v>
+      </c>
+      <c r="U2" s="50">
+        <v>9</v>
+      </c>
+      <c r="V2" s="50">
+        <v>11</v>
+      </c>
+      <c r="W2" s="50">
+        <v>13</v>
+      </c>
+      <c r="X2" s="50">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="50">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="50">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="50">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="50">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="50">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="50">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="46">
+        <v>0.78983499999999995</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0.78708800000000001</v>
+      </c>
+      <c r="D3" s="46">
+        <v>0.788462</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0.77884600000000004</v>
+      </c>
+      <c r="F3" s="46">
+        <v>0.77609899999999998</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="H3" s="46">
+        <v>0.75961500000000004</v>
+      </c>
+      <c r="I3" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="J3" s="46">
+        <v>0.75961500000000004</v>
+      </c>
+      <c r="K3" s="46">
+        <v>0.75961500000000004</v>
+      </c>
+      <c r="L3" s="46">
+        <v>0.76098900000000003</v>
+      </c>
+      <c r="M3" s="46">
+        <v>0.76098900000000003</v>
+      </c>
+      <c r="N3" s="46">
+        <v>0.76098900000000003</v>
+      </c>
+      <c r="O3" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="P3" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="Q3" s="43">
+        <f>_xlfn.RANK.AVG(B3,B3:P3)</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="43">
+        <f>_xlfn.RANK.AVG(C3,B3:P3)</f>
+        <v>3</v>
+      </c>
+      <c r="S3" s="43">
+        <f>_xlfn.RANK.AVG(D3,B3:P3)</f>
+        <v>2</v>
+      </c>
+      <c r="T3" s="43">
+        <f>_xlfn.RANK.AVG(E3,B3:P3)</f>
+        <v>4</v>
+      </c>
+      <c r="U3" s="43">
+        <f>_xlfn.RANK.AVG(F3,B3:P3)</f>
+        <v>5</v>
+      </c>
+      <c r="V3" s="43">
+        <f>_xlfn.RANK.AVG(G3,B3:P3)</f>
+        <v>6</v>
+      </c>
+      <c r="W3" s="43">
+        <f>_xlfn.RANK.AVG(H3,B3:P3)</f>
+        <v>14</v>
+      </c>
+      <c r="X3" s="43">
+        <f>_xlfn.RANK.AVG(I3,B3:P3)</f>
+        <v>8</v>
+      </c>
+      <c r="Y3" s="43">
+        <f>_xlfn.RANK.AVG(J3,B3:P3)</f>
+        <v>14</v>
+      </c>
+      <c r="Z3" s="43">
+        <f>_xlfn.RANK.AVG(K3,B3:P3)</f>
+        <v>14</v>
+      </c>
+      <c r="AA3" s="43">
+        <f>_xlfn.RANK.AVG(L3,B3:P3)</f>
+        <v>11</v>
+      </c>
+      <c r="AB3" s="43">
+        <f>_xlfn.RANK.AVG(M3,B3:P3)</f>
+        <v>11</v>
+      </c>
+      <c r="AC3" s="43">
+        <f>_xlfn.RANK.AVG(N3,B3:P3)</f>
+        <v>11</v>
+      </c>
+      <c r="AD3" s="43">
+        <f>_xlfn.RANK.AVG(O3,B3:P3)</f>
+        <v>8</v>
+      </c>
+      <c r="AE3" s="43">
+        <f>_xlfn.RANK.AVG(P3,B3:P3)</f>
+        <v>8</v>
+      </c>
+      <c r="AF3">
+        <f>COUNTIF(Q3:AE3,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.62570599999999998</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.617232</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.617232</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0.617232</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.617232</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.63983100000000004</v>
+      </c>
+      <c r="H4" s="46">
+        <v>0.64124300000000001</v>
+      </c>
+      <c r="I4" s="46">
+        <v>0.658192</v>
+      </c>
+      <c r="J4" s="46">
+        <v>0.65395499999999995</v>
+      </c>
+      <c r="K4" s="46">
+        <v>0.64830500000000002</v>
+      </c>
+      <c r="L4" s="46">
+        <v>0.64689300000000005</v>
+      </c>
+      <c r="M4" s="46">
+        <v>0.64689300000000005</v>
+      </c>
+      <c r="N4" s="46">
+        <v>0.63135600000000003</v>
+      </c>
+      <c r="O4" s="46">
+        <v>0.62570599999999998</v>
+      </c>
+      <c r="P4" s="46">
+        <v>0.63135600000000003</v>
+      </c>
+      <c r="Q4" s="43">
+        <f>_xlfn.RANK.AVG(B4,B4:P4)</f>
+        <v>10.5</v>
+      </c>
+      <c r="R4" s="43">
+        <f>_xlfn.RANK.AVG(C4,B4:P4)</f>
+        <v>13.5</v>
+      </c>
+      <c r="S4" s="43">
+        <f t="shared" ref="S4:S7" si="0">_xlfn.RANK.AVG(D4,B4:P4)</f>
+        <v>13.5</v>
+      </c>
+      <c r="T4" s="43">
+        <f t="shared" ref="T4:T7" si="1">_xlfn.RANK.AVG(E4,B4:P4)</f>
+        <v>13.5</v>
+      </c>
+      <c r="U4" s="43">
+        <f t="shared" ref="U4:U7" si="2">_xlfn.RANK.AVG(F4,B4:P4)</f>
+        <v>13.5</v>
+      </c>
+      <c r="V4" s="43">
+        <f t="shared" ref="V4:V7" si="3">_xlfn.RANK.AVG(G4,B4:P4)</f>
+        <v>7</v>
+      </c>
+      <c r="W4" s="43">
+        <f t="shared" ref="W4:W7" si="4">_xlfn.RANK.AVG(H4,B4:P4)</f>
+        <v>6</v>
+      </c>
+      <c r="X4" s="43">
+        <f t="shared" ref="X4:X7" si="5">_xlfn.RANK.AVG(I4,B4:P4)</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="43">
+        <f t="shared" ref="Y4:Y7" si="6">_xlfn.RANK.AVG(J4,B4:P4)</f>
+        <v>2</v>
+      </c>
+      <c r="Z4" s="43">
+        <f t="shared" ref="Z4:Z7" si="7">_xlfn.RANK.AVG(K4,B4:P4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA4" s="43">
+        <f t="shared" ref="AA4:AA7" si="8">_xlfn.RANK.AVG(L4,B4:P4)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AB4" s="43">
+        <f t="shared" ref="AB4:AB7" si="9">_xlfn.RANK.AVG(M4,B4:P4)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AC4" s="43">
+        <f t="shared" ref="AC4:AC7" si="10">_xlfn.RANK.AVG(N4,B4:P4)</f>
+        <v>8.5</v>
+      </c>
+      <c r="AD4" s="43">
+        <f t="shared" ref="AD4:AD7" si="11">_xlfn.RANK.AVG(O4,B4:P4)</f>
+        <v>10.5</v>
+      </c>
+      <c r="AE4" s="43">
+        <f t="shared" ref="AE4:AE7" si="12">_xlfn.RANK.AVG(P4,B4:P4)</f>
+        <v>8.5</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF7" si="13">COUNTIF(Q4:AE4,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.91525400000000001</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.91525400000000001</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.91987699999999994</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.91679500000000003</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0.913713</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.91679500000000003</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0.91833600000000004</v>
+      </c>
+      <c r="I5" s="46">
+        <v>0.91833600000000004</v>
+      </c>
+      <c r="J5" s="46">
+        <v>0.91217300000000001</v>
+      </c>
+      <c r="K5" s="46">
+        <v>0.91679500000000003</v>
+      </c>
+      <c r="L5" s="46">
+        <v>0.91679500000000003</v>
+      </c>
+      <c r="M5" s="46">
+        <v>0.910632</v>
+      </c>
+      <c r="N5" s="46">
+        <v>0.910632</v>
+      </c>
+      <c r="O5" s="46">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="P5" s="46">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="Q5" s="43">
+        <f t="shared" ref="Q5:Q7" si="14">_xlfn.RANK.AVG(B5,B5:P5)</f>
+        <v>8.5</v>
+      </c>
+      <c r="R5" s="43">
+        <f t="shared" ref="R5:R7" si="15">_xlfn.RANK.AVG(C5,B5:P5)</f>
+        <v>8.5</v>
+      </c>
+      <c r="S5" s="43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T5" s="43">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="U5" s="43">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="V5" s="43">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="W5" s="43">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="X5" s="43">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="Y5" s="43">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="Z5" s="43">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="AA5" s="43">
+        <f t="shared" si="8"/>
+        <v>5.5</v>
+      </c>
+      <c r="AB5" s="43">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+      <c r="AC5" s="43">
+        <f t="shared" si="10"/>
+        <v>12.5</v>
+      </c>
+      <c r="AD5" s="43">
+        <f t="shared" si="11"/>
+        <v>14.5</v>
+      </c>
+      <c r="AE5" s="43">
+        <f t="shared" si="12"/>
+        <v>14.5</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="46">
+        <v>0.79886400000000002</v>
+      </c>
+      <c r="C6" s="46">
+        <v>0.79090899999999997</v>
+      </c>
+      <c r="D6" s="46">
+        <v>0.78977299999999995</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0.792045</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="G6" s="46">
+        <v>0.77613600000000005</v>
+      </c>
+      <c r="H6" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="I6" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="J6" s="46">
+        <v>0.77613600000000005</v>
+      </c>
+      <c r="K6" s="46">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="L6" s="46">
+        <v>0.76022699999999999</v>
+      </c>
+      <c r="M6" s="46">
+        <v>0.75681799999999999</v>
+      </c>
+      <c r="N6" s="46">
+        <v>0.75681799999999999</v>
+      </c>
+      <c r="O6" s="46">
+        <v>0.75568199999999996</v>
+      </c>
+      <c r="P6" s="46">
+        <v>0.75568199999999996</v>
+      </c>
+      <c r="Q6" s="43">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="43">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="S6" s="43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T6" s="43">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U6" s="43">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V6" s="43">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="W6" s="43">
+        <f t="shared" si="4"/>
+        <v>8.5</v>
+      </c>
+      <c r="X6" s="43">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+      <c r="Y6" s="43">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="Z6" s="43">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA6" s="43">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AB6" s="43">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+      <c r="AC6" s="43">
+        <f t="shared" si="10"/>
+        <v>12.5</v>
+      </c>
+      <c r="AD6" s="43">
+        <f t="shared" si="11"/>
+        <v>14.5</v>
+      </c>
+      <c r="AE6" s="43">
+        <f t="shared" si="12"/>
+        <v>14.5</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.79090899999999997</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.78409099999999998</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.78977299999999995</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.77840900000000002</v>
+      </c>
+      <c r="F7" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.76818200000000003</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0.76477300000000004</v>
+      </c>
+      <c r="I7" s="46">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="J7" s="46">
+        <v>0.75454500000000002</v>
+      </c>
+      <c r="K7" s="46">
+        <v>0.75795500000000005</v>
+      </c>
+      <c r="L7" s="46">
+        <v>0.75909099999999996</v>
+      </c>
+      <c r="M7" s="46">
+        <v>0.75795500000000005</v>
+      </c>
+      <c r="N7" s="46">
+        <v>0.75795500000000005</v>
+      </c>
+      <c r="O7" s="46">
+        <v>0.75681799999999999</v>
+      </c>
+      <c r="P7" s="46">
+        <v>0.75454500000000002</v>
+      </c>
+      <c r="Q7" s="43">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="43">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="S7" s="43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T7" s="43">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U7" s="43">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V7" s="43">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="W7" s="43">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="X7" s="43">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Y7" s="43">
+        <f t="shared" si="6"/>
+        <v>14.5</v>
+      </c>
+      <c r="Z7" s="43">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AA7" s="43">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="AB7" s="43">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="AC7" s="43">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="AD7" s="43">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="AE7" s="43">
+        <f t="shared" si="12"/>
+        <v>14.5</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="52">
+        <f>AVERAGE(B3:B7)</f>
+        <v>0.78411360000000008</v>
+      </c>
+      <c r="C8" s="52">
+        <f t="shared" ref="C8:P8" si="16">AVERAGE(C3:C7)</f>
+        <v>0.77891480000000013</v>
+      </c>
+      <c r="D8" s="52">
+        <f t="shared" si="16"/>
+        <v>0.78102339999999992</v>
+      </c>
+      <c r="E8" s="52">
+        <f t="shared" si="16"/>
+        <v>0.77666539999999995</v>
+      </c>
+      <c r="F8" s="52">
+        <f t="shared" si="16"/>
+        <v>0.77368159999999997</v>
+      </c>
+      <c r="G8" s="52">
+        <f t="shared" si="16"/>
+        <v>0.77293600000000007</v>
+      </c>
+      <c r="H8" s="52">
+        <f t="shared" si="16"/>
+        <v>0.77156619999999998</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" si="16"/>
+        <v>0.77505100000000005</v>
+      </c>
+      <c r="J8" s="52">
+        <f t="shared" si="16"/>
+        <v>0.7712848000000001</v>
+      </c>
+      <c r="K8" s="52">
+        <f t="shared" si="16"/>
+        <v>0.76903400000000011</v>
+      </c>
+      <c r="L8" s="52">
+        <f t="shared" si="16"/>
+        <v>0.76879900000000012</v>
+      </c>
+      <c r="M8" s="52">
+        <f t="shared" si="16"/>
+        <v>0.76665739999999993</v>
+      </c>
+      <c r="N8" s="52">
+        <f t="shared" si="16"/>
+        <v>0.76355000000000006</v>
+      </c>
+      <c r="O8" s="52">
+        <f t="shared" si="16"/>
+        <v>0.76193200000000005</v>
+      </c>
+      <c r="P8" s="52">
+        <f t="shared" si="16"/>
+        <v>0.76260740000000005</v>
+      </c>
+      <c r="Q8" s="44">
+        <f>AVERAGE(Q3:Q7)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R8" s="43">
+        <f t="shared" ref="Q8:AE8" si="17">AVERAGE(R3:R7)</f>
+        <v>6.2</v>
+      </c>
+      <c r="S8" s="43">
+        <f t="shared" si="17"/>
+        <v>4.5</v>
+      </c>
+      <c r="T8" s="43">
+        <f t="shared" si="17"/>
+        <v>5.8</v>
+      </c>
+      <c r="U8" s="43">
+        <f t="shared" si="17"/>
+        <v>7.7</v>
+      </c>
+      <c r="V8" s="43">
+        <f t="shared" si="17"/>
+        <v>6.2</v>
+      </c>
+      <c r="W8" s="43">
+        <f t="shared" si="17"/>
+        <v>7.6</v>
+      </c>
+      <c r="X8" s="43">
+        <f t="shared" si="17"/>
+        <v>5.6</v>
+      </c>
+      <c r="Y8" s="43">
+        <f t="shared" si="17"/>
+        <v>9.6</v>
+      </c>
+      <c r="Z8" s="43">
+        <f t="shared" si="17"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AA8" s="43">
+        <f t="shared" si="17"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AB8" s="43">
+        <f t="shared" si="17"/>
+        <v>10.3</v>
+      </c>
+      <c r="AC8" s="43">
+        <f t="shared" si="17"/>
+        <v>11.1</v>
+      </c>
+      <c r="AD8" s="43">
+        <f t="shared" si="17"/>
+        <v>12.1</v>
+      </c>
+      <c r="AE8" s="43">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="53">
+        <f>COUNTIF(Q3:Q7,1)</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="53">
+        <f t="shared" ref="C9:P9" si="18">COUNTIF(R3:R7,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="42">
+        <f>Q8</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C10" s="42">
+        <f t="shared" ref="C10:P10" si="19">R8</f>
+        <v>6.2</v>
+      </c>
+      <c r="D10" s="42">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="E10" s="42">
+        <f t="shared" si="19"/>
+        <v>5.8</v>
+      </c>
+      <c r="F10" s="42">
+        <f t="shared" si="19"/>
+        <v>7.7</v>
+      </c>
+      <c r="G10" s="42">
+        <f t="shared" si="19"/>
+        <v>6.2</v>
+      </c>
+      <c r="H10" s="42">
+        <f t="shared" si="19"/>
+        <v>7.6</v>
+      </c>
+      <c r="I10" s="42">
+        <f t="shared" si="19"/>
+        <v>5.6</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="19"/>
+        <v>9.6</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="19"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L10" s="42">
+        <f t="shared" si="19"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M10" s="42">
+        <f t="shared" si="19"/>
+        <v>10.3</v>
+      </c>
+      <c r="N10" s="42">
+        <f t="shared" si="19"/>
+        <v>11.1</v>
+      </c>
+      <c r="O10" s="42">
+        <f t="shared" si="19"/>
+        <v>12.1</v>
+      </c>
+      <c r="P10" s="42">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="61"/>
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="61"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="61"/>
+      <c r="AU13" s="61"/>
+      <c r="AV13" s="61"/>
+      <c r="AW13" s="61"/>
+      <c r="AX13" s="61"/>
+      <c r="AY13" s="61"/>
+      <c r="AZ13" s="61"/>
+      <c r="BA13" s="61"/>
+      <c r="BB13" s="61"/>
+      <c r="BC13" s="61"/>
+      <c r="BD13" s="61"/>
+      <c r="BE13" s="61"/>
+      <c r="BF13" s="61"/>
+      <c r="BG13" s="61"/>
+      <c r="BH13" s="61"/>
+      <c r="BI13" s="61"/>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="50">
+        <v>1</v>
+      </c>
+      <c r="C14" s="50">
+        <v>2</v>
+      </c>
+      <c r="D14" s="50">
+        <v>3</v>
+      </c>
+      <c r="E14" s="50">
+        <v>4</v>
+      </c>
+      <c r="F14" s="50">
+        <v>5</v>
+      </c>
+      <c r="G14" s="50">
+        <v>6</v>
+      </c>
+      <c r="H14" s="50">
+        <v>7</v>
+      </c>
+      <c r="I14" s="50">
+        <v>8</v>
+      </c>
+      <c r="J14" s="50">
+        <v>9</v>
+      </c>
+      <c r="K14" s="50">
+        <v>10</v>
+      </c>
+      <c r="L14" s="50">
+        <v>11</v>
+      </c>
+      <c r="M14" s="50">
+        <v>12</v>
+      </c>
+      <c r="N14" s="50">
+        <v>13</v>
+      </c>
+      <c r="O14" s="50">
+        <v>14</v>
+      </c>
+      <c r="P14" s="50">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="50">
+        <v>16</v>
+      </c>
+      <c r="R14" s="50">
+        <v>17</v>
+      </c>
+      <c r="S14" s="50">
+        <v>18</v>
+      </c>
+      <c r="T14" s="50">
+        <v>19</v>
+      </c>
+      <c r="U14" s="50">
+        <v>20</v>
+      </c>
+      <c r="V14" s="50">
+        <v>21</v>
+      </c>
+      <c r="W14" s="50">
+        <v>22</v>
+      </c>
+      <c r="X14" s="50">
+        <v>23</v>
+      </c>
+      <c r="Y14" s="50">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="50">
+        <v>25</v>
+      </c>
+      <c r="AA14" s="50">
+        <v>26</v>
+      </c>
+      <c r="AB14" s="50">
+        <v>27</v>
+      </c>
+      <c r="AC14" s="50">
+        <v>28</v>
+      </c>
+      <c r="AD14" s="50">
+        <v>29</v>
+      </c>
+      <c r="AE14" s="50">
+        <v>30</v>
+      </c>
+      <c r="AF14" s="50">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="50">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="50">
+        <v>3</v>
+      </c>
+      <c r="AI14" s="50">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="50">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="50">
+        <v>6</v>
+      </c>
+      <c r="AL14" s="50">
+        <v>7</v>
+      </c>
+      <c r="AM14" s="50">
+        <v>8</v>
+      </c>
+      <c r="AN14" s="50">
+        <v>9</v>
+      </c>
+      <c r="AO14" s="50">
+        <v>10</v>
+      </c>
+      <c r="AP14" s="50">
+        <v>11</v>
+      </c>
+      <c r="AQ14" s="50">
+        <v>12</v>
+      </c>
+      <c r="AR14" s="50">
+        <v>13</v>
+      </c>
+      <c r="AS14" s="50">
+        <v>14</v>
+      </c>
+      <c r="AT14" s="50">
+        <v>15</v>
+      </c>
+      <c r="AU14" s="50">
+        <v>16</v>
+      </c>
+      <c r="AV14" s="50">
+        <v>17</v>
+      </c>
+      <c r="AW14" s="50">
+        <v>18</v>
+      </c>
+      <c r="AX14" s="50">
+        <v>19</v>
+      </c>
+      <c r="AY14" s="50">
+        <v>20</v>
+      </c>
+      <c r="AZ14" s="50">
+        <v>21</v>
+      </c>
+      <c r="BA14" s="50">
+        <v>22</v>
+      </c>
+      <c r="BB14" s="50">
+        <v>23</v>
+      </c>
+      <c r="BC14" s="50">
+        <v>24</v>
+      </c>
+      <c r="BD14" s="50">
+        <v>25</v>
+      </c>
+      <c r="BE14" s="50">
+        <v>26</v>
+      </c>
+      <c r="BF14" s="50">
+        <v>27</v>
+      </c>
+      <c r="BG14" s="50">
+        <v>28</v>
+      </c>
+      <c r="BH14" s="50">
+        <v>29</v>
+      </c>
+      <c r="BI14" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="C15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="D15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="E15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="F15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="G15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="H15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="I15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="J15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="K15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="L15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="M15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="N15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="O15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="P15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="Q15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="R15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="S15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="T15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="U15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="V15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="W15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="X15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="Y15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="Z15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="AA15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="AB15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="AC15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="AD15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="AE15" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="AF15" s="43">
+        <f>_xlfn.RANK.AVG(B15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AG15" s="43">
+        <f>_xlfn.RANK.AVG(C15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AH15" s="43">
+        <f>_xlfn.RANK.AVG(D15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AI15" s="43">
+        <f>_xlfn.RANK.AVG(E15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AJ15" s="43">
+        <f>_xlfn.RANK.AVG(F15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AK15" s="43">
+        <f>_xlfn.RANK.AVG(G15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AL15" s="43">
+        <f>_xlfn.RANK.AVG(H15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AM15" s="43">
+        <f>_xlfn.RANK.AVG(I15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AN15" s="43">
+        <f>_xlfn.RANK.AVG(J15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AO15" s="43">
+        <f>_xlfn.RANK.AVG(K15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AP15" s="43">
+        <f>_xlfn.RANK.AVG(L15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AQ15" s="43">
+        <f>_xlfn.RANK.AVG(M15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AR15" s="43">
+        <f>_xlfn.RANK.AVG(N15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AS15" s="43">
+        <f>_xlfn.RANK.AVG(O15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AT15" s="43">
+        <f>_xlfn.RANK.AVG(P15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AU15" s="43">
+        <f>_xlfn.RANK.AVG(Q15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AV15" s="43">
+        <f>_xlfn.RANK.AVG(R15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AW15" s="43">
+        <f>_xlfn.RANK.AVG(S15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AX15" s="43">
+        <f>_xlfn.RANK.AVG(T15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AY15" s="43">
+        <f>_xlfn.RANK.AVG(U15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AZ15" s="43">
+        <f>_xlfn.RANK.AVG(V15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="BA15" s="43">
+        <f>_xlfn.RANK.AVG(W15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="BB15" s="43">
+        <f>_xlfn.RANK.AVG(X15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="BC15" s="43">
+        <f>_xlfn.RANK.AVG(Y15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="BD15" s="43">
+        <f>_xlfn.RANK.AVG(Z15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="BE15" s="43">
+        <f>_xlfn.RANK.AVG(AA15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="BF15" s="43">
+        <f>_xlfn.RANK.AVG(AB15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="BG15" s="43">
+        <f>_xlfn.RANK.AVG(AC15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="BH15" s="43">
+        <f>_xlfn.RANK.AVG(AD15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="BI15" s="43">
+        <f>_xlfn.RANK.AVG(AE15,B15:AE15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="BJ15">
+        <f>COUNTIF(AF15:BI15,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="46">
+        <v>0.57485900000000001</v>
+      </c>
+      <c r="C16" s="46">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="D16" s="46">
+        <v>0.58474599999999999</v>
+      </c>
+      <c r="E16" s="46">
+        <v>0.57627099999999998</v>
+      </c>
+      <c r="F16" s="46">
+        <v>0.59463299999999997</v>
+      </c>
+      <c r="G16" s="46">
+        <v>0.57344600000000001</v>
+      </c>
+      <c r="H16" s="46">
+        <v>0.56497200000000003</v>
+      </c>
+      <c r="I16" s="46">
+        <v>0.55508500000000005</v>
+      </c>
+      <c r="J16" s="46">
+        <v>0.56214699999999995</v>
+      </c>
+      <c r="K16" s="46">
+        <v>0.56073399999999995</v>
+      </c>
+      <c r="L16" s="46">
+        <v>0.55649700000000002</v>
+      </c>
+      <c r="M16" s="46">
+        <v>0.57627099999999998</v>
+      </c>
+      <c r="N16" s="46">
+        <v>0.57344600000000001</v>
+      </c>
+      <c r="O16" s="46">
+        <v>0.59463299999999997</v>
+      </c>
+      <c r="P16" s="46">
+        <v>0.59604500000000005</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>0.60028199999999998</v>
+      </c>
+      <c r="R16" s="46">
+        <v>0.59463299999999997</v>
+      </c>
+      <c r="S16" s="46">
+        <v>0.60028199999999998</v>
+      </c>
+      <c r="T16" s="46">
+        <v>0.61864399999999997</v>
+      </c>
+      <c r="U16" s="46">
+        <v>0.60875699999999999</v>
+      </c>
+      <c r="V16" s="46">
+        <v>0.60734500000000002</v>
+      </c>
+      <c r="W16" s="46">
+        <v>0.60451999999999995</v>
+      </c>
+      <c r="X16" s="46">
+        <v>0.60593200000000003</v>
+      </c>
+      <c r="Y16" s="46">
+        <v>0.61016899999999996</v>
+      </c>
+      <c r="Z16" s="46">
+        <v>0.61158199999999996</v>
+      </c>
+      <c r="AA16" s="46">
+        <v>0.60734500000000002</v>
+      </c>
+      <c r="AB16" s="46">
+        <v>0.61158199999999996</v>
+      </c>
+      <c r="AC16" s="46">
+        <v>0.62005600000000005</v>
+      </c>
+      <c r="AD16" s="46">
+        <v>0.62711899999999998</v>
+      </c>
+      <c r="AE16" s="46">
+        <v>0.63418099999999999</v>
+      </c>
+      <c r="AF16" s="43">
+        <f t="shared" ref="AF16:AF19" si="20">_xlfn.RANK.AVG(B16,B16:AE16)</f>
+        <v>23</v>
+      </c>
+      <c r="AG16" s="43">
+        <f t="shared" ref="AG16:AG19" si="21">_xlfn.RANK.AVG(C16,B16:AE16)</f>
+        <v>20</v>
+      </c>
+      <c r="AH16" s="43">
+        <f t="shared" ref="AH16:AH19" si="22">_xlfn.RANK.AVG(D16,C16:AF16)</f>
+        <v>20</v>
+      </c>
+      <c r="AI16" s="43">
+        <f t="shared" ref="AI16:AI19" si="23">_xlfn.RANK.AVG(E16,B16:AE16)</f>
+        <v>21.5</v>
+      </c>
+      <c r="AJ16" s="43">
+        <f t="shared" ref="AJ16:AJ19" si="24">_xlfn.RANK.AVG(F16,B16:AE16)</f>
+        <v>17</v>
+      </c>
+      <c r="AK16" s="43">
+        <f t="shared" ref="AK16:AK19" si="25">_xlfn.RANK.AVG(G16,B16:AE16)</f>
+        <v>24.5</v>
+      </c>
+      <c r="AL16" s="43">
+        <f t="shared" ref="AL16:AL19" si="26">_xlfn.RANK.AVG(H16,B16:AE16)</f>
+        <v>26</v>
+      </c>
+      <c r="AM16" s="43">
+        <f t="shared" ref="AM16:AM19" si="27">_xlfn.RANK.AVG(I16,B16:AE16)</f>
+        <v>30</v>
+      </c>
+      <c r="AN16" s="43">
+        <f t="shared" ref="AN16:AN19" si="28">_xlfn.RANK.AVG(J16,B16:AE16)</f>
+        <v>27</v>
+      </c>
+      <c r="AO16" s="43">
+        <f t="shared" ref="AO16:AO19" si="29">_xlfn.RANK.AVG(K16,B16:AE16)</f>
+        <v>28</v>
+      </c>
+      <c r="AP16" s="43">
+        <f t="shared" ref="AP16:AP19" si="30">_xlfn.RANK.AVG(L16,B16:AE16)</f>
+        <v>29</v>
+      </c>
+      <c r="AQ16" s="43">
+        <f t="shared" ref="AQ16:AQ19" si="31">_xlfn.RANK.AVG(M16,B16:AE16)</f>
+        <v>21.5</v>
+      </c>
+      <c r="AR16" s="43">
+        <f t="shared" ref="AR16:AR19" si="32">_xlfn.RANK.AVG(N16,B16:AE16)</f>
+        <v>24.5</v>
+      </c>
+      <c r="AS16" s="43">
+        <f t="shared" ref="AS16:AS19" si="33">_xlfn.RANK.AVG(O16,B16:AE16)</f>
+        <v>17</v>
+      </c>
+      <c r="AT16" s="43">
+        <f t="shared" ref="AT16:AT19" si="34">_xlfn.RANK.AVG(P16,B16:AE16)</f>
+        <v>15</v>
+      </c>
+      <c r="AU16" s="43">
+        <f t="shared" ref="AU16:AU19" si="35">_xlfn.RANK.AVG(Q16,B16:AE16)</f>
+        <v>13.5</v>
+      </c>
+      <c r="AV16" s="43">
+        <f t="shared" ref="AV16:AV19" si="36">_xlfn.RANK.AVG(R16,B16:AE16)</f>
+        <v>17</v>
+      </c>
+      <c r="AW16" s="43">
+        <f t="shared" ref="AW16:AW19" si="37">_xlfn.RANK.AVG(S16,B16:AE16)</f>
+        <v>13.5</v>
+      </c>
+      <c r="AX16" s="43">
+        <f t="shared" ref="AX16:AX19" si="38">_xlfn.RANK.AVG(T16,B16:AE16)</f>
+        <v>4</v>
+      </c>
+      <c r="AY16" s="43">
+        <f t="shared" ref="AY16:AY19" si="39">_xlfn.RANK.AVG(U16,B16:AE16)</f>
+        <v>8</v>
+      </c>
+      <c r="AZ16" s="43">
+        <f t="shared" ref="AZ16:AZ19" si="40">_xlfn.RANK.AVG(V16,B16:AE16)</f>
+        <v>9.5</v>
+      </c>
+      <c r="BA16" s="43">
+        <f t="shared" ref="BA16:BA19" si="41">_xlfn.RANK.AVG(W16,B16:AE16)</f>
+        <v>12</v>
+      </c>
+      <c r="BB16" s="43">
+        <f t="shared" ref="BB16:BB19" si="42">_xlfn.RANK.AVG(X16,B16:AE16)</f>
+        <v>11</v>
+      </c>
+      <c r="BC16" s="43">
+        <f t="shared" ref="BC16:BC19" si="43">_xlfn.RANK.AVG(Y16,B16:AE16)</f>
+        <v>7</v>
+      </c>
+      <c r="BD16" s="43">
+        <f t="shared" ref="BD16:BD19" si="44">_xlfn.RANK.AVG(Z16,B16:AE16)</f>
+        <v>5.5</v>
+      </c>
+      <c r="BE16" s="43">
+        <f t="shared" ref="BE16:BE19" si="45">_xlfn.RANK.AVG(AA16,B16:AE16)</f>
+        <v>9.5</v>
+      </c>
+      <c r="BF16" s="43">
+        <f t="shared" ref="BF16:BF19" si="46">_xlfn.RANK.AVG(AB16,B16:AE16)</f>
+        <v>5.5</v>
+      </c>
+      <c r="BG16" s="43">
+        <f t="shared" ref="BG16:BG19" si="47">_xlfn.RANK.AVG(AC16,B16:AE16)</f>
+        <v>3</v>
+      </c>
+      <c r="BH16" s="43">
+        <f t="shared" ref="BH16:BH19" si="48">_xlfn.RANK.AVG(AD16,B16:AE16)</f>
+        <v>2</v>
+      </c>
+      <c r="BI16" s="43">
+        <f t="shared" ref="BI16:BI19" si="49">_xlfn.RANK.AVG(AE16,B16:AE16)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ16">
+        <f t="shared" ref="BJ16:BJ20" si="50">COUNTIF(AF16:BI16,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A17" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="46">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="C17" s="46">
+        <v>0.90600899999999995</v>
+      </c>
+      <c r="D17" s="46">
+        <v>0.910632</v>
+      </c>
+      <c r="E17" s="46">
+        <v>0.910632</v>
+      </c>
+      <c r="F17" s="46">
+        <v>0.913713</v>
+      </c>
+      <c r="G17" s="46">
+        <v>0.91217300000000001</v>
+      </c>
+      <c r="H17" s="46">
+        <v>0.91987699999999994</v>
+      </c>
+      <c r="I17" s="46">
+        <v>0.91525400000000001</v>
+      </c>
+      <c r="J17" s="46">
+        <v>0.91525400000000001</v>
+      </c>
+      <c r="K17" s="46">
+        <v>0.91679500000000003</v>
+      </c>
+      <c r="L17" s="46">
+        <v>0.91833600000000004</v>
+      </c>
+      <c r="M17" s="46">
+        <v>0.90754999999999997</v>
+      </c>
+      <c r="N17" s="46">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="O17" s="46">
+        <v>0.91679500000000003</v>
+      </c>
+      <c r="P17" s="46">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>0.90754999999999997</v>
+      </c>
+      <c r="R17" s="46">
+        <v>0.910632</v>
+      </c>
+      <c r="S17" s="46">
+        <v>0.910632</v>
+      </c>
+      <c r="T17" s="46">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="U17" s="46">
+        <v>0.90292799999999995</v>
+      </c>
+      <c r="V17" s="46">
+        <v>0.89998</v>
+      </c>
+      <c r="W17" s="46">
+        <v>0.90292799999999995</v>
+      </c>
+      <c r="X17" s="46">
+        <v>0.89984600000000003</v>
+      </c>
+      <c r="Y17" s="46">
+        <v>0.89984600000000003</v>
+      </c>
+      <c r="Z17" s="46">
+        <v>0.90138700000000005</v>
+      </c>
+      <c r="AA17" s="46">
+        <v>0.90138700000000005</v>
+      </c>
+      <c r="AB17" s="46">
+        <v>0.90138700000000005</v>
+      </c>
+      <c r="AC17" s="46">
+        <v>0.89830500000000002</v>
+      </c>
+      <c r="AD17" s="46">
+        <v>0.90138700000000005</v>
+      </c>
+      <c r="AE17" s="46">
+        <v>0.90138700000000005</v>
+      </c>
+      <c r="AF17" s="43">
+        <f t="shared" si="20"/>
+        <v>14.5</v>
+      </c>
+      <c r="AG17" s="43">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="AH17" s="43">
+        <f t="shared" si="22"/>
+        <v>11.5</v>
+      </c>
+      <c r="AI17" s="43">
+        <f t="shared" si="23"/>
+        <v>10.5</v>
+      </c>
+      <c r="AJ17" s="43">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="AK17" s="43">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="AL17" s="43">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AM17" s="43">
+        <f t="shared" si="27"/>
+        <v>5.5</v>
+      </c>
+      <c r="AN17" s="43">
+        <f t="shared" si="28"/>
+        <v>5.5</v>
+      </c>
+      <c r="AO17" s="43">
+        <f t="shared" si="29"/>
+        <v>3.5</v>
+      </c>
+      <c r="AP17" s="43">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="AQ17" s="43">
+        <f t="shared" si="31"/>
+        <v>17.5</v>
+      </c>
+      <c r="AR17" s="43">
+        <f t="shared" si="32"/>
+        <v>14.5</v>
+      </c>
+      <c r="AS17" s="43">
+        <f t="shared" si="33"/>
+        <v>3.5</v>
+      </c>
+      <c r="AT17" s="43">
+        <f t="shared" si="34"/>
+        <v>14.5</v>
+      </c>
+      <c r="AU17" s="43">
+        <f t="shared" si="35"/>
+        <v>17.5</v>
+      </c>
+      <c r="AV17" s="43">
+        <f t="shared" si="36"/>
+        <v>10.5</v>
+      </c>
+      <c r="AW17" s="43">
+        <f t="shared" si="37"/>
+        <v>10.5</v>
+      </c>
+      <c r="AX17" s="43">
+        <f t="shared" si="38"/>
+        <v>14.5</v>
+      </c>
+      <c r="AY17" s="43">
+        <f t="shared" si="39"/>
+        <v>20.5</v>
+      </c>
+      <c r="AZ17" s="43">
+        <f t="shared" si="40"/>
+        <v>27</v>
+      </c>
+      <c r="BA17" s="43">
+        <f t="shared" si="41"/>
+        <v>20.5</v>
+      </c>
+      <c r="BB17" s="43">
+        <f t="shared" si="42"/>
+        <v>28.5</v>
+      </c>
+      <c r="BC17" s="43">
+        <f t="shared" si="43"/>
+        <v>28.5</v>
+      </c>
+      <c r="BD17" s="43">
+        <f t="shared" si="44"/>
+        <v>24</v>
+      </c>
+      <c r="BE17" s="43">
+        <f t="shared" si="45"/>
+        <v>24</v>
+      </c>
+      <c r="BF17" s="43">
+        <f t="shared" si="46"/>
+        <v>24</v>
+      </c>
+      <c r="BG17" s="43">
+        <f t="shared" si="47"/>
+        <v>30</v>
+      </c>
+      <c r="BH17" s="43">
+        <f t="shared" si="48"/>
+        <v>24</v>
+      </c>
+      <c r="BI17" s="43">
+        <f t="shared" si="49"/>
+        <v>24</v>
+      </c>
+      <c r="BJ17">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="46">
+        <v>0.76818200000000003</v>
+      </c>
+      <c r="C18" s="46">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="D18" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="E18" s="46">
+        <v>0.76590899999999995</v>
+      </c>
+      <c r="F18" s="46">
+        <v>0.76931799999999995</v>
+      </c>
+      <c r="G18" s="46">
+        <v>0.76704499999999998</v>
+      </c>
+      <c r="H18" s="46">
+        <v>0.76590899999999995</v>
+      </c>
+      <c r="I18" s="46">
+        <v>0.76477300000000004</v>
+      </c>
+      <c r="J18" s="46">
+        <v>0.76477300000000004</v>
+      </c>
+      <c r="K18" s="46">
+        <v>0.76477300000000004</v>
+      </c>
+      <c r="L18" s="46">
+        <v>0.77272700000000005</v>
+      </c>
+      <c r="M18" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="N18" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="O18" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="P18" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="R18" s="46">
+        <v>0.76704499999999998</v>
+      </c>
+      <c r="S18" s="46">
+        <v>0.76704499999999998</v>
+      </c>
+      <c r="T18" s="46">
+        <v>0.77159100000000003</v>
+      </c>
+      <c r="U18" s="46">
+        <v>0.77613600000000005</v>
+      </c>
+      <c r="V18" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="W18" s="46">
+        <v>0.76818200000000003</v>
+      </c>
+      <c r="X18" s="46">
+        <v>0.76931799999999995</v>
+      </c>
+      <c r="Y18" s="46">
+        <v>0.76931799999999995</v>
+      </c>
+      <c r="Z18" s="46">
+        <v>0.76818200000000003</v>
+      </c>
+      <c r="AA18" s="46">
+        <v>0.76818200000000003</v>
+      </c>
+      <c r="AB18" s="46">
+        <v>0.76931799999999995</v>
+      </c>
+      <c r="AC18" s="46">
+        <v>0.76818200000000003</v>
+      </c>
+      <c r="AD18" s="46">
+        <v>0.77159100000000003</v>
+      </c>
+      <c r="AE18" s="46">
+        <v>0.77159100000000003</v>
+      </c>
+      <c r="AF18" s="43">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="AG18" s="43">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+      <c r="AH18" s="43">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="AI18" s="43">
+        <f t="shared" si="23"/>
+        <v>25.5</v>
+      </c>
+      <c r="AJ18" s="43">
+        <f t="shared" si="24"/>
+        <v>14.5</v>
+      </c>
+      <c r="AK18" s="43">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="AL18" s="43">
+        <f t="shared" si="26"/>
+        <v>25.5</v>
+      </c>
+      <c r="AM18" s="43">
+        <f t="shared" si="27"/>
+        <v>28</v>
+      </c>
+      <c r="AN18" s="43">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="AO18" s="43">
+        <f t="shared" si="29"/>
+        <v>28</v>
+      </c>
+      <c r="AP18" s="43">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="AQ18" s="43">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="AR18" s="43">
+        <f t="shared" si="32"/>
+        <v>2.5</v>
+      </c>
+      <c r="AS18" s="43">
+        <f t="shared" si="33"/>
+        <v>2.5</v>
+      </c>
+      <c r="AT18" s="43">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="AU18" s="43">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="AV18" s="43">
+        <f t="shared" si="36"/>
+        <v>23</v>
+      </c>
+      <c r="AW18" s="43">
+        <f t="shared" si="37"/>
+        <v>23</v>
+      </c>
+      <c r="AX18" s="43">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AY18" s="43">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="43">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="BA18" s="43">
+        <f t="shared" si="41"/>
+        <v>19</v>
+      </c>
+      <c r="BB18" s="43">
+        <f t="shared" si="42"/>
+        <v>14.5</v>
+      </c>
+      <c r="BC18" s="43">
+        <f t="shared" si="43"/>
+        <v>14.5</v>
+      </c>
+      <c r="BD18" s="43">
+        <f t="shared" si="44"/>
+        <v>19</v>
+      </c>
+      <c r="BE18" s="43">
+        <f t="shared" si="45"/>
+        <v>19</v>
+      </c>
+      <c r="BF18" s="43">
+        <f t="shared" si="46"/>
+        <v>14.5</v>
+      </c>
+      <c r="BG18" s="43">
+        <f t="shared" si="47"/>
+        <v>19</v>
+      </c>
+      <c r="BH18" s="43">
+        <f t="shared" si="48"/>
+        <v>6</v>
+      </c>
+      <c r="BI18" s="43">
+        <f t="shared" si="49"/>
+        <v>6</v>
+      </c>
+      <c r="BJ18">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="46">
+        <v>0.74545499999999998</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0.74772700000000003</v>
+      </c>
+      <c r="D19" s="46">
+        <v>0.74204499999999995</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0.74318200000000001</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0.74204499999999995</v>
+      </c>
+      <c r="G19" s="46">
+        <v>0.73977300000000001</v>
+      </c>
+      <c r="H19" s="46">
+        <v>0.73977300000000001</v>
+      </c>
+      <c r="I19" s="46">
+        <v>0.74318200000000001</v>
+      </c>
+      <c r="J19" s="46">
+        <v>0.74431800000000004</v>
+      </c>
+      <c r="K19" s="46">
+        <v>0.73863599999999996</v>
+      </c>
+      <c r="L19" s="46">
+        <v>0.73977300000000001</v>
+      </c>
+      <c r="M19" s="46">
+        <v>0.73636400000000002</v>
+      </c>
+      <c r="N19" s="46">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="O19" s="46">
+        <v>0.74090900000000004</v>
+      </c>
+      <c r="P19" s="46">
+        <v>0.74204499999999995</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>0.746591</v>
+      </c>
+      <c r="R19" s="46">
+        <v>0.74545499999999998</v>
+      </c>
+      <c r="S19" s="46">
+        <v>0.746591</v>
+      </c>
+      <c r="T19" s="46">
+        <v>0.74090900000000004</v>
+      </c>
+      <c r="U19" s="46">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="V19" s="46">
+        <v>0.73863599999999996</v>
+      </c>
+      <c r="W19" s="46">
+        <v>0.73977300000000001</v>
+      </c>
+      <c r="X19" s="46">
+        <v>0.74431800000000004</v>
+      </c>
+      <c r="Y19" s="46">
+        <v>0.74090900000000004</v>
+      </c>
+      <c r="Z19" s="46">
+        <v>0.73977300000000001</v>
+      </c>
+      <c r="AA19" s="46">
+        <v>0.73977300000000001</v>
+      </c>
+      <c r="AB19" s="46">
+        <v>0.73863599999999996</v>
+      </c>
+      <c r="AC19" s="46">
+        <v>0.73636400000000002</v>
+      </c>
+      <c r="AD19" s="46">
+        <v>0.73636400000000002</v>
+      </c>
+      <c r="AE19" s="46">
+        <v>0.73636400000000002</v>
+      </c>
+      <c r="AF19" s="43">
+        <f t="shared" si="20"/>
+        <v>4.5</v>
+      </c>
+      <c r="AG19" s="43">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AH19" s="43">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="AI19" s="43">
+        <f t="shared" si="23"/>
+        <v>8.5</v>
+      </c>
+      <c r="AJ19" s="43">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="AK19" s="43">
+        <f t="shared" si="25"/>
+        <v>18.5</v>
+      </c>
+      <c r="AL19" s="43">
+        <f t="shared" si="26"/>
+        <v>18.5</v>
+      </c>
+      <c r="AM19" s="43">
+        <f t="shared" si="27"/>
+        <v>8.5</v>
+      </c>
+      <c r="AN19" s="43">
+        <f t="shared" si="28"/>
+        <v>6.5</v>
+      </c>
+      <c r="AO19" s="43">
+        <f t="shared" si="29"/>
+        <v>23</v>
+      </c>
+      <c r="AP19" s="43">
+        <f t="shared" si="30"/>
+        <v>18.5</v>
+      </c>
+      <c r="AQ19" s="43">
+        <f t="shared" si="31"/>
+        <v>28.5</v>
+      </c>
+      <c r="AR19" s="43">
+        <f t="shared" si="32"/>
+        <v>25.5</v>
+      </c>
+      <c r="AS19" s="43">
+        <f t="shared" si="33"/>
+        <v>14</v>
+      </c>
+      <c r="AT19" s="43">
+        <f t="shared" si="34"/>
+        <v>11</v>
+      </c>
+      <c r="AU19" s="43">
+        <f t="shared" si="35"/>
+        <v>2.5</v>
+      </c>
+      <c r="AV19" s="43">
+        <f t="shared" si="36"/>
+        <v>4.5</v>
+      </c>
+      <c r="AW19" s="43">
+        <f t="shared" si="37"/>
+        <v>2.5</v>
+      </c>
+      <c r="AX19" s="43">
+        <f t="shared" si="38"/>
+        <v>14</v>
+      </c>
+      <c r="AY19" s="43">
+        <f t="shared" si="39"/>
+        <v>25.5</v>
+      </c>
+      <c r="AZ19" s="43">
+        <f t="shared" si="40"/>
+        <v>23</v>
+      </c>
+      <c r="BA19" s="43">
+        <f t="shared" si="41"/>
+        <v>18.5</v>
+      </c>
+      <c r="BB19" s="43">
+        <f t="shared" si="42"/>
+        <v>6.5</v>
+      </c>
+      <c r="BC19" s="43">
+        <f t="shared" si="43"/>
+        <v>14</v>
+      </c>
+      <c r="BD19" s="43">
+        <f t="shared" si="44"/>
+        <v>18.5</v>
+      </c>
+      <c r="BE19" s="43">
+        <f t="shared" si="45"/>
+        <v>18.5</v>
+      </c>
+      <c r="BF19" s="43">
+        <f t="shared" si="46"/>
+        <v>23</v>
+      </c>
+      <c r="BG19" s="43">
+        <f t="shared" si="47"/>
+        <v>28.5</v>
+      </c>
+      <c r="BH19" s="43">
+        <f t="shared" si="48"/>
+        <v>28.5</v>
+      </c>
+      <c r="BI19" s="43">
+        <f t="shared" si="49"/>
+        <v>28.5</v>
+      </c>
+      <c r="BJ19">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A20" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="72">
+        <f>AVERAGE(B15:B19)</f>
+        <v>0.75226459999999995</v>
+      </c>
+      <c r="C20" s="72">
+        <f>AVERAGE(C15:C19)</f>
+        <v>0.75266100000000002</v>
+      </c>
+      <c r="D20" s="72">
+        <f>AVERAGE(D15:D19)</f>
+        <v>0.75432279999999996</v>
+      </c>
+      <c r="E20" s="72">
+        <f>AVERAGE(E15:E19)</f>
+        <v>0.751946</v>
+      </c>
+      <c r="F20" s="72">
+        <f>AVERAGE(F15:F19)</f>
+        <v>0.75668900000000006</v>
+      </c>
+      <c r="G20" s="72">
+        <f>AVERAGE(G15:G19)</f>
+        <v>0.75123459999999997</v>
+      </c>
+      <c r="H20" s="72">
+        <f>AVERAGE(H15:H19)</f>
+        <v>0.7508534</v>
+      </c>
+      <c r="I20" s="72">
+        <f>AVERAGE(I15:I19)</f>
+        <v>0.7484059999999999</v>
+      </c>
+      <c r="J20" s="72">
+        <f>AVERAGE(J15:J19)</f>
+        <v>0.75004559999999998</v>
+      </c>
+      <c r="K20" s="72">
+        <f>AVERAGE(K15:K19)</f>
+        <v>0.74893480000000001</v>
+      </c>
+      <c r="L20" s="72">
+        <f>AVERAGE(L15:L19)</f>
+        <v>0.75021380000000004</v>
+      </c>
+      <c r="M20" s="72">
+        <f>AVERAGE(M15:M19)</f>
+        <v>0.75087520000000008</v>
+      </c>
+      <c r="N20" s="72">
+        <f>AVERAGE(N15:N19)</f>
+        <v>0.75152739999999996</v>
+      </c>
+      <c r="O20" s="72">
+        <f>AVERAGE(O15:O19)</f>
+        <v>0.75798739999999998</v>
+      </c>
+      <c r="P20" s="72">
+        <f>AVERAGE(P15:P19)</f>
+        <v>0.75627440000000001</v>
+      </c>
+      <c r="Q20" s="72">
+        <f>AVERAGE(Q15:Q19)</f>
+        <v>0.75772280000000003</v>
+      </c>
+      <c r="R20" s="72">
+        <f>AVERAGE(R15:R19)</f>
+        <v>0.75630019999999987</v>
+      </c>
+      <c r="S20" s="72">
+        <f>AVERAGE(S15:S19)</f>
+        <v>0.75765719999999992</v>
+      </c>
+      <c r="T20" s="72">
+        <f>AVERAGE(T15:T19)</f>
+        <v>0.76079419999999998</v>
+      </c>
+      <c r="U20" s="72">
+        <f>AVERAGE(U15:U19)</f>
+        <v>0.75781139999999991</v>
+      </c>
+      <c r="V20" s="72">
+        <f>AVERAGE(V15:V19)</f>
+        <v>0.75603039999999999</v>
+      </c>
+      <c r="W20" s="72">
+        <f>AVERAGE(W15:W19)</f>
+        <v>0.75582779999999994</v>
+      </c>
+      <c r="X20" s="72">
+        <f>AVERAGE(X15:X19)</f>
+        <v>0.75663000000000002</v>
+      </c>
+      <c r="Y20" s="72">
+        <f>AVERAGE(Y15:Y19)</f>
+        <v>0.75679560000000001</v>
+      </c>
+      <c r="Z20" s="72">
+        <f>AVERAGE(Z15:Z19)</f>
+        <v>0.75693200000000005</v>
+      </c>
+      <c r="AA20" s="72">
+        <f>AVERAGE(AA15:AA19)</f>
+        <v>0.7560846</v>
+      </c>
+      <c r="AB20" s="72">
+        <f>AVERAGE(AB15:AB19)</f>
+        <v>0.75693180000000004</v>
+      </c>
+      <c r="AC20" s="72">
+        <f>AVERAGE(AC15:AC19)</f>
+        <v>0.75732860000000002</v>
+      </c>
+      <c r="AD20" s="72">
+        <f>AVERAGE(AD15:AD19)</f>
+        <v>0.76003939999999992</v>
+      </c>
+      <c r="AE20" s="72">
+        <f>AVERAGE(AE15:AE19)</f>
+        <v>0.76145180000000001</v>
+      </c>
+      <c r="AF20" s="44">
+        <f>AVERAGE(AF15:AF19)</f>
+        <v>15.3</v>
+      </c>
+      <c r="AG20" s="44">
+        <f t="shared" ref="AG20:BI20" si="51">AVERAGE(AG15:AG19)</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AH20" s="44">
+        <f t="shared" si="51"/>
+        <v>13.8</v>
+      </c>
+      <c r="AI20" s="44">
+        <f t="shared" si="51"/>
+        <v>16.3</v>
+      </c>
+      <c r="AJ20" s="44">
+        <f t="shared" si="51"/>
+        <v>13</v>
+      </c>
+      <c r="AK20" s="44">
+        <f t="shared" si="51"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AL20" s="44">
+        <f t="shared" si="51"/>
+        <v>17.3</v>
+      </c>
+      <c r="AM20" s="44">
+        <f t="shared" si="51"/>
+        <v>17.5</v>
+      </c>
+      <c r="AN20" s="44">
+        <f t="shared" si="51"/>
+        <v>16.5</v>
+      </c>
+      <c r="AO20" s="44">
+        <f t="shared" si="51"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AP20" s="44">
+        <f t="shared" si="51"/>
+        <v>13.8</v>
+      </c>
+      <c r="AQ20" s="44">
+        <f t="shared" si="51"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AR20" s="44">
+        <f t="shared" si="51"/>
+        <v>16.5</v>
+      </c>
+      <c r="AS20" s="44">
+        <f t="shared" si="51"/>
+        <v>10.5</v>
+      </c>
+      <c r="AT20" s="44">
+        <f t="shared" si="51"/>
+        <v>13.2</v>
+      </c>
+      <c r="AU20" s="44">
+        <f t="shared" si="51"/>
+        <v>11.8</v>
+      </c>
+      <c r="AV20" s="44">
+        <f t="shared" si="51"/>
+        <v>14.1</v>
+      </c>
+      <c r="AW20" s="44">
+        <f t="shared" si="51"/>
+        <v>13</v>
+      </c>
+      <c r="AX20" s="44">
+        <f t="shared" si="51"/>
+        <v>10.8</v>
+      </c>
+      <c r="AY20" s="44">
+        <f t="shared" si="51"/>
+        <v>14.1</v>
+      </c>
+      <c r="AZ20" s="44">
+        <f t="shared" si="51"/>
+        <v>17</v>
+      </c>
+      <c r="BA20" s="44">
+        <f t="shared" si="51"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="BB20" s="44">
+        <f t="shared" si="51"/>
+        <v>15.2</v>
+      </c>
+      <c r="BC20" s="44">
+        <f t="shared" si="51"/>
+        <v>15.9</v>
+      </c>
+      <c r="BD20" s="44">
+        <f t="shared" si="51"/>
+        <v>16.5</v>
+      </c>
+      <c r="BE20" s="44">
+        <f t="shared" si="51"/>
+        <v>17.3</v>
+      </c>
+      <c r="BF20" s="44">
+        <f t="shared" si="51"/>
+        <v>16.5</v>
+      </c>
+      <c r="BG20" s="44">
+        <f t="shared" si="51"/>
+        <v>19.2</v>
+      </c>
+      <c r="BH20" s="44">
+        <f t="shared" si="51"/>
+        <v>15.2</v>
+      </c>
+      <c r="BI20" s="44">
+        <f t="shared" si="51"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="53">
+        <f>COUNTIF(AF15:AF19,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="53">
+        <f t="shared" ref="C21:AE21" si="52">COUNTIF(AG15:AG19,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="53">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="53">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="V21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="53">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="42">
+        <f>AF20</f>
+        <v>15.3</v>
+      </c>
+      <c r="C22" s="42">
+        <f t="shared" ref="C22:AE22" si="53">AG20</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D22" s="42">
+        <f t="shared" si="53"/>
+        <v>13.8</v>
+      </c>
+      <c r="E22" s="42">
+        <f t="shared" si="53"/>
+        <v>16.3</v>
+      </c>
+      <c r="F22" s="42">
+        <f t="shared" si="53"/>
+        <v>13</v>
+      </c>
+      <c r="G22" s="42">
+        <f t="shared" si="53"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H22" s="42">
+        <f t="shared" si="53"/>
+        <v>17.3</v>
+      </c>
+      <c r="I22" s="42">
+        <f t="shared" si="53"/>
+        <v>17.5</v>
+      </c>
+      <c r="J22" s="42">
+        <f t="shared" si="53"/>
+        <v>16.5</v>
+      </c>
+      <c r="K22" s="42">
+        <f t="shared" si="53"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L22" s="42">
+        <f t="shared" si="53"/>
+        <v>13.8</v>
+      </c>
+      <c r="M22" s="42">
+        <f t="shared" si="53"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N22" s="42">
+        <f t="shared" si="53"/>
+        <v>16.5</v>
+      </c>
+      <c r="O22" s="42">
+        <f t="shared" si="53"/>
+        <v>10.5</v>
+      </c>
+      <c r="P22" s="42">
+        <f t="shared" si="53"/>
+        <v>13.2</v>
+      </c>
+      <c r="Q22" s="42">
+        <f t="shared" si="53"/>
+        <v>11.8</v>
+      </c>
+      <c r="R22" s="42">
+        <f t="shared" si="53"/>
+        <v>14.1</v>
+      </c>
+      <c r="S22" s="42">
+        <f t="shared" si="53"/>
+        <v>13</v>
+      </c>
+      <c r="T22" s="42">
+        <f t="shared" si="53"/>
+        <v>10.8</v>
+      </c>
+      <c r="U22" s="42">
+        <f t="shared" si="53"/>
+        <v>14.1</v>
+      </c>
+      <c r="V22" s="42">
+        <f t="shared" si="53"/>
+        <v>17</v>
+      </c>
+      <c r="W22" s="42">
+        <f t="shared" si="53"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="X22" s="42">
+        <f t="shared" si="53"/>
+        <v>15.2</v>
+      </c>
+      <c r="Y22" s="42">
+        <f t="shared" si="53"/>
+        <v>15.9</v>
+      </c>
+      <c r="Z22" s="42">
+        <f t="shared" si="53"/>
+        <v>16.5</v>
+      </c>
+      <c r="AA22" s="42">
+        <f t="shared" si="53"/>
+        <v>17.3</v>
+      </c>
+      <c r="AB22" s="42">
+        <f t="shared" si="53"/>
+        <v>16.5</v>
+      </c>
+      <c r="AC22" s="42">
+        <f t="shared" si="53"/>
+        <v>19.2</v>
+      </c>
+      <c r="AD22" s="42">
+        <f t="shared" si="53"/>
+        <v>15.2</v>
+      </c>
+      <c r="AE22" s="42">
+        <f t="shared" si="53"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="50">
+        <v>50</v>
+      </c>
+      <c r="C26" s="50">
+        <v>100</v>
+      </c>
+      <c r="D26" s="50">
+        <v>150</v>
+      </c>
+      <c r="E26" s="50">
+        <v>200</v>
+      </c>
+      <c r="F26" s="50">
+        <v>250</v>
+      </c>
+      <c r="G26" s="50">
+        <v>300</v>
+      </c>
+      <c r="H26" s="50">
+        <v>350</v>
+      </c>
+      <c r="I26" s="50">
+        <v>400</v>
+      </c>
+      <c r="J26" s="50">
+        <v>450</v>
+      </c>
+      <c r="K26" s="50">
+        <v>500</v>
+      </c>
+      <c r="L26" s="50">
+        <v>50</v>
+      </c>
+      <c r="M26" s="50">
+        <v>100</v>
+      </c>
+      <c r="N26" s="50">
+        <v>150</v>
+      </c>
+      <c r="O26" s="50">
+        <v>200</v>
+      </c>
+      <c r="P26" s="50">
+        <v>250</v>
+      </c>
+      <c r="Q26" s="50">
+        <v>300</v>
+      </c>
+      <c r="R26" s="50">
+        <v>350</v>
+      </c>
+      <c r="S26" s="50">
+        <v>400</v>
+      </c>
+      <c r="T26" s="50">
+        <v>450</v>
+      </c>
+      <c r="U26" s="50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="46">
+        <v>0.76510999999999996</v>
+      </c>
+      <c r="C27" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="D27" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="E27" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="F27" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="G27" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="H27" s="46">
+        <v>0.76510999999999996</v>
+      </c>
+      <c r="I27" s="46">
+        <v>0.76510999999999996</v>
+      </c>
+      <c r="J27" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="K27" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="L27" s="43">
+        <f>_xlfn.RANK.AVG(B27,B27:K27)</f>
+        <v>2</v>
+      </c>
+      <c r="M27" s="43">
+        <f>_xlfn.RANK.AVG(C27,B27:K27)</f>
+        <v>8.5</v>
+      </c>
+      <c r="N27" s="43">
+        <f>_xlfn.RANK.AVG(D27,B27:K27)</f>
+        <v>5</v>
+      </c>
+      <c r="O27" s="43">
+        <f>_xlfn.RANK.AVG(E27,B27:K27)</f>
+        <v>5</v>
+      </c>
+      <c r="P27" s="43">
+        <f>_xlfn.RANK.AVG(F27,B27:K27)</f>
+        <v>8.5</v>
+      </c>
+      <c r="Q27" s="43">
+        <f>_xlfn.RANK.AVG(G27,B27:K27)</f>
+        <v>5</v>
+      </c>
+      <c r="R27" s="43">
+        <f>_xlfn.RANK.AVG(H27,B27:K27)</f>
+        <v>2</v>
+      </c>
+      <c r="S27" s="43">
+        <f>_xlfn.RANK.AVG(I27,B27:K27)</f>
+        <v>2</v>
+      </c>
+      <c r="T27" s="43">
+        <f>_xlfn.RANK.AVG(J27,B27:K27)</f>
+        <v>8.5</v>
+      </c>
+      <c r="U27" s="43">
+        <f>_xlfn.RANK.AVG(K27,B27:K27)</f>
+        <v>8.5</v>
+      </c>
+      <c r="V27">
+        <f>COUNTIF(L27:U27,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="46">
+        <v>0.57203400000000004</v>
+      </c>
+      <c r="C28" s="46">
+        <v>0.57768399999999998</v>
+      </c>
+      <c r="D28" s="46">
+        <v>0.58474599999999999</v>
+      </c>
+      <c r="E28" s="46">
+        <v>0.910632</v>
+      </c>
+      <c r="F28" s="46">
+        <v>0.59463299999999997</v>
+      </c>
+      <c r="G28" s="46">
+        <v>0.58615799999999996</v>
+      </c>
+      <c r="H28" s="46">
+        <v>0.58175699999999997</v>
+      </c>
+      <c r="I28" s="46">
+        <v>0.591808</v>
+      </c>
+      <c r="J28" s="46">
+        <v>0.58898300000000003</v>
+      </c>
+      <c r="K28" s="46">
+        <v>0.58757099999999995</v>
+      </c>
+      <c r="L28" s="43">
+        <f t="shared" ref="L28:L31" si="54">_xlfn.RANK.AVG(B28,B28:K28)</f>
+        <v>10</v>
+      </c>
+      <c r="M28" s="43">
+        <f t="shared" ref="M28:M31" si="55">_xlfn.RANK.AVG(C28,B28:K28)</f>
+        <v>9</v>
+      </c>
+      <c r="N28" s="43">
+        <f t="shared" ref="N28:N31" si="56">_xlfn.RANK.AVG(D28,B28:K28)</f>
+        <v>7</v>
+      </c>
+      <c r="O28" s="43">
+        <f t="shared" ref="O28:O31" si="57">_xlfn.RANK.AVG(E28,B28:K28)</f>
+        <v>1</v>
+      </c>
+      <c r="P28" s="43">
+        <f t="shared" ref="P28:P31" si="58">_xlfn.RANK.AVG(F28,B28:K28)</f>
+        <v>2</v>
+      </c>
+      <c r="Q28" s="43">
+        <f t="shared" ref="Q28:Q31" si="59">_xlfn.RANK.AVG(G28,B28:K28)</f>
+        <v>6</v>
+      </c>
+      <c r="R28" s="43">
+        <f t="shared" ref="R28:R31" si="60">_xlfn.RANK.AVG(H28,B28:K28)</f>
+        <v>8</v>
+      </c>
+      <c r="S28" s="43">
+        <f t="shared" ref="S28:S31" si="61">_xlfn.RANK.AVG(I28,B28:K28)</f>
+        <v>3</v>
+      </c>
+      <c r="T28" s="43">
+        <f t="shared" ref="T28:T31" si="62">_xlfn.RANK.AVG(J28,B28:K28)</f>
+        <v>4</v>
+      </c>
+      <c r="U28" s="43">
+        <f t="shared" ref="U28:U31" si="63">_xlfn.RANK.AVG(K28,B28:K28)</f>
+        <v>5</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ref="V28:V31" si="64">COUNTIF(L28:U28,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="46">
+        <v>0.913713</v>
+      </c>
+      <c r="C29" s="46">
+        <v>0.913713</v>
+      </c>
+      <c r="D29" s="46">
+        <v>0.91217300000000001</v>
+      </c>
+      <c r="E29" s="46">
+        <v>0.910632</v>
+      </c>
+      <c r="F29" s="46">
+        <v>0.910632</v>
+      </c>
+      <c r="G29" s="46">
+        <v>0.91217300000000001</v>
+      </c>
+      <c r="H29" s="46">
+        <v>0.91217300000000001</v>
+      </c>
+      <c r="I29" s="46">
+        <v>0.91217300000000001</v>
+      </c>
+      <c r="J29" s="46">
+        <v>0.91217300000000001</v>
+      </c>
+      <c r="K29" s="46">
+        <v>0.910632</v>
+      </c>
+      <c r="L29" s="43">
+        <f t="shared" si="54"/>
+        <v>1.5</v>
+      </c>
+      <c r="M29" s="43">
+        <f t="shared" si="55"/>
+        <v>1.5</v>
+      </c>
+      <c r="N29" s="43">
+        <f t="shared" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="O29" s="43">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+      <c r="P29" s="43">
+        <f t="shared" si="58"/>
+        <v>9</v>
+      </c>
+      <c r="Q29" s="43">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="R29" s="43">
+        <f t="shared" si="60"/>
+        <v>5</v>
+      </c>
+      <c r="S29" s="43">
+        <f t="shared" si="61"/>
+        <v>5</v>
+      </c>
+      <c r="T29" s="43">
+        <f t="shared" si="62"/>
+        <v>5</v>
+      </c>
+      <c r="U29" s="43">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="46">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C30" s="46">
+        <v>0.77840900000000002</v>
+      </c>
+      <c r="D30" s="46">
+        <v>0.77840900000000002</v>
+      </c>
+      <c r="E30" s="46">
+        <v>0.77727299999999999</v>
+      </c>
+      <c r="F30" s="46">
+        <v>0.77727299999999999</v>
+      </c>
+      <c r="G30" s="46">
+        <v>0.77954500000000004</v>
+      </c>
+      <c r="H30" s="46">
+        <v>0.77613600000000005</v>
+      </c>
+      <c r="I30" s="46">
+        <v>0.77840900000000002</v>
+      </c>
+      <c r="J30" s="46">
+        <v>0.77954500000000004</v>
+      </c>
+      <c r="K30" s="46">
+        <v>0.77954500000000004</v>
+      </c>
+      <c r="L30" s="43">
+        <f t="shared" si="54"/>
+        <v>10</v>
+      </c>
+      <c r="M30" s="43">
+        <f t="shared" si="55"/>
+        <v>5</v>
+      </c>
+      <c r="N30" s="43">
+        <f t="shared" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="O30" s="43">
+        <f t="shared" si="57"/>
+        <v>7.5</v>
+      </c>
+      <c r="P30" s="43">
+        <f t="shared" si="58"/>
+        <v>7.5</v>
+      </c>
+      <c r="Q30" s="43">
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="R30" s="43">
+        <f t="shared" si="60"/>
+        <v>9</v>
+      </c>
+      <c r="S30" s="43">
+        <f t="shared" si="61"/>
+        <v>5</v>
+      </c>
+      <c r="T30" s="43">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="U30" s="43">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="46">
+        <v>0.74545499999999998</v>
+      </c>
+      <c r="C31" s="46">
+        <v>0.74318200000000001</v>
+      </c>
+      <c r="D31" s="46">
+        <v>0.74204499999999995</v>
+      </c>
+      <c r="E31" s="46">
+        <v>0.74318200000000001</v>
+      </c>
+      <c r="F31" s="46">
+        <v>0.74431800000000004</v>
+      </c>
+      <c r="G31" s="46">
+        <v>0.746591</v>
+      </c>
+      <c r="H31" s="46">
+        <v>0.746591</v>
+      </c>
+      <c r="I31" s="46">
+        <v>0.746591</v>
+      </c>
+      <c r="J31" s="46">
+        <v>0.74545499999999998</v>
+      </c>
+      <c r="K31" s="46">
+        <v>0.746591</v>
+      </c>
+      <c r="L31" s="43">
+        <f t="shared" si="54"/>
+        <v>5.5</v>
+      </c>
+      <c r="M31" s="43">
+        <f t="shared" si="55"/>
+        <v>8.5</v>
+      </c>
+      <c r="N31" s="43">
+        <f t="shared" si="56"/>
+        <v>10</v>
+      </c>
+      <c r="O31" s="43">
+        <f t="shared" si="57"/>
+        <v>8.5</v>
+      </c>
+      <c r="P31" s="43">
+        <f t="shared" si="58"/>
+        <v>7</v>
+      </c>
+      <c r="Q31" s="43">
+        <f t="shared" si="59"/>
+        <v>2.5</v>
+      </c>
+      <c r="R31" s="43">
+        <f t="shared" si="60"/>
+        <v>2.5</v>
+      </c>
+      <c r="S31" s="43">
+        <f t="shared" si="61"/>
+        <v>2.5</v>
+      </c>
+      <c r="T31" s="43">
+        <f t="shared" si="62"/>
+        <v>5.5</v>
+      </c>
+      <c r="U31" s="43">
+        <f t="shared" si="63"/>
+        <v>2.5</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="71">
+        <f>AVERAGE(B27:B31)</f>
+        <v>0.7542624</v>
+      </c>
+      <c r="C32" s="71">
+        <f>AVERAGE(C27:C31)</f>
+        <v>0.75507019999999991</v>
+      </c>
+      <c r="D32" s="71">
+        <f>AVERAGE(D27:D31)</f>
+        <v>0.75622179999999994</v>
+      </c>
+      <c r="E32" s="71">
+        <f>AVERAGE(E27:E31)</f>
+        <v>0.82109100000000002</v>
+      </c>
+      <c r="F32" s="71">
+        <f>AVERAGE(F27:F31)</f>
+        <v>0.75784380000000007</v>
+      </c>
+      <c r="G32" s="71">
+        <f>AVERAGE(G27:G31)</f>
+        <v>0.7576406</v>
+      </c>
+      <c r="H32" s="71">
+        <f>AVERAGE(H27:H31)</f>
+        <v>0.75635340000000006</v>
+      </c>
+      <c r="I32" s="71">
+        <f>AVERAGE(I27:I31)</f>
+        <v>0.7588182</v>
+      </c>
+      <c r="J32" s="71">
+        <f>AVERAGE(J27:J31)</f>
+        <v>0.75770380000000004</v>
+      </c>
+      <c r="K32" s="71">
+        <f>AVERAGE(K27:K31)</f>
+        <v>0.75734040000000002</v>
+      </c>
+      <c r="L32" s="44">
+        <f>AVERAGE(L27:L31)</f>
+        <v>5.8</v>
+      </c>
+      <c r="M32" s="44">
+        <f t="shared" ref="M32:U32" si="65">AVERAGE(M27:M31)</f>
+        <v>6.5</v>
+      </c>
+      <c r="N32" s="44">
+        <f t="shared" si="65"/>
+        <v>6.4</v>
+      </c>
+      <c r="O32" s="44">
+        <f t="shared" si="65"/>
+        <v>6.2</v>
+      </c>
+      <c r="P32" s="44">
+        <f>AVERAGE(P27:P31)</f>
+        <v>6.8</v>
+      </c>
+      <c r="Q32" s="44">
+        <f t="shared" si="65"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R32" s="44">
+        <f t="shared" si="65"/>
+        <v>5.3</v>
+      </c>
+      <c r="S32" s="44">
+        <f t="shared" si="65"/>
+        <v>3.5</v>
+      </c>
+      <c r="T32" s="44">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="U32" s="44">
+        <f t="shared" si="65"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="42">
+        <f>COUNTIF(L27:L31,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="42">
+        <f t="shared" ref="C33:K33" si="66">COUNTIF(M27:M31,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="42">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="42">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="42">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="42">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="42">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="42">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="42">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="42">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="42">
+        <f>L32</f>
+        <v>5.8</v>
+      </c>
+      <c r="C34" s="42">
+        <f t="shared" ref="C34:K34" si="67">M32</f>
+        <v>6.5</v>
+      </c>
+      <c r="D34" s="42">
+        <f t="shared" si="67"/>
+        <v>6.4</v>
+      </c>
+      <c r="E34" s="42">
+        <f t="shared" si="67"/>
+        <v>6.2</v>
+      </c>
+      <c r="F34" s="42">
+        <f t="shared" si="67"/>
+        <v>6.8</v>
+      </c>
+      <c r="G34" s="42">
+        <f t="shared" si="67"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H34" s="42">
+        <f t="shared" si="67"/>
+        <v>5.3</v>
+      </c>
+      <c r="I34" s="42">
+        <f>S32</f>
+        <v>3.5</v>
+      </c>
+      <c r="J34" s="42">
+        <f t="shared" si="67"/>
+        <v>5</v>
+      </c>
+      <c r="K34" s="42">
+        <f t="shared" si="67"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="46">
+        <v>0.76098900000000003</v>
+      </c>
+      <c r="C39" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="D39" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="E39" s="43">
+        <f>_xlfn.RANK.AVG(B39,B39:D39)</f>
+        <v>3</v>
+      </c>
+      <c r="F39" s="43">
+        <f>_xlfn.RANK.AVG(C39,B39:D39)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G39" s="43">
+        <f>_xlfn.RANK.AVG(D39,B39:D39)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H39">
+        <f>COUNTIF(E39:G39,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="46">
+        <v>0.85028199999999998</v>
+      </c>
+      <c r="C40" s="46">
+        <v>0.83757099999999995</v>
+      </c>
+      <c r="D40" s="46">
+        <v>0.88700599999999996</v>
+      </c>
+      <c r="E40" s="43">
+        <f t="shared" ref="E40:E44" si="68">_xlfn.RANK.AVG(B40,B40:D40)</f>
+        <v>2</v>
+      </c>
+      <c r="F40" s="43">
+        <f t="shared" ref="F40:F44" si="69">_xlfn.RANK.AVG(C40,B40:D40)</f>
+        <v>3</v>
+      </c>
+      <c r="G40" s="43">
+        <f t="shared" ref="G40:G44" si="70">_xlfn.RANK.AVG(D40,B40:D40)</f>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40:H43" si="71">COUNTIF(E40:G40,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="46">
+        <v>0.91679500000000003</v>
+      </c>
+      <c r="C41" s="46">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="D41" s="46">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="E41" s="43">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="43">
+        <f t="shared" si="69"/>
+        <v>2.5</v>
+      </c>
+      <c r="G41" s="43">
+        <f t="shared" si="70"/>
+        <v>2.5</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="C42" s="46">
+        <v>0.76136400000000004</v>
+      </c>
+      <c r="D42" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="E42" s="43">
+        <f t="shared" si="68"/>
+        <v>1.5</v>
+      </c>
+      <c r="F42" s="43">
+        <f t="shared" si="69"/>
+        <v>3</v>
+      </c>
+      <c r="G42" s="43">
+        <f t="shared" si="70"/>
+        <v>1.5</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="46">
+        <v>0.75568199999999996</v>
+      </c>
+      <c r="C43" s="46">
+        <v>0.73977300000000001</v>
+      </c>
+      <c r="D43" s="46">
+        <v>0.73977300000000001</v>
+      </c>
+      <c r="E43" s="43">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="43">
+        <f t="shared" si="69"/>
+        <v>2.5</v>
+      </c>
+      <c r="G43" s="43">
+        <f t="shared" si="70"/>
+        <v>2.5</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="71">
+        <f>AVERAGE(B39:B43)</f>
+        <v>0.81152239999999998</v>
+      </c>
+      <c r="C44" s="71">
+        <f>AVERAGE(C39:C43)</f>
+        <v>0.8023070000000001</v>
+      </c>
+      <c r="D44" s="71">
+        <f>AVERAGE(D39:D43)</f>
+        <v>0.81469400000000003</v>
+      </c>
+      <c r="E44" s="43">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="F44" s="43">
+        <f t="shared" si="69"/>
+        <v>3</v>
+      </c>
+      <c r="G44" s="43">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="42">
+        <f>COUNTIF(E39:E43,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C45" s="42">
+        <f t="shared" ref="C45:D45" si="72">COUNTIF(F39:F43,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="42">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="42">
+        <f>E44</f>
+        <v>2</v>
+      </c>
+      <c r="C46" s="42">
+        <f t="shared" ref="C46:D46" si="73">F44</f>
+        <v>3</v>
+      </c>
+      <c r="D46" s="42">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="61"/>
+      <c r="W49" s="61"/>
+      <c r="X49" s="61"/>
+      <c r="Y49" s="61"/>
+      <c r="Z49" s="61"/>
+      <c r="AA49" s="61"/>
+      <c r="AB49" s="61"/>
+      <c r="AC49" s="61"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="61"/>
+      <c r="AF49" s="61"/>
+      <c r="AG49" s="61"/>
+      <c r="AH49" s="61"/>
+      <c r="AI49" s="61"/>
+      <c r="AJ49" s="61"/>
+      <c r="AK49" s="61"/>
+      <c r="AL49" s="61"/>
+      <c r="AM49" s="61"/>
+      <c r="AN49" s="61"/>
+      <c r="AO49" s="61"/>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A50" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="50">
+        <v>2</v>
+      </c>
+      <c r="D50" s="50">
+        <v>3</v>
+      </c>
+      <c r="E50" s="50">
+        <v>4</v>
+      </c>
+      <c r="F50" s="50">
+        <v>5</v>
+      </c>
+      <c r="G50" s="50">
+        <v>6</v>
+      </c>
+      <c r="H50" s="50">
+        <v>7</v>
+      </c>
+      <c r="I50" s="50">
+        <v>8</v>
+      </c>
+      <c r="J50" s="50">
+        <v>9</v>
+      </c>
+      <c r="K50" s="50">
+        <v>10</v>
+      </c>
+      <c r="L50" s="50">
+        <v>11</v>
+      </c>
+      <c r="M50" s="50">
+        <v>12</v>
+      </c>
+      <c r="N50" s="50">
+        <v>13</v>
+      </c>
+      <c r="O50" s="50">
+        <v>14</v>
+      </c>
+      <c r="P50" s="50">
+        <v>15</v>
+      </c>
+      <c r="Q50" s="50">
+        <v>16</v>
+      </c>
+      <c r="R50" s="50">
+        <v>17</v>
+      </c>
+      <c r="S50" s="50">
+        <v>18</v>
+      </c>
+      <c r="T50" s="50">
+        <v>19</v>
+      </c>
+      <c r="U50" s="50">
+        <v>20</v>
+      </c>
+      <c r="V50" s="50">
+        <v>1</v>
+      </c>
+      <c r="W50" s="50">
+        <v>2</v>
+      </c>
+      <c r="X50" s="50">
+        <v>3</v>
+      </c>
+      <c r="Y50" s="50">
+        <v>4</v>
+      </c>
+      <c r="Z50" s="50">
+        <v>5</v>
+      </c>
+      <c r="AA50" s="50">
+        <v>6</v>
+      </c>
+      <c r="AB50" s="50">
+        <v>7</v>
+      </c>
+      <c r="AC50" s="50">
+        <v>8</v>
+      </c>
+      <c r="AD50" s="50">
+        <v>9</v>
+      </c>
+      <c r="AE50" s="50">
+        <v>10</v>
+      </c>
+      <c r="AF50" s="50">
+        <v>11</v>
+      </c>
+      <c r="AG50" s="50">
+        <v>12</v>
+      </c>
+      <c r="AH50" s="50">
+        <v>13</v>
+      </c>
+      <c r="AI50" s="50">
+        <v>14</v>
+      </c>
+      <c r="AJ50" s="50">
+        <v>15</v>
+      </c>
+      <c r="AK50" s="50">
+        <v>16</v>
+      </c>
+      <c r="AL50" s="50">
+        <v>17</v>
+      </c>
+      <c r="AM50" s="50">
+        <v>18</v>
+      </c>
+      <c r="AN50" s="50">
+        <v>19</v>
+      </c>
+      <c r="AO50" s="50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A51" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="46">
+        <v>0.72802199999999995</v>
+      </c>
+      <c r="C51" s="46">
+        <v>0.74587899999999996</v>
+      </c>
+      <c r="D51" s="46">
+        <v>0.75274700000000005</v>
+      </c>
+      <c r="E51" s="46">
+        <v>0.75686799999999999</v>
+      </c>
+      <c r="F51" s="46">
+        <v>0.76235299999999995</v>
+      </c>
+      <c r="G51" s="46">
+        <v>0.76098900000000003</v>
+      </c>
+      <c r="H51" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="I51" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="J51" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="K51" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="L51" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="M51" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="N51" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="O51" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="P51" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="Q51" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="R51" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="S51" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="T51" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="U51" s="75">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="V51" s="43">
+        <f>_xlfn.RANK.AVG(B51,B51:U51)</f>
+        <v>20</v>
+      </c>
+      <c r="W51" s="43">
+        <f>_xlfn.RANK.AVG(C51,B51:U51)</f>
+        <v>19</v>
+      </c>
+      <c r="X51" s="43">
+        <f>_xlfn.RANK.AVG(D51,B51:U51)</f>
+        <v>18</v>
+      </c>
+      <c r="Y51" s="43">
+        <f>_xlfn.RANK.AVG(E51,B51:U51)</f>
+        <v>17</v>
+      </c>
+      <c r="Z51" s="43">
+        <f>_xlfn.RANK.AVG(F51,B51:U51)</f>
+        <v>15</v>
+      </c>
+      <c r="AA51" s="43">
+        <f>_xlfn.RANK.AVG(G51,B51:U51)</f>
+        <v>16</v>
+      </c>
+      <c r="AB51" s="43">
+        <f>_xlfn.RANK.AVG(H51,B51:U51)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AC51" s="43">
+        <f>_xlfn.RANK.AVG(I51,B51:U51)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AD51" s="43">
+        <f>_xlfn.RANK.AVG(J51,B51:U51)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AE51" s="43">
+        <f>_xlfn.RANK.AVG(K51,B51:U51)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AF51" s="43">
+        <f>_xlfn.RANK.AVG(L51,B51:U51)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AG51" s="43">
+        <f>_xlfn.RANK.AVG(M51,B51:U51)</f>
+        <v>12.5</v>
+      </c>
+      <c r="AH51" s="43">
+        <f>_xlfn.RANK.AVG(N51,B51:U51)</f>
+        <v>12.5</v>
+      </c>
+      <c r="AI51" s="43">
+        <f>_xlfn.RANK.AVG(O51,B51:U51)</f>
+        <v>12.5</v>
+      </c>
+      <c r="AJ51" s="43">
+        <f>_xlfn.RANK.AVG(P51,B51:U51)</f>
+        <v>12.5</v>
+      </c>
+      <c r="AK51" s="43">
+        <f>_xlfn.RANK.AVG(Q51,B51:U51)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AL51" s="43">
+        <f>_xlfn.RANK.AVG(R51,B51:U51)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AM51" s="43">
+        <f>_xlfn.RANK.AVG(S51,B51:U51)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AN51" s="43">
+        <f>_xlfn.RANK.AVG(T51,B51:U51)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AO51" s="43">
+        <f>_xlfn.RANK.AVG(U51,B51:U51)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AP51">
+        <f>COUNTIF(V51:AO51,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A52" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="46">
+        <v>0.54661000000000004</v>
+      </c>
+      <c r="C52" s="46">
+        <v>0.55508500000000005</v>
+      </c>
+      <c r="D52" s="46">
+        <v>0.52824899999999997</v>
+      </c>
+      <c r="E52" s="46">
+        <v>0.55084699999999998</v>
+      </c>
+      <c r="F52" s="46">
+        <v>0.59463299999999997</v>
+      </c>
+      <c r="G52" s="46">
+        <v>0.58474599999999999</v>
+      </c>
+      <c r="H52" s="46">
+        <v>0.57062100000000004</v>
+      </c>
+      <c r="I52" s="46">
+        <v>0.58615799999999996</v>
+      </c>
+      <c r="J52" s="46">
+        <v>0.54802300000000004</v>
+      </c>
+      <c r="K52" s="46">
+        <v>0.53389799999999998</v>
+      </c>
+      <c r="L52" s="46">
+        <v>0.53107300000000002</v>
+      </c>
+      <c r="M52" s="46">
+        <v>0.51694899999999999</v>
+      </c>
+      <c r="N52" s="46">
+        <v>0.52966100000000005</v>
+      </c>
+      <c r="O52" s="46">
+        <v>0.50988699999999998</v>
+      </c>
+      <c r="P52" s="46">
+        <v>0.53672299999999995</v>
+      </c>
+      <c r="Q52" s="46">
+        <v>0.55932199999999999</v>
+      </c>
+      <c r="R52" s="46">
+        <v>0.56497200000000003</v>
+      </c>
+      <c r="S52" s="46">
+        <v>0.56920899999999996</v>
+      </c>
+      <c r="T52" s="46">
+        <v>0.61299400000000004</v>
+      </c>
+      <c r="U52" s="75">
+        <v>0.62005600000000005</v>
+      </c>
+      <c r="V52" s="43">
+        <f t="shared" ref="V52:V55" si="74">_xlfn.RANK.AVG(B52,B52:U52)</f>
+        <v>13</v>
+      </c>
+      <c r="W52" s="43">
+        <f t="shared" ref="W52:W55" si="75">_xlfn.RANK.AVG(C52,B52:U52)</f>
+        <v>10</v>
+      </c>
+      <c r="X52" s="43">
+        <f t="shared" ref="X52:X55" si="76">_xlfn.RANK.AVG(D52,B52:U52)</f>
+        <v>18</v>
+      </c>
+      <c r="Y52" s="43">
+        <f t="shared" ref="Y52:Y55" si="77">_xlfn.RANK.AVG(E52,B52:U52)</f>
+        <v>11</v>
+      </c>
+      <c r="Z52" s="43">
+        <f t="shared" ref="Z52:Z55" si="78">_xlfn.RANK.AVG(F52,B52:U52)</f>
+        <v>3</v>
+      </c>
+      <c r="AA52" s="43">
+        <f t="shared" ref="AA52:AA55" si="79">_xlfn.RANK.AVG(G52,B52:U52)</f>
+        <v>5</v>
+      </c>
+      <c r="AB52" s="43">
+        <f t="shared" ref="AB52:AB55" si="80">_xlfn.RANK.AVG(H52,B52:U52)</f>
+        <v>6</v>
+      </c>
+      <c r="AC52" s="43">
+        <f t="shared" ref="AC52:AC55" si="81">_xlfn.RANK.AVG(I52,B52:U52)</f>
+        <v>4</v>
+      </c>
+      <c r="AD52" s="43">
+        <f t="shared" ref="AD52:AD55" si="82">_xlfn.RANK.AVG(J52,B52:U52)</f>
+        <v>12</v>
+      </c>
+      <c r="AE52" s="43">
+        <f t="shared" ref="AE52:AE55" si="83">_xlfn.RANK.AVG(K52,B52:U52)</f>
+        <v>15</v>
+      </c>
+      <c r="AF52" s="43">
+        <f t="shared" ref="AF52:AF55" si="84">_xlfn.RANK.AVG(L52,B52:U52)</f>
+        <v>16</v>
+      </c>
+      <c r="AG52" s="43">
+        <f t="shared" ref="AG52:AG55" si="85">_xlfn.RANK.AVG(M52,B52:U52)</f>
+        <v>19</v>
+      </c>
+      <c r="AH52" s="43">
+        <f t="shared" ref="AH52:AH55" si="86">_xlfn.RANK.AVG(N52,B52:U52)</f>
+        <v>17</v>
+      </c>
+      <c r="AI52" s="43">
+        <f t="shared" ref="AI52:AI55" si="87">_xlfn.RANK.AVG(O52,B52:U52)</f>
+        <v>20</v>
+      </c>
+      <c r="AJ52" s="43">
+        <f t="shared" ref="AJ52:AJ55" si="88">_xlfn.RANK.AVG(P52,B52:U52)</f>
+        <v>14</v>
+      </c>
+      <c r="AK52" s="43">
+        <f t="shared" ref="AK52:AK55" si="89">_xlfn.RANK.AVG(Q52,B52:U52)</f>
+        <v>9</v>
+      </c>
+      <c r="AL52" s="43">
+        <f t="shared" ref="AL52:AL55" si="90">_xlfn.RANK.AVG(R52,B52:U52)</f>
+        <v>8</v>
+      </c>
+      <c r="AM52" s="43">
+        <f t="shared" ref="AM52:AM55" si="91">_xlfn.RANK.AVG(S52,B52:U52)</f>
+        <v>7</v>
+      </c>
+      <c r="AN52" s="43">
+        <f t="shared" ref="AN52:AN55" si="92">_xlfn.RANK.AVG(T52,B52:U52)</f>
+        <v>2</v>
+      </c>
+      <c r="AO52" s="43">
+        <f t="shared" ref="AO52:AO55" si="93">_xlfn.RANK.AVG(U52,B52:U52)</f>
+        <v>1</v>
+      </c>
+      <c r="AP52">
+        <f t="shared" ref="AP52:AP55" si="94">COUNTIF(V52:AO52,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A53" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="46">
+        <v>0.88905999999999996</v>
+      </c>
+      <c r="C53" s="46">
+        <v>0.913713</v>
+      </c>
+      <c r="D53" s="46">
+        <v>0.90754999999999997</v>
+      </c>
+      <c r="E53" s="46">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="F53" s="46">
+        <v>0.91217300000000001</v>
+      </c>
+      <c r="G53" s="46">
+        <v>0.91217300000000001</v>
+      </c>
+      <c r="H53" s="46">
+        <v>0.913713</v>
+      </c>
+      <c r="I53" s="46">
+        <v>0.910632</v>
+      </c>
+      <c r="J53" s="46">
+        <v>0.90600899999999995</v>
+      </c>
+      <c r="K53" s="46">
+        <v>0.90138700000000005</v>
+      </c>
+      <c r="L53" s="46">
+        <v>0.90754999999999997</v>
+      </c>
+      <c r="M53" s="46">
+        <v>0.90446800000000005</v>
+      </c>
+      <c r="N53" s="46">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="O53" s="46">
+        <v>0.91525400000000001</v>
+      </c>
+      <c r="P53" s="46">
+        <v>0.91217300000000001</v>
+      </c>
+      <c r="Q53" s="46">
+        <v>0.90754999999999997</v>
+      </c>
+      <c r="R53" s="46">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="S53" s="46">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="T53" s="46">
+        <v>0.90292799999999995</v>
+      </c>
+      <c r="U53" s="75">
+        <v>0.90138700000000005</v>
+      </c>
+      <c r="V53" s="43">
+        <f t="shared" si="74"/>
+        <v>20</v>
+      </c>
+      <c r="W53" s="43">
+        <f t="shared" si="75"/>
+        <v>2.5</v>
+      </c>
+      <c r="X53" s="43">
+        <f t="shared" si="76"/>
+        <v>13</v>
+      </c>
+      <c r="Y53" s="43">
+        <f t="shared" si="77"/>
+        <v>9.5</v>
+      </c>
+      <c r="Z53" s="43">
+        <f t="shared" si="78"/>
+        <v>5</v>
+      </c>
+      <c r="AA53" s="43">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AB53" s="43">
+        <f t="shared" si="80"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC53" s="43">
+        <f t="shared" si="81"/>
+        <v>7</v>
+      </c>
+      <c r="AD53" s="43">
+        <f t="shared" si="82"/>
+        <v>15</v>
+      </c>
+      <c r="AE53" s="43">
+        <f t="shared" si="83"/>
+        <v>18.5</v>
+      </c>
+      <c r="AF53" s="43">
+        <f t="shared" si="84"/>
+        <v>13</v>
+      </c>
+      <c r="AG53" s="43">
+        <f t="shared" si="85"/>
+        <v>16</v>
+      </c>
+      <c r="AH53" s="43">
+        <f t="shared" si="86"/>
+        <v>9.5</v>
+      </c>
+      <c r="AI53" s="43">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="AJ53" s="43">
+        <f t="shared" si="88"/>
+        <v>5</v>
+      </c>
+      <c r="AK53" s="43">
+        <f t="shared" si="89"/>
+        <v>13</v>
+      </c>
+      <c r="AL53" s="43">
+        <f t="shared" si="90"/>
+        <v>9.5</v>
+      </c>
+      <c r="AM53" s="43">
+        <f t="shared" si="91"/>
+        <v>9.5</v>
+      </c>
+      <c r="AN53" s="43">
+        <f t="shared" si="92"/>
+        <v>17</v>
+      </c>
+      <c r="AO53" s="43">
+        <f t="shared" si="93"/>
+        <v>18.5</v>
+      </c>
+      <c r="AP53">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A54" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="C54" s="46">
+        <v>0.77954500000000004</v>
+      </c>
+      <c r="D54" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="E54" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="F54" s="46">
+        <v>0.78636399999999995</v>
+      </c>
+      <c r="G54" s="46">
+        <v>0.78068199999999999</v>
+      </c>
+      <c r="H54" s="46">
+        <v>0.78295499999999996</v>
+      </c>
+      <c r="I54" s="46">
+        <v>0.77272700000000005</v>
+      </c>
+      <c r="J54" s="46">
+        <v>0.77613600000000005</v>
+      </c>
+      <c r="K54" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="L54" s="46">
+        <v>0.77727299999999999</v>
+      </c>
+      <c r="M54" s="46">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="N54" s="46">
+        <v>0.77272700000000005</v>
+      </c>
+      <c r="O54" s="46">
+        <v>0.77613600000000005</v>
+      </c>
+      <c r="P54" s="46">
+        <v>0.77272700000000005</v>
+      </c>
+      <c r="Q54" s="46">
+        <v>0.76931799999999995</v>
+      </c>
+      <c r="R54" s="46">
+        <v>0.76931799999999995</v>
+      </c>
+      <c r="S54" s="46">
+        <v>0.76590899999999995</v>
+      </c>
+      <c r="T54" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="U54" s="75">
+        <v>0.78181800000000001</v>
+      </c>
+      <c r="V54" s="43">
+        <f t="shared" si="74"/>
+        <v>16.5</v>
+      </c>
+      <c r="W54" s="43">
+        <f t="shared" si="75"/>
+        <v>5</v>
+      </c>
+      <c r="X54" s="43">
+        <f t="shared" si="76"/>
+        <v>11</v>
+      </c>
+      <c r="Y54" s="43">
+        <f t="shared" si="77"/>
+        <v>11</v>
+      </c>
+      <c r="Z54" s="43">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="AA54" s="43">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="AB54" s="43">
+        <f t="shared" si="80"/>
+        <v>2</v>
+      </c>
+      <c r="AC54" s="43">
+        <f t="shared" si="81"/>
+        <v>14</v>
+      </c>
+      <c r="AD54" s="43">
+        <f t="shared" si="82"/>
+        <v>7.5</v>
+      </c>
+      <c r="AE54" s="43">
+        <f t="shared" si="83"/>
+        <v>16.5</v>
+      </c>
+      <c r="AF54" s="43">
+        <f t="shared" si="84"/>
+        <v>6</v>
+      </c>
+      <c r="AG54" s="43">
+        <f t="shared" si="85"/>
+        <v>9</v>
+      </c>
+      <c r="AH54" s="43">
+        <f t="shared" si="86"/>
+        <v>14</v>
+      </c>
+      <c r="AI54" s="43">
+        <f t="shared" si="87"/>
+        <v>7.5</v>
+      </c>
+      <c r="AJ54" s="43">
+        <f t="shared" si="88"/>
+        <v>14</v>
+      </c>
+      <c r="AK54" s="43">
+        <f t="shared" si="89"/>
+        <v>18.5</v>
+      </c>
+      <c r="AL54" s="43">
+        <f t="shared" si="90"/>
+        <v>18.5</v>
+      </c>
+      <c r="AM54" s="43">
+        <f t="shared" si="91"/>
+        <v>20</v>
+      </c>
+      <c r="AN54" s="43">
+        <f t="shared" si="92"/>
+        <v>11</v>
+      </c>
+      <c r="AO54" s="43">
+        <f t="shared" si="93"/>
+        <v>3</v>
+      </c>
+      <c r="AP54">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A55" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="46">
+        <v>0.65113600000000005</v>
+      </c>
+      <c r="C55" s="46">
+        <v>0.74886399999999997</v>
+      </c>
+      <c r="D55" s="46">
+        <v>0.75113600000000003</v>
+      </c>
+      <c r="E55" s="46">
+        <v>0.73863599999999996</v>
+      </c>
+      <c r="F55" s="46">
+        <v>0.746591</v>
+      </c>
+      <c r="G55" s="46">
+        <v>0.73636400000000002</v>
+      </c>
+      <c r="H55" s="46">
+        <v>0.73636400000000002</v>
+      </c>
+      <c r="I55" s="46">
+        <v>0.74431800000000004</v>
+      </c>
+      <c r="J55" s="46">
+        <v>0.74318200000000001</v>
+      </c>
+      <c r="K55" s="46">
+        <v>0.74090900000000004</v>
+      </c>
+      <c r="L55" s="46">
+        <v>0.73977300000000001</v>
+      </c>
+      <c r="M55" s="46">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="N55" s="46">
+        <v>0.73863599999999996</v>
+      </c>
+      <c r="O55" s="46">
+        <v>0.73977300000000001</v>
+      </c>
+      <c r="P55" s="46">
+        <v>0.74090900000000004</v>
+      </c>
+      <c r="Q55" s="46">
+        <v>0.74545499999999998</v>
+      </c>
+      <c r="R55" s="46">
+        <v>0.74318200000000001</v>
+      </c>
+      <c r="S55" s="46">
+        <v>0.74318200000000001</v>
+      </c>
+      <c r="T55" s="46">
+        <v>0.73863599999999996</v>
+      </c>
+      <c r="U55" s="75">
+        <v>0.73636400000000002</v>
+      </c>
+      <c r="V55" s="43">
+        <f t="shared" si="74"/>
+        <v>20</v>
+      </c>
+      <c r="W55" s="43">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="X55" s="43">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="Y55" s="43">
+        <f t="shared" si="77"/>
+        <v>14</v>
+      </c>
+      <c r="Z55" s="43">
+        <f t="shared" si="78"/>
+        <v>3</v>
+      </c>
+      <c r="AA55" s="43">
+        <f t="shared" si="79"/>
+        <v>18</v>
+      </c>
+      <c r="AB55" s="43">
+        <f t="shared" si="80"/>
+        <v>18</v>
+      </c>
+      <c r="AC55" s="43">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="AD55" s="43">
+        <f t="shared" si="82"/>
+        <v>7</v>
+      </c>
+      <c r="AE55" s="43">
+        <f t="shared" si="83"/>
+        <v>9.5</v>
+      </c>
+      <c r="AF55" s="43">
+        <f t="shared" si="84"/>
+        <v>11.5</v>
+      </c>
+      <c r="AG55" s="43">
+        <f t="shared" si="85"/>
+        <v>16</v>
+      </c>
+      <c r="AH55" s="43">
+        <f t="shared" si="86"/>
+        <v>14</v>
+      </c>
+      <c r="AI55" s="43">
+        <f t="shared" si="87"/>
+        <v>11.5</v>
+      </c>
+      <c r="AJ55" s="43">
+        <f t="shared" si="88"/>
+        <v>9.5</v>
+      </c>
+      <c r="AK55" s="43">
+        <f t="shared" si="89"/>
+        <v>4</v>
+      </c>
+      <c r="AL55" s="43">
+        <f t="shared" si="90"/>
+        <v>7</v>
+      </c>
+      <c r="AM55" s="43">
+        <f t="shared" si="91"/>
+        <v>7</v>
+      </c>
+      <c r="AN55" s="43">
+        <f t="shared" si="92"/>
+        <v>14</v>
+      </c>
+      <c r="AO55" s="43">
+        <f t="shared" si="93"/>
+        <v>18</v>
+      </c>
+      <c r="AP55">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A56" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="74">
+        <f>AVERAGE(B51:B55)</f>
+        <v>0.71705660000000004</v>
+      </c>
+      <c r="C56" s="74">
+        <f>AVERAGE(C51:C55)</f>
+        <v>0.74861719999999998</v>
+      </c>
+      <c r="D56" s="74">
+        <f>AVERAGE(D51:D55)</f>
+        <v>0.74270919999999996</v>
+      </c>
+      <c r="E56" s="74">
+        <f>AVERAGE(E51:E55)</f>
+        <v>0.7458612</v>
+      </c>
+      <c r="F56" s="74">
+        <f>AVERAGE(F51:F55)</f>
+        <v>0.76042279999999995</v>
+      </c>
+      <c r="G56" s="74">
+        <f>AVERAGE(G51:G55)</f>
+        <v>0.75499080000000007</v>
+      </c>
+      <c r="H56" s="74">
+        <f>AVERAGE(H51:H55)</f>
+        <v>0.75347779999999998</v>
+      </c>
+      <c r="I56" s="74">
+        <f>AVERAGE(I51:I55)</f>
+        <v>0.75551420000000002</v>
+      </c>
+      <c r="J56" s="74">
+        <f>AVERAGE(J51:J55)</f>
+        <v>0.7474172</v>
+      </c>
+      <c r="K56" s="74">
+        <f>AVERAGE(K51:K55)</f>
+        <v>0.7420770000000001</v>
+      </c>
+      <c r="L56" s="74">
+        <f>AVERAGE(L51:L55)</f>
+        <v>0.74388100000000001</v>
+      </c>
+      <c r="M56" s="74">
+        <f>AVERAGE(M51:M55)</f>
+        <v>0.73925599999999991</v>
+      </c>
+      <c r="N56" s="74">
+        <f>AVERAGE(N51:N55)</f>
+        <v>0.74249560000000003</v>
+      </c>
+      <c r="O56" s="74">
+        <f>AVERAGE(O51:O55)</f>
+        <v>0.74068260000000008</v>
+      </c>
+      <c r="P56" s="74">
+        <f>AVERAGE(P51:P55)</f>
+        <v>0.74497900000000006</v>
+      </c>
+      <c r="Q56" s="74">
+        <f>AVERAGE(Q51:Q55)</f>
+        <v>0.74907619999999997</v>
+      </c>
+      <c r="R56" s="74">
+        <f>AVERAGE(R51:R55)</f>
+        <v>0.75005980000000005</v>
+      </c>
+      <c r="S56" s="74">
+        <f>AVERAGE(S51:S55)</f>
+        <v>0.75022540000000004</v>
+      </c>
+      <c r="T56" s="74">
+        <f>AVERAGE(T51:T55)</f>
+        <v>0.75843159999999998</v>
+      </c>
+      <c r="U56" s="74">
+        <f>AVERAGE(U51:U55)</f>
+        <v>0.76067220000000002</v>
+      </c>
+      <c r="V56" s="44">
+        <f>AVERAGE(V51:V55)</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="W56" s="44">
+        <f t="shared" ref="W56:AO56" si="95">AVERAGE(W51:W55)</f>
+        <v>7.7</v>
+      </c>
+      <c r="X56" s="44">
+        <f t="shared" si="95"/>
+        <v>12.2</v>
+      </c>
+      <c r="Y56" s="44">
+        <f t="shared" si="95"/>
+        <v>12.5</v>
+      </c>
+      <c r="Z56" s="44">
+        <f t="shared" si="95"/>
+        <v>5.4</v>
+      </c>
+      <c r="AA56" s="44">
+        <f t="shared" si="95"/>
+        <v>9.6</v>
+      </c>
+      <c r="AB56" s="44">
+        <f t="shared" si="95"/>
+        <v>6.8</v>
+      </c>
+      <c r="AC56" s="44">
+        <f t="shared" si="95"/>
+        <v>7.1</v>
+      </c>
+      <c r="AD56" s="44">
+        <f t="shared" si="95"/>
+        <v>9.4</v>
+      </c>
+      <c r="AE56" s="44">
+        <f t="shared" si="95"/>
+        <v>13</v>
+      </c>
+      <c r="AF56" s="44">
+        <f t="shared" si="95"/>
+        <v>10.4</v>
+      </c>
+      <c r="AG56" s="44">
+        <f t="shared" si="95"/>
+        <v>14.5</v>
+      </c>
+      <c r="AH56" s="44">
+        <f t="shared" si="95"/>
+        <v>13.4</v>
+      </c>
+      <c r="AI56" s="44">
+        <f t="shared" si="95"/>
+        <v>10.5</v>
+      </c>
+      <c r="AJ56" s="44">
+        <f t="shared" si="95"/>
+        <v>11</v>
+      </c>
+      <c r="AK56" s="44">
+        <f t="shared" si="95"/>
+        <v>10</v>
+      </c>
+      <c r="AL56" s="44">
+        <f t="shared" si="95"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AM56" s="44">
+        <f t="shared" si="95"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AN56" s="44">
+        <f t="shared" si="95"/>
+        <v>9.9</v>
+      </c>
+      <c r="AO56" s="44">
+        <f t="shared" si="95"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A57" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="42">
+        <f>COUNTIF(V51:V55,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="42">
+        <f t="shared" ref="C57:U57" si="96">COUNTIF(W51:W55,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="42">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="42">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="42">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="P57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="42">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A58" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="42">
+        <f>V56</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C58" s="42">
+        <f t="shared" ref="C58:U58" si="97">W56</f>
+        <v>7.7</v>
+      </c>
+      <c r="D58" s="42">
+        <f t="shared" si="97"/>
+        <v>12.2</v>
+      </c>
+      <c r="E58" s="42">
+        <f t="shared" si="97"/>
+        <v>12.5</v>
+      </c>
+      <c r="F58" s="42">
+        <f t="shared" si="97"/>
+        <v>5.4</v>
+      </c>
+      <c r="G58" s="42">
+        <f t="shared" si="97"/>
+        <v>9.6</v>
+      </c>
+      <c r="H58" s="42">
+        <f t="shared" si="97"/>
+        <v>6.8</v>
+      </c>
+      <c r="I58" s="42">
+        <f t="shared" si="97"/>
+        <v>7.1</v>
+      </c>
+      <c r="J58" s="42">
+        <f t="shared" si="97"/>
+        <v>9.4</v>
+      </c>
+      <c r="K58" s="42">
+        <f t="shared" si="97"/>
+        <v>13</v>
+      </c>
+      <c r="L58" s="42">
+        <f t="shared" si="97"/>
+        <v>10.4</v>
+      </c>
+      <c r="M58" s="42">
+        <f t="shared" si="97"/>
+        <v>14.5</v>
+      </c>
+      <c r="N58" s="42">
+        <f t="shared" si="97"/>
+        <v>13.4</v>
+      </c>
+      <c r="O58" s="42">
+        <f t="shared" si="97"/>
+        <v>10.5</v>
+      </c>
+      <c r="P58" s="42">
+        <f t="shared" si="97"/>
+        <v>11</v>
+      </c>
+      <c r="Q58" s="42">
+        <f t="shared" si="97"/>
+        <v>10</v>
+      </c>
+      <c r="R58" s="42">
+        <f t="shared" si="97"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S58" s="42">
+        <f t="shared" si="97"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T58" s="42">
+        <f t="shared" si="97"/>
+        <v>9.9</v>
+      </c>
+      <c r="U58" s="42">
+        <f t="shared" si="97"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="10:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J74" s="63"/>
+    </row>
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J75" s="64"/>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J76" s="64"/>
+    </row>
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J77" s="64"/>
+    </row>
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J78" s="64"/>
+    </row>
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J79" s="64"/>
+    </row>
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J80" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A49:AO49"/>
+    <mergeCell ref="A13:BI13"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A25:U25"/>
+    <mergeCell ref="A1:AE1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TCC/Experimentos/CalibragemDaJanela/calibragem.xlsx
+++ b/TCC/Experimentos/CalibragemDaJanela/calibragem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9450" windowWidth="15345" windowHeight="4575" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="9900" windowWidth="15345" windowHeight="4575" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="calibragem janela" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
   <si>
     <t>Tamanho da Jenala de Treino</t>
   </si>
@@ -165,6 +165,9 @@
   <si>
     <t>Algoritmo PART</t>
   </si>
+  <si>
+    <t>Vitoria Média</t>
+  </si>
 </sst>
 </file>
 
@@ -193,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -469,34 +478,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -529,6 +510,38 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9113,7 +9126,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10682,7 +10694,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10789,7 +10800,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11860,7 +11870,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11967,7 +11976,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12657,7 +12665,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12764,7 +12771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14078,7 +14084,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14719,7 +14724,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20507,31 +20511,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="59"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
@@ -22766,28 +22770,28 @@
       <c r="E96" s="2"/>
     </row>
     <row r="103" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="57" t="s">
+      <c r="B103" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
     </row>
     <row r="104" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B104" s="60" t="s">
+      <c r="B104" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="57" t="s">
+      <c r="C104" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="70"/>
+      <c r="H104" s="70"/>
       <c r="L104" s="4" t="s">
         <v>0</v>
       </c>
@@ -22800,7 +22804,7 @@
       <c r="O104" s="20"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B105" s="60"/>
+      <c r="B105" s="73"/>
       <c r="C105" s="10" t="s">
         <v>1</v>
       </c>
@@ -26104,51 +26108,51 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="K4" s="61" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="K4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="K5" s="60" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="K5" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="60"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
@@ -26170,7 +26174,7 @@
       <c r="I6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="60"/>
+      <c r="K6" s="73"/>
       <c r="L6" s="10" t="s">
         <v>1</v>
       </c>
@@ -26446,15 +26450,15 @@
         <f t="shared" si="1"/>
         <v>0.76818200000000003</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
@@ -26483,17 +26487,17 @@
         <f t="shared" si="1"/>
         <v>0.76477300000000004</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="57" t="s">
+      <c r="L13" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="22">
@@ -26522,7 +26526,7 @@
         <f t="shared" si="1"/>
         <v>0.76249999999999996</v>
       </c>
-      <c r="K14" s="60"/>
+      <c r="K14" s="73"/>
       <c r="L14" s="10" t="s">
         <v>1</v>
       </c>
@@ -26994,15 +26998,15 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="K24" s="23">
         <v>10</v>
       </c>
@@ -27031,17 +27035,17 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="K25" s="23">
         <v>11</v>
       </c>
@@ -27070,7 +27074,7 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="60"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="10" t="s">
         <v>1</v>
       </c>
@@ -27642,15 +27646,15 @@
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
-      <c r="K37" s="61" t="s">
+      <c r="K37" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="22">
@@ -27679,17 +27683,17 @@
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
-      <c r="K38" s="60" t="s">
+      <c r="K38" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="57" t="s">
+      <c r="L38" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
     </row>
     <row r="39" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="22">
@@ -27718,7 +27722,7 @@
         <f t="shared" si="6"/>
         <v>0.76373599999999997</v>
       </c>
-      <c r="K39" s="60"/>
+      <c r="K39" s="73"/>
       <c r="L39" s="10" t="s">
         <v>1</v>
       </c>
@@ -28297,31 +28301,31 @@
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="60" t="s">
+      <c r="B60" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
     </row>
     <row r="61" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="60"/>
+      <c r="B61" s="73"/>
       <c r="C61" s="10" t="s">
         <v>1</v>
       </c>
@@ -28625,12 +28629,12 @@
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="62"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
       <c r="H72" s="25">
         <f>AVERAGE(H62:H71)</f>
         <v>0.76323456000000012</v>
@@ -28642,13 +28646,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:Q38"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:Q5"/>
@@ -28661,6 +28658,13 @@
     <mergeCell ref="K12:Q12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:Q38"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28670,10 +28674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ80"/>
+  <dimension ref="A1:BJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AC82" sqref="AC82"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="78" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28685,39 +28689,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
@@ -29453,7 +29457,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="R8" s="43">
-        <f t="shared" ref="Q8:AE8" si="17">AVERAGE(R3:R7)</f>
+        <f t="shared" ref="R8:AE8" si="17">AVERAGE(R3:R7)</f>
         <v>6.2</v>
       </c>
       <c r="S8" s="43">
@@ -29510,66 +29514,66 @@
       </c>
     </row>
     <row r="9" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="77">
         <f>COUNTIF(Q3:Q7,1)</f>
         <v>3</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="77">
         <f t="shared" ref="C9:P9" si="18">COUNTIF(R3:R7,1)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="77">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="77">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="77">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="77">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="77">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="77">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="77">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="77">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="77">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="77">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N9" s="53">
+      <c r="N9" s="77">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="77">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="77">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -29639,4033 +29643,4163 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="43">
+        <f>_xlfn.RANK.AVG(B8,B8:P8)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="43">
+        <f t="shared" ref="C11:P11" si="20">_xlfn.RANK.AVG(C8,C8:Q8)</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="43">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="43">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="43">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="43">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="H11" s="43">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="I11" s="43">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="J11" s="43">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="K11" s="43">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="L11" s="43">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="M11" s="43">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="43">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="O11" s="43">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="P11" s="43">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="43">
+        <f>_xlfn.RANK.AVG(B10,B10:P10)</f>
+        <v>15</v>
+      </c>
+      <c r="C12" s="43">
+        <f>_xlfn.RANK.AVG(C10,B10:P10)</f>
+        <v>10.5</v>
+      </c>
+      <c r="D12" s="43">
+        <f>_xlfn.RANK.AVG(D10,B10:P10)</f>
+        <v>14</v>
+      </c>
+      <c r="E12" s="43">
+        <f>_xlfn.RANK.AVG(E10,B10:P10)</f>
+        <v>12</v>
+      </c>
+      <c r="F12" s="43">
+        <f>_xlfn.RANK.AVG(F10,B10:P10)</f>
+        <v>8</v>
+      </c>
+      <c r="G12" s="43">
+        <f>_xlfn.RANK.AVG(G10,B10:P10)</f>
+        <v>10.5</v>
+      </c>
+      <c r="H12" s="43">
+        <f>_xlfn.RANK.AVG(H10,B10:P10)</f>
+        <v>9</v>
+      </c>
+      <c r="I12" s="43">
+        <f>_xlfn.RANK.AVG(I10,B10:P10)</f>
+        <v>13</v>
+      </c>
+      <c r="J12" s="43">
+        <f>_xlfn.RANK.AVG(J10,B10:P10)</f>
+        <v>5</v>
+      </c>
+      <c r="K12" s="43">
+        <f>_xlfn.RANK.AVG(K10,B10:P10)</f>
+        <v>6</v>
+      </c>
+      <c r="L12" s="43">
+        <f>_xlfn.RANK.AVG(L10,B10:P10)</f>
+        <v>7</v>
+      </c>
+      <c r="M12" s="43">
+        <f>_xlfn.RANK.AVG(M10,B10:P10)</f>
+        <v>4</v>
+      </c>
+      <c r="N12" s="43">
+        <f>_xlfn.RANK.AVG(N10,B10:P10)</f>
+        <v>3</v>
+      </c>
+      <c r="O12" s="43">
+        <f>_xlfn.RANK.AVG(O10,B10:P10)</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="43">
+        <f>_xlfn.RANK.AVG(P10,B10:P10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="61"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="61"/>
-      <c r="AJ13" s="61"/>
-      <c r="AK13" s="61"/>
-      <c r="AL13" s="61"/>
-      <c r="AM13" s="61"/>
-      <c r="AN13" s="61"/>
-      <c r="AO13" s="61"/>
-      <c r="AP13" s="61"/>
-      <c r="AQ13" s="61"/>
-      <c r="AR13" s="61"/>
-      <c r="AS13" s="61"/>
-      <c r="AT13" s="61"/>
-      <c r="AU13" s="61"/>
-      <c r="AV13" s="61"/>
-      <c r="AW13" s="61"/>
-      <c r="AX13" s="61"/>
-      <c r="AY13" s="61"/>
-      <c r="AZ13" s="61"/>
-      <c r="BA13" s="61"/>
-      <c r="BB13" s="61"/>
-      <c r="BC13" s="61"/>
-      <c r="BD13" s="61"/>
-      <c r="BE13" s="61"/>
-      <c r="BF13" s="61"/>
-      <c r="BG13" s="61"/>
-      <c r="BH13" s="61"/>
-      <c r="BI13" s="61"/>
-    </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="50">
-        <v>1</v>
-      </c>
-      <c r="C14" s="50">
-        <v>2</v>
-      </c>
-      <c r="D14" s="50">
-        <v>3</v>
-      </c>
-      <c r="E14" s="50">
-        <v>4</v>
-      </c>
-      <c r="F14" s="50">
-        <v>5</v>
-      </c>
-      <c r="G14" s="50">
-        <v>6</v>
-      </c>
-      <c r="H14" s="50">
-        <v>7</v>
-      </c>
-      <c r="I14" s="50">
-        <v>8</v>
-      </c>
-      <c r="J14" s="50">
-        <v>9</v>
-      </c>
-      <c r="K14" s="50">
-        <v>10</v>
-      </c>
-      <c r="L14" s="50">
-        <v>11</v>
-      </c>
-      <c r="M14" s="50">
-        <v>12</v>
-      </c>
-      <c r="N14" s="50">
-        <v>13</v>
-      </c>
-      <c r="O14" s="50">
-        <v>14</v>
-      </c>
-      <c r="P14" s="50">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="50">
-        <v>16</v>
-      </c>
-      <c r="R14" s="50">
-        <v>17</v>
-      </c>
-      <c r="S14" s="50">
-        <v>18</v>
-      </c>
-      <c r="T14" s="50">
-        <v>19</v>
-      </c>
-      <c r="U14" s="50">
-        <v>20</v>
-      </c>
-      <c r="V14" s="50">
-        <v>21</v>
-      </c>
-      <c r="W14" s="50">
-        <v>22</v>
-      </c>
-      <c r="X14" s="50">
-        <v>23</v>
-      </c>
-      <c r="Y14" s="50">
-        <v>24</v>
-      </c>
-      <c r="Z14" s="50">
-        <v>25</v>
-      </c>
-      <c r="AA14" s="50">
-        <v>26</v>
-      </c>
-      <c r="AB14" s="50">
-        <v>27</v>
-      </c>
-      <c r="AC14" s="50">
-        <v>28</v>
-      </c>
-      <c r="AD14" s="50">
-        <v>29</v>
-      </c>
-      <c r="AE14" s="50">
-        <v>30</v>
-      </c>
-      <c r="AF14" s="50">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="50">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="50">
-        <v>3</v>
-      </c>
-      <c r="AI14" s="50">
-        <v>4</v>
-      </c>
-      <c r="AJ14" s="50">
-        <v>5</v>
-      </c>
-      <c r="AK14" s="50">
-        <v>6</v>
-      </c>
-      <c r="AL14" s="50">
-        <v>7</v>
-      </c>
-      <c r="AM14" s="50">
-        <v>8</v>
-      </c>
-      <c r="AN14" s="50">
-        <v>9</v>
-      </c>
-      <c r="AO14" s="50">
-        <v>10</v>
-      </c>
-      <c r="AP14" s="50">
-        <v>11</v>
-      </c>
-      <c r="AQ14" s="50">
-        <v>12</v>
-      </c>
-      <c r="AR14" s="50">
-        <v>13</v>
-      </c>
-      <c r="AS14" s="50">
-        <v>14</v>
-      </c>
-      <c r="AT14" s="50">
-        <v>15</v>
-      </c>
-      <c r="AU14" s="50">
-        <v>16</v>
-      </c>
-      <c r="AV14" s="50">
-        <v>17</v>
-      </c>
-      <c r="AW14" s="50">
-        <v>18</v>
-      </c>
-      <c r="AX14" s="50">
-        <v>19</v>
-      </c>
-      <c r="AY14" s="50">
-        <v>20</v>
-      </c>
-      <c r="AZ14" s="50">
-        <v>21</v>
-      </c>
-      <c r="BA14" s="50">
-        <v>22</v>
-      </c>
-      <c r="BB14" s="50">
-        <v>23</v>
-      </c>
-      <c r="BC14" s="50">
-        <v>24</v>
-      </c>
-      <c r="BD14" s="50">
-        <v>25</v>
-      </c>
-      <c r="BE14" s="50">
-        <v>26</v>
-      </c>
-      <c r="BF14" s="50">
-        <v>27</v>
-      </c>
-      <c r="BG14" s="50">
-        <v>28</v>
-      </c>
-      <c r="BH14" s="50">
-        <v>29</v>
-      </c>
-      <c r="BI14" s="50">
-        <v>30</v>
-      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="74"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="74"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="74"/>
+      <c r="AT14" s="74"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="74"/>
+      <c r="BA14" s="74"/>
+      <c r="BB14" s="74"/>
+      <c r="BC14" s="74"/>
+      <c r="BD14" s="74"/>
+      <c r="BE14" s="74"/>
+      <c r="BF14" s="74"/>
+      <c r="BG14" s="74"/>
+      <c r="BH14" s="74"/>
+      <c r="BI14" s="74"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="50">
         <v>1</v>
       </c>
-      <c r="B15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="C15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="D15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="E15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="F15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="G15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="H15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="I15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="J15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="K15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="L15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="M15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="N15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="O15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="P15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="Q15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="R15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="S15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="T15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="U15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="V15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="W15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="X15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="Y15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="Z15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="AA15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="AB15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="AC15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="AD15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="AE15" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="AF15" s="43">
-        <f>_xlfn.RANK.AVG(B15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AG15" s="43">
-        <f>_xlfn.RANK.AVG(C15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AH15" s="43">
-        <f>_xlfn.RANK.AVG(D15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AI15" s="43">
-        <f>_xlfn.RANK.AVG(E15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AJ15" s="43">
-        <f>_xlfn.RANK.AVG(F15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AK15" s="43">
-        <f>_xlfn.RANK.AVG(G15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AL15" s="43">
-        <f>_xlfn.RANK.AVG(H15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AM15" s="43">
-        <f>_xlfn.RANK.AVG(I15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AN15" s="43">
-        <f>_xlfn.RANK.AVG(J15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AO15" s="43">
-        <f>_xlfn.RANK.AVG(K15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AP15" s="43">
-        <f>_xlfn.RANK.AVG(L15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AQ15" s="43">
-        <f>_xlfn.RANK.AVG(M15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AR15" s="43">
-        <f>_xlfn.RANK.AVG(N15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AS15" s="43">
-        <f>_xlfn.RANK.AVG(O15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AT15" s="43">
-        <f>_xlfn.RANK.AVG(P15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AU15" s="43">
-        <f>_xlfn.RANK.AVG(Q15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AV15" s="43">
-        <f>_xlfn.RANK.AVG(R15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AW15" s="43">
-        <f>_xlfn.RANK.AVG(S15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AX15" s="43">
-        <f>_xlfn.RANK.AVG(T15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AY15" s="43">
-        <f>_xlfn.RANK.AVG(U15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="AZ15" s="43">
-        <f>_xlfn.RANK.AVG(V15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="BA15" s="43">
-        <f>_xlfn.RANK.AVG(W15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="BB15" s="43">
-        <f>_xlfn.RANK.AVG(X15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="BC15" s="43">
-        <f>_xlfn.RANK.AVG(Y15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="BD15" s="43">
-        <f>_xlfn.RANK.AVG(Z15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="BE15" s="43">
-        <f>_xlfn.RANK.AVG(AA15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="BF15" s="43">
-        <f>_xlfn.RANK.AVG(AB15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="BG15" s="43">
-        <f>_xlfn.RANK.AVG(AC15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="BH15" s="43">
-        <f>_xlfn.RANK.AVG(AD15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="BI15" s="43">
-        <f>_xlfn.RANK.AVG(AE15,B15:AE15)</f>
-        <v>15.5</v>
-      </c>
-      <c r="BJ15">
-        <f>COUNTIF(AF15:BI15,1)</f>
-        <v>0</v>
+      <c r="C15" s="50">
+        <v>2</v>
+      </c>
+      <c r="D15" s="50">
+        <v>3</v>
+      </c>
+      <c r="E15" s="50">
+        <v>4</v>
+      </c>
+      <c r="F15" s="50">
+        <v>5</v>
+      </c>
+      <c r="G15" s="50">
+        <v>6</v>
+      </c>
+      <c r="H15" s="50">
+        <v>7</v>
+      </c>
+      <c r="I15" s="50">
+        <v>8</v>
+      </c>
+      <c r="J15" s="50">
+        <v>9</v>
+      </c>
+      <c r="K15" s="50">
+        <v>10</v>
+      </c>
+      <c r="L15" s="50">
+        <v>11</v>
+      </c>
+      <c r="M15" s="50">
+        <v>12</v>
+      </c>
+      <c r="N15" s="50">
+        <v>13</v>
+      </c>
+      <c r="O15" s="50">
+        <v>14</v>
+      </c>
+      <c r="P15" s="50">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="50">
+        <v>16</v>
+      </c>
+      <c r="R15" s="50">
+        <v>17</v>
+      </c>
+      <c r="S15" s="50">
+        <v>18</v>
+      </c>
+      <c r="T15" s="50">
+        <v>19</v>
+      </c>
+      <c r="U15" s="50">
+        <v>20</v>
+      </c>
+      <c r="V15" s="50">
+        <v>21</v>
+      </c>
+      <c r="W15" s="50">
+        <v>22</v>
+      </c>
+      <c r="X15" s="50">
+        <v>23</v>
+      </c>
+      <c r="Y15" s="50">
+        <v>24</v>
+      </c>
+      <c r="Z15" s="50">
+        <v>25</v>
+      </c>
+      <c r="AA15" s="50">
+        <v>26</v>
+      </c>
+      <c r="AB15" s="50">
+        <v>27</v>
+      </c>
+      <c r="AC15" s="50">
+        <v>28</v>
+      </c>
+      <c r="AD15" s="50">
+        <v>29</v>
+      </c>
+      <c r="AE15" s="50">
+        <v>30</v>
+      </c>
+      <c r="AF15" s="50">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="50">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="50">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="50">
+        <v>4</v>
+      </c>
+      <c r="AJ15" s="50">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="50">
+        <v>6</v>
+      </c>
+      <c r="AL15" s="50">
+        <v>7</v>
+      </c>
+      <c r="AM15" s="50">
+        <v>8</v>
+      </c>
+      <c r="AN15" s="50">
+        <v>9</v>
+      </c>
+      <c r="AO15" s="50">
+        <v>10</v>
+      </c>
+      <c r="AP15" s="50">
+        <v>11</v>
+      </c>
+      <c r="AQ15" s="50">
+        <v>12</v>
+      </c>
+      <c r="AR15" s="50">
+        <v>13</v>
+      </c>
+      <c r="AS15" s="50">
+        <v>14</v>
+      </c>
+      <c r="AT15" s="50">
+        <v>15</v>
+      </c>
+      <c r="AU15" s="50">
+        <v>16</v>
+      </c>
+      <c r="AV15" s="50">
+        <v>17</v>
+      </c>
+      <c r="AW15" s="50">
+        <v>18</v>
+      </c>
+      <c r="AX15" s="50">
+        <v>19</v>
+      </c>
+      <c r="AY15" s="50">
+        <v>20</v>
+      </c>
+      <c r="AZ15" s="50">
+        <v>21</v>
+      </c>
+      <c r="BA15" s="50">
+        <v>22</v>
+      </c>
+      <c r="BB15" s="50">
+        <v>23</v>
+      </c>
+      <c r="BC15" s="50">
+        <v>24</v>
+      </c>
+      <c r="BD15" s="50">
+        <v>25</v>
+      </c>
+      <c r="BE15" s="50">
+        <v>26</v>
+      </c>
+      <c r="BF15" s="50">
+        <v>27</v>
+      </c>
+      <c r="BG15" s="50">
+        <v>28</v>
+      </c>
+      <c r="BH15" s="50">
+        <v>29</v>
+      </c>
+      <c r="BI15" s="50">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
-        <v>2</v>
+      <c r="A16" s="57" t="s">
+        <v>1</v>
       </c>
       <c r="B16" s="46">
-        <v>0.57485900000000001</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="C16" s="46">
-        <v>0.58333299999999999</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="D16" s="46">
-        <v>0.58474599999999999</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="E16" s="46">
-        <v>0.57627099999999998</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="F16" s="46">
-        <v>0.59463299999999997</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="G16" s="46">
-        <v>0.57344600000000001</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="H16" s="46">
-        <v>0.56497200000000003</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="I16" s="46">
-        <v>0.55508500000000005</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="J16" s="46">
-        <v>0.56214699999999995</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="K16" s="46">
-        <v>0.56073399999999995</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="L16" s="46">
-        <v>0.55649700000000002</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="M16" s="46">
-        <v>0.57627099999999998</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="N16" s="46">
-        <v>0.57344600000000001</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="O16" s="46">
-        <v>0.59463299999999997</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="P16" s="46">
-        <v>0.59604500000000005</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="Q16" s="46">
-        <v>0.60028199999999998</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="R16" s="46">
-        <v>0.59463299999999997</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="S16" s="46">
-        <v>0.60028199999999998</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="T16" s="46">
-        <v>0.61864399999999997</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="U16" s="46">
-        <v>0.60875699999999999</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="V16" s="46">
-        <v>0.60734500000000002</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="W16" s="46">
-        <v>0.60451999999999995</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="X16" s="46">
-        <v>0.60593200000000003</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="Y16" s="46">
-        <v>0.61016899999999996</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="Z16" s="46">
-        <v>0.61158199999999996</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="AA16" s="46">
-        <v>0.60734500000000002</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="AB16" s="46">
-        <v>0.61158199999999996</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="AC16" s="46">
-        <v>0.62005600000000005</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="AD16" s="46">
-        <v>0.62711899999999998</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="AE16" s="46">
-        <v>0.63418099999999999</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="AF16" s="43">
-        <f t="shared" ref="AF16:AF19" si="20">_xlfn.RANK.AVG(B16,B16:AE16)</f>
-        <v>23</v>
+        <f>_xlfn.RANK.AVG(B16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AG16" s="43">
-        <f t="shared" ref="AG16:AG19" si="21">_xlfn.RANK.AVG(C16,B16:AE16)</f>
-        <v>20</v>
+        <f>_xlfn.RANK.AVG(C16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AH16" s="43">
-        <f t="shared" ref="AH16:AH19" si="22">_xlfn.RANK.AVG(D16,C16:AF16)</f>
-        <v>20</v>
+        <f>_xlfn.RANK.AVG(D16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AI16" s="43">
-        <f t="shared" ref="AI16:AI19" si="23">_xlfn.RANK.AVG(E16,B16:AE16)</f>
-        <v>21.5</v>
+        <f>_xlfn.RANK.AVG(E16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AJ16" s="43">
-        <f t="shared" ref="AJ16:AJ19" si="24">_xlfn.RANK.AVG(F16,B16:AE16)</f>
-        <v>17</v>
+        <f>_xlfn.RANK.AVG(F16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AK16" s="43">
-        <f t="shared" ref="AK16:AK19" si="25">_xlfn.RANK.AVG(G16,B16:AE16)</f>
-        <v>24.5</v>
+        <f>_xlfn.RANK.AVG(G16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AL16" s="43">
-        <f t="shared" ref="AL16:AL19" si="26">_xlfn.RANK.AVG(H16,B16:AE16)</f>
-        <v>26</v>
+        <f>_xlfn.RANK.AVG(H16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AM16" s="43">
-        <f t="shared" ref="AM16:AM19" si="27">_xlfn.RANK.AVG(I16,B16:AE16)</f>
-        <v>30</v>
+        <f>_xlfn.RANK.AVG(I16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AN16" s="43">
-        <f t="shared" ref="AN16:AN19" si="28">_xlfn.RANK.AVG(J16,B16:AE16)</f>
-        <v>27</v>
+        <f>_xlfn.RANK.AVG(J16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AO16" s="43">
-        <f t="shared" ref="AO16:AO19" si="29">_xlfn.RANK.AVG(K16,B16:AE16)</f>
-        <v>28</v>
+        <f>_xlfn.RANK.AVG(K16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AP16" s="43">
-        <f t="shared" ref="AP16:AP19" si="30">_xlfn.RANK.AVG(L16,B16:AE16)</f>
-        <v>29</v>
+        <f>_xlfn.RANK.AVG(L16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AQ16" s="43">
-        <f t="shared" ref="AQ16:AQ19" si="31">_xlfn.RANK.AVG(M16,B16:AE16)</f>
-        <v>21.5</v>
+        <f>_xlfn.RANK.AVG(M16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AR16" s="43">
-        <f t="shared" ref="AR16:AR19" si="32">_xlfn.RANK.AVG(N16,B16:AE16)</f>
-        <v>24.5</v>
+        <f>_xlfn.RANK.AVG(N16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AS16" s="43">
-        <f t="shared" ref="AS16:AS19" si="33">_xlfn.RANK.AVG(O16,B16:AE16)</f>
-        <v>17</v>
+        <f>_xlfn.RANK.AVG(O16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AT16" s="43">
-        <f t="shared" ref="AT16:AT19" si="34">_xlfn.RANK.AVG(P16,B16:AE16)</f>
-        <v>15</v>
+        <f>_xlfn.RANK.AVG(P16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AU16" s="43">
-        <f t="shared" ref="AU16:AU19" si="35">_xlfn.RANK.AVG(Q16,B16:AE16)</f>
-        <v>13.5</v>
+        <f>_xlfn.RANK.AVG(Q16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AV16" s="43">
-        <f t="shared" ref="AV16:AV19" si="36">_xlfn.RANK.AVG(R16,B16:AE16)</f>
-        <v>17</v>
+        <f>_xlfn.RANK.AVG(R16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AW16" s="43">
-        <f t="shared" ref="AW16:AW19" si="37">_xlfn.RANK.AVG(S16,B16:AE16)</f>
-        <v>13.5</v>
+        <f>_xlfn.RANK.AVG(S16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AX16" s="43">
-        <f t="shared" ref="AX16:AX19" si="38">_xlfn.RANK.AVG(T16,B16:AE16)</f>
-        <v>4</v>
+        <f>_xlfn.RANK.AVG(T16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AY16" s="43">
-        <f t="shared" ref="AY16:AY19" si="39">_xlfn.RANK.AVG(U16,B16:AE16)</f>
-        <v>8</v>
+        <f>_xlfn.RANK.AVG(U16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="AZ16" s="43">
-        <f t="shared" ref="AZ16:AZ19" si="40">_xlfn.RANK.AVG(V16,B16:AE16)</f>
-        <v>9.5</v>
+        <f>_xlfn.RANK.AVG(V16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="BA16" s="43">
-        <f t="shared" ref="BA16:BA19" si="41">_xlfn.RANK.AVG(W16,B16:AE16)</f>
-        <v>12</v>
+        <f>_xlfn.RANK.AVG(W16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="BB16" s="43">
-        <f t="shared" ref="BB16:BB19" si="42">_xlfn.RANK.AVG(X16,B16:AE16)</f>
-        <v>11</v>
+        <f>_xlfn.RANK.AVG(X16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="BC16" s="43">
-        <f t="shared" ref="BC16:BC19" si="43">_xlfn.RANK.AVG(Y16,B16:AE16)</f>
-        <v>7</v>
+        <f>_xlfn.RANK.AVG(Y16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="BD16" s="43">
-        <f t="shared" ref="BD16:BD19" si="44">_xlfn.RANK.AVG(Z16,B16:AE16)</f>
-        <v>5.5</v>
+        <f>_xlfn.RANK.AVG(Z16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="BE16" s="43">
-        <f t="shared" ref="BE16:BE19" si="45">_xlfn.RANK.AVG(AA16,B16:AE16)</f>
-        <v>9.5</v>
+        <f>_xlfn.RANK.AVG(AA16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="BF16" s="43">
-        <f t="shared" ref="BF16:BF19" si="46">_xlfn.RANK.AVG(AB16,B16:AE16)</f>
-        <v>5.5</v>
+        <f>_xlfn.RANK.AVG(AB16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="BG16" s="43">
-        <f t="shared" ref="BG16:BG19" si="47">_xlfn.RANK.AVG(AC16,B16:AE16)</f>
-        <v>3</v>
+        <f>_xlfn.RANK.AVG(AC16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="BH16" s="43">
-        <f t="shared" ref="BH16:BH19" si="48">_xlfn.RANK.AVG(AD16,B16:AE16)</f>
-        <v>2</v>
+        <f>_xlfn.RANK.AVG(AD16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="BI16" s="43">
-        <f t="shared" ref="BI16:BI19" si="49">_xlfn.RANK.AVG(AE16,B16:AE16)</f>
-        <v>1</v>
+        <f>_xlfn.RANK.AVG(AE16,B16:AE16)</f>
+        <v>15.5</v>
       </c>
       <c r="BJ16">
-        <f t="shared" ref="BJ16:BJ20" si="50">COUNTIF(AF16:BI16,1)</f>
-        <v>1</v>
+        <f>COUNTIF(AF16:BI16,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="46">
+        <v>0.57485900000000001</v>
+      </c>
+      <c r="C17" s="46">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="D17" s="46">
+        <v>0.58474599999999999</v>
+      </c>
+      <c r="E17" s="46">
+        <v>0.57627099999999998</v>
+      </c>
+      <c r="F17" s="46">
+        <v>0.59463299999999997</v>
+      </c>
+      <c r="G17" s="46">
+        <v>0.57344600000000001</v>
+      </c>
+      <c r="H17" s="46">
+        <v>0.56497200000000003</v>
+      </c>
+      <c r="I17" s="46">
+        <v>0.55508500000000005</v>
+      </c>
+      <c r="J17" s="46">
+        <v>0.56214699999999995</v>
+      </c>
+      <c r="K17" s="46">
+        <v>0.56073399999999995</v>
+      </c>
+      <c r="L17" s="46">
+        <v>0.55649700000000002</v>
+      </c>
+      <c r="M17" s="46">
+        <v>0.57627099999999998</v>
+      </c>
+      <c r="N17" s="46">
+        <v>0.57344600000000001</v>
+      </c>
+      <c r="O17" s="46">
+        <v>0.59463299999999997</v>
+      </c>
+      <c r="P17" s="46">
+        <v>0.59604500000000005</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>0.60028199999999998</v>
+      </c>
+      <c r="R17" s="46">
+        <v>0.59463299999999997</v>
+      </c>
+      <c r="S17" s="46">
+        <v>0.60028199999999998</v>
+      </c>
+      <c r="T17" s="46">
+        <v>0.61864399999999997</v>
+      </c>
+      <c r="U17" s="46">
+        <v>0.60875699999999999</v>
+      </c>
+      <c r="V17" s="46">
+        <v>0.60734500000000002</v>
+      </c>
+      <c r="W17" s="46">
+        <v>0.60451999999999995</v>
+      </c>
+      <c r="X17" s="46">
+        <v>0.60593200000000003</v>
+      </c>
+      <c r="Y17" s="46">
+        <v>0.61016899999999996</v>
+      </c>
+      <c r="Z17" s="46">
+        <v>0.61158199999999996</v>
+      </c>
+      <c r="AA17" s="46">
+        <v>0.60734500000000002</v>
+      </c>
+      <c r="AB17" s="46">
+        <v>0.61158199999999996</v>
+      </c>
+      <c r="AC17" s="46">
+        <v>0.62005600000000005</v>
+      </c>
+      <c r="AD17" s="46">
+        <v>0.62711899999999998</v>
+      </c>
+      <c r="AE17" s="46">
+        <v>0.63418099999999999</v>
+      </c>
+      <c r="AF17" s="43">
+        <f t="shared" ref="AF17:AF20" si="21">_xlfn.RANK.AVG(B17,B17:AE17)</f>
+        <v>23</v>
+      </c>
+      <c r="AG17" s="43">
+        <f t="shared" ref="AG17:AG20" si="22">_xlfn.RANK.AVG(C17,B17:AE17)</f>
+        <v>20</v>
+      </c>
+      <c r="AH17" s="43">
+        <f t="shared" ref="AH17:AH20" si="23">_xlfn.RANK.AVG(D17,C17:AF17)</f>
+        <v>20</v>
+      </c>
+      <c r="AI17" s="43">
+        <f t="shared" ref="AI17:AI20" si="24">_xlfn.RANK.AVG(E17,B17:AE17)</f>
+        <v>21.5</v>
+      </c>
+      <c r="AJ17" s="43">
+        <f t="shared" ref="AJ17:AJ20" si="25">_xlfn.RANK.AVG(F17,B17:AE17)</f>
+        <v>17</v>
+      </c>
+      <c r="AK17" s="43">
+        <f t="shared" ref="AK17:AK20" si="26">_xlfn.RANK.AVG(G17,B17:AE17)</f>
+        <v>24.5</v>
+      </c>
+      <c r="AL17" s="43">
+        <f t="shared" ref="AL17:AL20" si="27">_xlfn.RANK.AVG(H17,B17:AE17)</f>
+        <v>26</v>
+      </c>
+      <c r="AM17" s="43">
+        <f t="shared" ref="AM17:AM20" si="28">_xlfn.RANK.AVG(I17,B17:AE17)</f>
+        <v>30</v>
+      </c>
+      <c r="AN17" s="43">
+        <f t="shared" ref="AN17:AN20" si="29">_xlfn.RANK.AVG(J17,B17:AE17)</f>
+        <v>27</v>
+      </c>
+      <c r="AO17" s="43">
+        <f t="shared" ref="AO17:AO20" si="30">_xlfn.RANK.AVG(K17,B17:AE17)</f>
+        <v>28</v>
+      </c>
+      <c r="AP17" s="43">
+        <f t="shared" ref="AP17:AP20" si="31">_xlfn.RANK.AVG(L17,B17:AE17)</f>
+        <v>29</v>
+      </c>
+      <c r="AQ17" s="43">
+        <f t="shared" ref="AQ17:AQ20" si="32">_xlfn.RANK.AVG(M17,B17:AE17)</f>
+        <v>21.5</v>
+      </c>
+      <c r="AR17" s="43">
+        <f t="shared" ref="AR17:AR20" si="33">_xlfn.RANK.AVG(N17,B17:AE17)</f>
+        <v>24.5</v>
+      </c>
+      <c r="AS17" s="43">
+        <f t="shared" ref="AS17:AS20" si="34">_xlfn.RANK.AVG(O17,B17:AE17)</f>
+        <v>17</v>
+      </c>
+      <c r="AT17" s="43">
+        <f t="shared" ref="AT17:AT20" si="35">_xlfn.RANK.AVG(P17,B17:AE17)</f>
+        <v>15</v>
+      </c>
+      <c r="AU17" s="43">
+        <f t="shared" ref="AU17:AU20" si="36">_xlfn.RANK.AVG(Q17,B17:AE17)</f>
+        <v>13.5</v>
+      </c>
+      <c r="AV17" s="43">
+        <f t="shared" ref="AV17:AV20" si="37">_xlfn.RANK.AVG(R17,B17:AE17)</f>
+        <v>17</v>
+      </c>
+      <c r="AW17" s="43">
+        <f t="shared" ref="AW17:AW20" si="38">_xlfn.RANK.AVG(S17,B17:AE17)</f>
+        <v>13.5</v>
+      </c>
+      <c r="AX17" s="43">
+        <f t="shared" ref="AX17:AX20" si="39">_xlfn.RANK.AVG(T17,B17:AE17)</f>
+        <v>4</v>
+      </c>
+      <c r="AY17" s="43">
+        <f t="shared" ref="AY17:AY20" si="40">_xlfn.RANK.AVG(U17,B17:AE17)</f>
+        <v>8</v>
+      </c>
+      <c r="AZ17" s="43">
+        <f t="shared" ref="AZ17:AZ20" si="41">_xlfn.RANK.AVG(V17,B17:AE17)</f>
+        <v>9.5</v>
+      </c>
+      <c r="BA17" s="43">
+        <f t="shared" ref="BA17:BA20" si="42">_xlfn.RANK.AVG(W17,B17:AE17)</f>
+        <v>12</v>
+      </c>
+      <c r="BB17" s="43">
+        <f t="shared" ref="BB17:BB20" si="43">_xlfn.RANK.AVG(X17,B17:AE17)</f>
+        <v>11</v>
+      </c>
+      <c r="BC17" s="43">
+        <f t="shared" ref="BC17:BC20" si="44">_xlfn.RANK.AVG(Y17,B17:AE17)</f>
+        <v>7</v>
+      </c>
+      <c r="BD17" s="43">
+        <f t="shared" ref="BD17:BD20" si="45">_xlfn.RANK.AVG(Z17,B17:AE17)</f>
+        <v>5.5</v>
+      </c>
+      <c r="BE17" s="43">
+        <f t="shared" ref="BE17:BE20" si="46">_xlfn.RANK.AVG(AA17,B17:AE17)</f>
+        <v>9.5</v>
+      </c>
+      <c r="BF17" s="43">
+        <f t="shared" ref="BF17:BF20" si="47">_xlfn.RANK.AVG(AB17,B17:AE17)</f>
+        <v>5.5</v>
+      </c>
+      <c r="BG17" s="43">
+        <f t="shared" ref="BG17:BG20" si="48">_xlfn.RANK.AVG(AC17,B17:AE17)</f>
         <v>3</v>
       </c>
-      <c r="B17" s="46">
+      <c r="BH17" s="43">
+        <f t="shared" ref="BH17:BH20" si="49">_xlfn.RANK.AVG(AD17,B17:AE17)</f>
+        <v>2</v>
+      </c>
+      <c r="BI17" s="43">
+        <f t="shared" ref="BI17:BI20" si="50">_xlfn.RANK.AVG(AE17,B17:AE17)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ17">
+        <f t="shared" ref="BJ17:BJ20" si="51">COUNTIF(AF17:BI17,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="46">
         <v>0.90909099999999998</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C18" s="46">
         <v>0.90600899999999995</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D18" s="46">
         <v>0.910632</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E18" s="46">
         <v>0.910632</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F18" s="46">
         <v>0.913713</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G18" s="46">
         <v>0.91217300000000001</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H18" s="46">
         <v>0.91987699999999994</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I18" s="46">
         <v>0.91525400000000001</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J18" s="46">
         <v>0.91525400000000001</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K18" s="46">
         <v>0.91679500000000003</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L18" s="46">
         <v>0.91833600000000004</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M18" s="46">
         <v>0.90754999999999997</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N18" s="46">
         <v>0.90909099999999998</v>
       </c>
-      <c r="O17" s="46">
+      <c r="O18" s="46">
         <v>0.91679500000000003</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P18" s="46">
         <v>0.90909099999999998</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q18" s="46">
         <v>0.90754999999999997</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R18" s="46">
         <v>0.910632</v>
       </c>
-      <c r="S17" s="46">
+      <c r="S18" s="46">
         <v>0.910632</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T18" s="46">
         <v>0.90909099999999998</v>
       </c>
-      <c r="U17" s="46">
+      <c r="U18" s="46">
         <v>0.90292799999999995</v>
       </c>
-      <c r="V17" s="46">
+      <c r="V18" s="46">
         <v>0.89998</v>
       </c>
-      <c r="W17" s="46">
+      <c r="W18" s="46">
         <v>0.90292799999999995</v>
       </c>
-      <c r="X17" s="46">
+      <c r="X18" s="46">
         <v>0.89984600000000003</v>
       </c>
-      <c r="Y17" s="46">
+      <c r="Y18" s="46">
         <v>0.89984600000000003</v>
       </c>
-      <c r="Z17" s="46">
+      <c r="Z18" s="46">
         <v>0.90138700000000005</v>
       </c>
-      <c r="AA17" s="46">
+      <c r="AA18" s="46">
         <v>0.90138700000000005</v>
       </c>
-      <c r="AB17" s="46">
+      <c r="AB18" s="46">
         <v>0.90138700000000005</v>
       </c>
-      <c r="AC17" s="46">
+      <c r="AC18" s="46">
         <v>0.89830500000000002</v>
       </c>
-      <c r="AD17" s="46">
+      <c r="AD18" s="46">
         <v>0.90138700000000005</v>
       </c>
-      <c r="AE17" s="46">
+      <c r="AE18" s="46">
         <v>0.90138700000000005</v>
       </c>
-      <c r="AF17" s="43">
-        <f t="shared" si="20"/>
+      <c r="AF18" s="43">
+        <f t="shared" si="21"/>
         <v>14.5</v>
       </c>
-      <c r="AG17" s="43">
+      <c r="AG18" s="43">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="AH18" s="43">
+        <f t="shared" si="23"/>
+        <v>11.5</v>
+      </c>
+      <c r="AI18" s="43">
+        <f t="shared" si="24"/>
+        <v>10.5</v>
+      </c>
+      <c r="AJ18" s="43">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="AK18" s="43">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="AL18" s="43">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AM18" s="43">
+        <f t="shared" si="28"/>
+        <v>5.5</v>
+      </c>
+      <c r="AN18" s="43">
+        <f t="shared" si="29"/>
+        <v>5.5</v>
+      </c>
+      <c r="AO18" s="43">
+        <f t="shared" si="30"/>
+        <v>3.5</v>
+      </c>
+      <c r="AP18" s="43">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="AQ18" s="43">
+        <f t="shared" si="32"/>
+        <v>17.5</v>
+      </c>
+      <c r="AR18" s="43">
+        <f t="shared" si="33"/>
+        <v>14.5</v>
+      </c>
+      <c r="AS18" s="43">
+        <f t="shared" si="34"/>
+        <v>3.5</v>
+      </c>
+      <c r="AT18" s="43">
+        <f t="shared" si="35"/>
+        <v>14.5</v>
+      </c>
+      <c r="AU18" s="43">
+        <f t="shared" si="36"/>
+        <v>17.5</v>
+      </c>
+      <c r="AV18" s="43">
+        <f t="shared" si="37"/>
+        <v>10.5</v>
+      </c>
+      <c r="AW18" s="43">
+        <f t="shared" si="38"/>
+        <v>10.5</v>
+      </c>
+      <c r="AX18" s="43">
+        <f t="shared" si="39"/>
+        <v>14.5</v>
+      </c>
+      <c r="AY18" s="43">
+        <f t="shared" si="40"/>
+        <v>20.5</v>
+      </c>
+      <c r="AZ18" s="43">
+        <f t="shared" si="41"/>
+        <v>27</v>
+      </c>
+      <c r="BA18" s="43">
+        <f t="shared" si="42"/>
+        <v>20.5</v>
+      </c>
+      <c r="BB18" s="43">
+        <f t="shared" si="43"/>
+        <v>28.5</v>
+      </c>
+      <c r="BC18" s="43">
+        <f t="shared" si="44"/>
+        <v>28.5</v>
+      </c>
+      <c r="BD18" s="43">
+        <f t="shared" si="45"/>
+        <v>24</v>
+      </c>
+      <c r="BE18" s="43">
+        <f t="shared" si="46"/>
+        <v>24</v>
+      </c>
+      <c r="BF18" s="43">
+        <f t="shared" si="47"/>
+        <v>24</v>
+      </c>
+      <c r="BG18" s="43">
+        <f t="shared" si="48"/>
+        <v>30</v>
+      </c>
+      <c r="BH18" s="43">
+        <f t="shared" si="49"/>
+        <v>24</v>
+      </c>
+      <c r="BI18" s="43">
+        <f t="shared" si="50"/>
+        <v>24</v>
+      </c>
+      <c r="BJ18">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="46">
+        <v>0.76818200000000003</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="D19" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0.76590899999999995</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0.76931799999999995</v>
+      </c>
+      <c r="G19" s="46">
+        <v>0.76704499999999998</v>
+      </c>
+      <c r="H19" s="46">
+        <v>0.76590899999999995</v>
+      </c>
+      <c r="I19" s="46">
+        <v>0.76477300000000004</v>
+      </c>
+      <c r="J19" s="46">
+        <v>0.76477300000000004</v>
+      </c>
+      <c r="K19" s="46">
+        <v>0.76477300000000004</v>
+      </c>
+      <c r="L19" s="46">
+        <v>0.77272700000000005</v>
+      </c>
+      <c r="M19" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="N19" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="O19" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="P19" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="R19" s="46">
+        <v>0.76704499999999998</v>
+      </c>
+      <c r="S19" s="46">
+        <v>0.76704499999999998</v>
+      </c>
+      <c r="T19" s="46">
+        <v>0.77159100000000003</v>
+      </c>
+      <c r="U19" s="46">
+        <v>0.77613600000000005</v>
+      </c>
+      <c r="V19" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="W19" s="46">
+        <v>0.76818200000000003</v>
+      </c>
+      <c r="X19" s="46">
+        <v>0.76931799999999995</v>
+      </c>
+      <c r="Y19" s="46">
+        <v>0.76931799999999995</v>
+      </c>
+      <c r="Z19" s="46">
+        <v>0.76818200000000003</v>
+      </c>
+      <c r="AA19" s="46">
+        <v>0.76818200000000003</v>
+      </c>
+      <c r="AB19" s="46">
+        <v>0.76931799999999995</v>
+      </c>
+      <c r="AC19" s="46">
+        <v>0.76818200000000003</v>
+      </c>
+      <c r="AD19" s="46">
+        <v>0.77159100000000003</v>
+      </c>
+      <c r="AE19" s="46">
+        <v>0.77159100000000003</v>
+      </c>
+      <c r="AF19" s="43">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="AH17" s="43">
+      <c r="AG19" s="43">
         <f t="shared" si="22"/>
-        <v>11.5</v>
-      </c>
-      <c r="AI17" s="43">
+        <v>30</v>
+      </c>
+      <c r="AH19" s="43">
         <f t="shared" si="23"/>
-        <v>10.5</v>
-      </c>
-      <c r="AJ17" s="43">
+        <v>11</v>
+      </c>
+      <c r="AI19" s="43">
         <f t="shared" si="24"/>
-        <v>7</v>
-      </c>
-      <c r="AK17" s="43">
+        <v>25.5</v>
+      </c>
+      <c r="AJ19" s="43">
         <f t="shared" si="25"/>
-        <v>8</v>
-      </c>
-      <c r="AL17" s="43">
+        <v>14.5</v>
+      </c>
+      <c r="AK19" s="43">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AM17" s="43">
+        <v>23</v>
+      </c>
+      <c r="AL19" s="43">
         <f t="shared" si="27"/>
-        <v>5.5</v>
-      </c>
-      <c r="AN17" s="43">
-        <f t="shared" si="28"/>
-        <v>5.5</v>
-      </c>
-      <c r="AO17" s="43">
-        <f t="shared" si="29"/>
-        <v>3.5</v>
-      </c>
-      <c r="AP17" s="43">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="AQ17" s="43">
-        <f t="shared" si="31"/>
-        <v>17.5</v>
-      </c>
-      <c r="AR17" s="43">
-        <f t="shared" si="32"/>
-        <v>14.5</v>
-      </c>
-      <c r="AS17" s="43">
-        <f t="shared" si="33"/>
-        <v>3.5</v>
-      </c>
-      <c r="AT17" s="43">
-        <f t="shared" si="34"/>
-        <v>14.5</v>
-      </c>
-      <c r="AU17" s="43">
-        <f t="shared" si="35"/>
-        <v>17.5</v>
-      </c>
-      <c r="AV17" s="43">
-        <f t="shared" si="36"/>
-        <v>10.5</v>
-      </c>
-      <c r="AW17" s="43">
-        <f t="shared" si="37"/>
-        <v>10.5</v>
-      </c>
-      <c r="AX17" s="43">
-        <f t="shared" si="38"/>
-        <v>14.5</v>
-      </c>
-      <c r="AY17" s="43">
-        <f t="shared" si="39"/>
-        <v>20.5</v>
-      </c>
-      <c r="AZ17" s="43">
-        <f t="shared" si="40"/>
-        <v>27</v>
-      </c>
-      <c r="BA17" s="43">
-        <f t="shared" si="41"/>
-        <v>20.5</v>
-      </c>
-      <c r="BB17" s="43">
-        <f t="shared" si="42"/>
-        <v>28.5</v>
-      </c>
-      <c r="BC17" s="43">
-        <f t="shared" si="43"/>
-        <v>28.5</v>
-      </c>
-      <c r="BD17" s="43">
-        <f t="shared" si="44"/>
-        <v>24</v>
-      </c>
-      <c r="BE17" s="43">
-        <f t="shared" si="45"/>
-        <v>24</v>
-      </c>
-      <c r="BF17" s="43">
-        <f t="shared" si="46"/>
-        <v>24</v>
-      </c>
-      <c r="BG17" s="43">
-        <f t="shared" si="47"/>
-        <v>30</v>
-      </c>
-      <c r="BH17" s="43">
-        <f t="shared" si="48"/>
-        <v>24</v>
-      </c>
-      <c r="BI17" s="43">
-        <f t="shared" si="49"/>
-        <v>24</v>
-      </c>
-      <c r="BJ17">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="46">
-        <v>0.76818200000000003</v>
-      </c>
-      <c r="C18" s="46">
-        <v>0.76249999999999996</v>
-      </c>
-      <c r="D18" s="46">
-        <v>0.770455</v>
-      </c>
-      <c r="E18" s="46">
-        <v>0.76590899999999995</v>
-      </c>
-      <c r="F18" s="46">
-        <v>0.76931799999999995</v>
-      </c>
-      <c r="G18" s="46">
-        <v>0.76704499999999998</v>
-      </c>
-      <c r="H18" s="46">
-        <v>0.76590899999999995</v>
-      </c>
-      <c r="I18" s="46">
-        <v>0.76477300000000004</v>
-      </c>
-      <c r="J18" s="46">
-        <v>0.76477300000000004</v>
-      </c>
-      <c r="K18" s="46">
-        <v>0.76477300000000004</v>
-      </c>
-      <c r="L18" s="46">
-        <v>0.77272700000000005</v>
-      </c>
-      <c r="M18" s="46">
-        <v>0.770455</v>
-      </c>
-      <c r="N18" s="46">
-        <v>0.773864</v>
-      </c>
-      <c r="O18" s="46">
-        <v>0.773864</v>
-      </c>
-      <c r="P18" s="46">
-        <v>0.770455</v>
-      </c>
-      <c r="Q18" s="46">
-        <v>0.770455</v>
-      </c>
-      <c r="R18" s="46">
-        <v>0.76704499999999998</v>
-      </c>
-      <c r="S18" s="46">
-        <v>0.76704499999999998</v>
-      </c>
-      <c r="T18" s="46">
-        <v>0.77159100000000003</v>
-      </c>
-      <c r="U18" s="46">
-        <v>0.77613600000000005</v>
-      </c>
-      <c r="V18" s="46">
-        <v>0.770455</v>
-      </c>
-      <c r="W18" s="46">
-        <v>0.76818200000000003</v>
-      </c>
-      <c r="X18" s="46">
-        <v>0.76931799999999995</v>
-      </c>
-      <c r="Y18" s="46">
-        <v>0.76931799999999995</v>
-      </c>
-      <c r="Z18" s="46">
-        <v>0.76818200000000003</v>
-      </c>
-      <c r="AA18" s="46">
-        <v>0.76818200000000003</v>
-      </c>
-      <c r="AB18" s="46">
-        <v>0.76931799999999995</v>
-      </c>
-      <c r="AC18" s="46">
-        <v>0.76818200000000003</v>
-      </c>
-      <c r="AD18" s="46">
-        <v>0.77159100000000003</v>
-      </c>
-      <c r="AE18" s="46">
-        <v>0.77159100000000003</v>
-      </c>
-      <c r="AF18" s="43">
-        <f t="shared" si="20"/>
-        <v>19</v>
-      </c>
-      <c r="AG18" s="43">
-        <f t="shared" si="21"/>
-        <v>30</v>
-      </c>
-      <c r="AH18" s="43">
-        <f t="shared" si="22"/>
-        <v>11</v>
-      </c>
-      <c r="AI18" s="43">
-        <f t="shared" si="23"/>
         <v>25.5</v>
       </c>
-      <c r="AJ18" s="43">
-        <f t="shared" si="24"/>
-        <v>14.5</v>
-      </c>
-      <c r="AK18" s="43">
-        <f t="shared" si="25"/>
-        <v>23</v>
-      </c>
-      <c r="AL18" s="43">
-        <f t="shared" si="26"/>
-        <v>25.5</v>
-      </c>
-      <c r="AM18" s="43">
-        <f t="shared" si="27"/>
-        <v>28</v>
-      </c>
-      <c r="AN18" s="43">
+      <c r="AM19" s="43">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="AO18" s="43">
+      <c r="AN19" s="43">
         <f t="shared" si="29"/>
         <v>28</v>
       </c>
-      <c r="AP18" s="43">
+      <c r="AO19" s="43">
         <f t="shared" si="30"/>
+        <v>28</v>
+      </c>
+      <c r="AP19" s="43">
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="AQ18" s="43">
-        <f t="shared" si="31"/>
+      <c r="AQ19" s="43">
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
-      <c r="AR18" s="43">
-        <f t="shared" si="32"/>
-        <v>2.5</v>
-      </c>
-      <c r="AS18" s="43">
+      <c r="AR19" s="43">
         <f t="shared" si="33"/>
         <v>2.5</v>
       </c>
-      <c r="AT18" s="43">
+      <c r="AS19" s="43">
         <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="AU18" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="AT19" s="43">
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="AV18" s="43">
+      <c r="AU19" s="43">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="AW18" s="43">
+        <v>10</v>
+      </c>
+      <c r="AV19" s="43">
         <f t="shared" si="37"/>
         <v>23</v>
       </c>
-      <c r="AX18" s="43">
+      <c r="AW19" s="43">
         <f t="shared" si="38"/>
+        <v>23</v>
+      </c>
+      <c r="AX19" s="43">
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
-      <c r="AY18" s="43">
-        <f t="shared" si="39"/>
+      <c r="AY19" s="43">
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
-      <c r="AZ18" s="43">
-        <f t="shared" si="40"/>
+      <c r="AZ19" s="43">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="BA18" s="43">
-        <f t="shared" si="41"/>
+      <c r="BA19" s="43">
+        <f t="shared" si="42"/>
         <v>19</v>
       </c>
-      <c r="BB18" s="43">
-        <f t="shared" si="42"/>
-        <v>14.5</v>
-      </c>
-      <c r="BC18" s="43">
+      <c r="BB19" s="43">
         <f t="shared" si="43"/>
         <v>14.5</v>
       </c>
-      <c r="BD18" s="43">
+      <c r="BC19" s="43">
         <f t="shared" si="44"/>
-        <v>19</v>
-      </c>
-      <c r="BE18" s="43">
+        <v>14.5</v>
+      </c>
+      <c r="BD19" s="43">
         <f t="shared" si="45"/>
         <v>19</v>
       </c>
-      <c r="BF18" s="43">
+      <c r="BE19" s="43">
         <f t="shared" si="46"/>
+        <v>19</v>
+      </c>
+      <c r="BF19" s="43">
+        <f t="shared" si="47"/>
         <v>14.5</v>
       </c>
-      <c r="BG18" s="43">
-        <f t="shared" si="47"/>
+      <c r="BG19" s="43">
+        <f t="shared" si="48"/>
         <v>19</v>
       </c>
-      <c r="BH18" s="43">
-        <f t="shared" si="48"/>
-        <v>6</v>
-      </c>
-      <c r="BI18" s="43">
+      <c r="BH19" s="43">
         <f t="shared" si="49"/>
         <v>6</v>
       </c>
-      <c r="BJ18">
+      <c r="BI19" s="43">
         <f t="shared" si="50"/>
+        <v>6</v>
+      </c>
+      <c r="BJ19">
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B20" s="46">
         <v>0.74545499999999998</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C20" s="46">
         <v>0.74772700000000003</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D20" s="46">
         <v>0.74204499999999995</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E20" s="46">
         <v>0.74318200000000001</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F20" s="46">
         <v>0.74204499999999995</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G20" s="46">
         <v>0.73977300000000001</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H20" s="46">
         <v>0.73977300000000001</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I20" s="46">
         <v>0.74318200000000001</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J20" s="46">
         <v>0.74431800000000004</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K20" s="46">
         <v>0.73863599999999996</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L20" s="46">
         <v>0.73977300000000001</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M20" s="46">
         <v>0.73636400000000002</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N20" s="46">
         <v>0.73750000000000004</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O20" s="46">
         <v>0.74090900000000004</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P20" s="46">
         <v>0.74204499999999995</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q20" s="46">
         <v>0.746591</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R20" s="46">
         <v>0.74545499999999998</v>
       </c>
-      <c r="S19" s="46">
+      <c r="S20" s="46">
         <v>0.746591</v>
       </c>
-      <c r="T19" s="46">
+      <c r="T20" s="46">
         <v>0.74090900000000004</v>
       </c>
-      <c r="U19" s="46">
+      <c r="U20" s="46">
         <v>0.73750000000000004</v>
       </c>
-      <c r="V19" s="46">
+      <c r="V20" s="46">
         <v>0.73863599999999996</v>
       </c>
-      <c r="W19" s="46">
+      <c r="W20" s="46">
         <v>0.73977300000000001</v>
       </c>
-      <c r="X19" s="46">
+      <c r="X20" s="46">
         <v>0.74431800000000004</v>
       </c>
-      <c r="Y19" s="46">
+      <c r="Y20" s="46">
         <v>0.74090900000000004</v>
       </c>
-      <c r="Z19" s="46">
+      <c r="Z20" s="46">
         <v>0.73977300000000001</v>
       </c>
-      <c r="AA19" s="46">
+      <c r="AA20" s="46">
         <v>0.73977300000000001</v>
       </c>
-      <c r="AB19" s="46">
+      <c r="AB20" s="46">
         <v>0.73863599999999996</v>
       </c>
-      <c r="AC19" s="46">
+      <c r="AC20" s="46">
         <v>0.73636400000000002</v>
       </c>
-      <c r="AD19" s="46">
+      <c r="AD20" s="46">
         <v>0.73636400000000002</v>
       </c>
-      <c r="AE19" s="46">
+      <c r="AE20" s="46">
         <v>0.73636400000000002</v>
       </c>
-      <c r="AF19" s="43">
-        <f t="shared" si="20"/>
+      <c r="AF20" s="43">
+        <f t="shared" si="21"/>
         <v>4.5</v>
       </c>
-      <c r="AG19" s="43">
-        <f t="shared" si="21"/>
+      <c r="AG20" s="43">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AH19" s="43">
-        <f t="shared" si="22"/>
+      <c r="AH20" s="43">
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
-      <c r="AI19" s="43">
-        <f t="shared" si="23"/>
+      <c r="AI20" s="43">
+        <f t="shared" si="24"/>
         <v>8.5</v>
       </c>
-      <c r="AJ19" s="43">
-        <f t="shared" si="24"/>
+      <c r="AJ20" s="43">
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
-      <c r="AK19" s="43">
-        <f t="shared" si="25"/>
-        <v>18.5</v>
-      </c>
-      <c r="AL19" s="43">
+      <c r="AK20" s="43">
         <f t="shared" si="26"/>
         <v>18.5</v>
       </c>
-      <c r="AM19" s="43">
+      <c r="AL20" s="43">
         <f t="shared" si="27"/>
+        <v>18.5</v>
+      </c>
+      <c r="AM20" s="43">
+        <f t="shared" si="28"/>
         <v>8.5</v>
       </c>
-      <c r="AN19" s="43">
-        <f t="shared" si="28"/>
+      <c r="AN20" s="43">
+        <f t="shared" si="29"/>
         <v>6.5</v>
       </c>
-      <c r="AO19" s="43">
-        <f t="shared" si="29"/>
+      <c r="AO20" s="43">
+        <f t="shared" si="30"/>
         <v>23</v>
       </c>
-      <c r="AP19" s="43">
-        <f t="shared" si="30"/>
+      <c r="AP20" s="43">
+        <f t="shared" si="31"/>
         <v>18.5</v>
       </c>
-      <c r="AQ19" s="43">
-        <f t="shared" si="31"/>
+      <c r="AQ20" s="43">
+        <f t="shared" si="32"/>
         <v>28.5</v>
       </c>
-      <c r="AR19" s="43">
-        <f t="shared" si="32"/>
+      <c r="AR20" s="43">
+        <f t="shared" si="33"/>
         <v>25.5</v>
       </c>
-      <c r="AS19" s="43">
-        <f t="shared" si="33"/>
+      <c r="AS20" s="43">
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
-      <c r="AT19" s="43">
-        <f t="shared" si="34"/>
+      <c r="AT20" s="43">
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
-      <c r="AU19" s="43">
-        <f t="shared" si="35"/>
+      <c r="AU20" s="43">
+        <f t="shared" si="36"/>
         <v>2.5</v>
       </c>
-      <c r="AV19" s="43">
-        <f t="shared" si="36"/>
+      <c r="AV20" s="43">
+        <f t="shared" si="37"/>
         <v>4.5</v>
       </c>
-      <c r="AW19" s="43">
-        <f t="shared" si="37"/>
+      <c r="AW20" s="43">
+        <f t="shared" si="38"/>
         <v>2.5</v>
       </c>
-      <c r="AX19" s="43">
-        <f t="shared" si="38"/>
+      <c r="AX20" s="43">
+        <f t="shared" si="39"/>
         <v>14</v>
       </c>
-      <c r="AY19" s="43">
-        <f t="shared" si="39"/>
+      <c r="AY20" s="43">
+        <f t="shared" si="40"/>
         <v>25.5</v>
       </c>
-      <c r="AZ19" s="43">
-        <f t="shared" si="40"/>
+      <c r="AZ20" s="43">
+        <f t="shared" si="41"/>
         <v>23</v>
       </c>
-      <c r="BA19" s="43">
-        <f t="shared" si="41"/>
+      <c r="BA20" s="43">
+        <f t="shared" si="42"/>
         <v>18.5</v>
       </c>
-      <c r="BB19" s="43">
-        <f t="shared" si="42"/>
+      <c r="BB20" s="43">
+        <f t="shared" si="43"/>
         <v>6.5</v>
       </c>
-      <c r="BC19" s="43">
-        <f t="shared" si="43"/>
+      <c r="BC20" s="43">
+        <f t="shared" si="44"/>
         <v>14</v>
       </c>
-      <c r="BD19" s="43">
-        <f t="shared" si="44"/>
-        <v>18.5</v>
-      </c>
-      <c r="BE19" s="43">
+      <c r="BD20" s="43">
         <f t="shared" si="45"/>
         <v>18.5</v>
       </c>
-      <c r="BF19" s="43">
+      <c r="BE20" s="43">
         <f t="shared" si="46"/>
+        <v>18.5</v>
+      </c>
+      <c r="BF20" s="43">
+        <f t="shared" si="47"/>
         <v>23</v>
       </c>
-      <c r="BG19" s="43">
-        <f t="shared" si="47"/>
-        <v>28.5</v>
-      </c>
-      <c r="BH19" s="43">
+      <c r="BG20" s="43">
         <f t="shared" si="48"/>
         <v>28.5</v>
       </c>
-      <c r="BI19" s="43">
+      <c r="BH20" s="43">
         <f t="shared" si="49"/>
         <v>28.5</v>
       </c>
-      <c r="BJ19">
+      <c r="BI20" s="43">
         <f t="shared" si="50"/>
+        <v>28.5</v>
+      </c>
+      <c r="BJ20">
+        <f t="shared" si="51"/>
         <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="72">
-        <f>AVERAGE(B15:B19)</f>
-        <v>0.75226459999999995</v>
-      </c>
-      <c r="C20" s="72">
-        <f>AVERAGE(C15:C19)</f>
-        <v>0.75266100000000002</v>
-      </c>
-      <c r="D20" s="72">
-        <f>AVERAGE(D15:D19)</f>
-        <v>0.75432279999999996</v>
-      </c>
-      <c r="E20" s="72">
-        <f>AVERAGE(E15:E19)</f>
-        <v>0.751946</v>
-      </c>
-      <c r="F20" s="72">
-        <f>AVERAGE(F15:F19)</f>
-        <v>0.75668900000000006</v>
-      </c>
-      <c r="G20" s="72">
-        <f>AVERAGE(G15:G19)</f>
-        <v>0.75123459999999997</v>
-      </c>
-      <c r="H20" s="72">
-        <f>AVERAGE(H15:H19)</f>
-        <v>0.7508534</v>
-      </c>
-      <c r="I20" s="72">
-        <f>AVERAGE(I15:I19)</f>
-        <v>0.7484059999999999</v>
-      </c>
-      <c r="J20" s="72">
-        <f>AVERAGE(J15:J19)</f>
-        <v>0.75004559999999998</v>
-      </c>
-      <c r="K20" s="72">
-        <f>AVERAGE(K15:K19)</f>
-        <v>0.74893480000000001</v>
-      </c>
-      <c r="L20" s="72">
-        <f>AVERAGE(L15:L19)</f>
-        <v>0.75021380000000004</v>
-      </c>
-      <c r="M20" s="72">
-        <f>AVERAGE(M15:M19)</f>
-        <v>0.75087520000000008</v>
-      </c>
-      <c r="N20" s="72">
-        <f>AVERAGE(N15:N19)</f>
-        <v>0.75152739999999996</v>
-      </c>
-      <c r="O20" s="72">
-        <f>AVERAGE(O15:O19)</f>
-        <v>0.75798739999999998</v>
-      </c>
-      <c r="P20" s="72">
-        <f>AVERAGE(P15:P19)</f>
-        <v>0.75627440000000001</v>
-      </c>
-      <c r="Q20" s="72">
-        <f>AVERAGE(Q15:Q19)</f>
-        <v>0.75772280000000003</v>
-      </c>
-      <c r="R20" s="72">
-        <f>AVERAGE(R15:R19)</f>
-        <v>0.75630019999999987</v>
-      </c>
-      <c r="S20" s="72">
-        <f>AVERAGE(S15:S19)</f>
-        <v>0.75765719999999992</v>
-      </c>
-      <c r="T20" s="72">
-        <f>AVERAGE(T15:T19)</f>
-        <v>0.76079419999999998</v>
-      </c>
-      <c r="U20" s="72">
-        <f>AVERAGE(U15:U19)</f>
-        <v>0.75781139999999991</v>
-      </c>
-      <c r="V20" s="72">
-        <f>AVERAGE(V15:V19)</f>
-        <v>0.75603039999999999</v>
-      </c>
-      <c r="W20" s="72">
-        <f>AVERAGE(W15:W19)</f>
-        <v>0.75582779999999994</v>
-      </c>
-      <c r="X20" s="72">
-        <f>AVERAGE(X15:X19)</f>
-        <v>0.75663000000000002</v>
-      </c>
-      <c r="Y20" s="72">
-        <f>AVERAGE(Y15:Y19)</f>
-        <v>0.75679560000000001</v>
-      </c>
-      <c r="Z20" s="72">
-        <f>AVERAGE(Z15:Z19)</f>
-        <v>0.75693200000000005</v>
-      </c>
-      <c r="AA20" s="72">
-        <f>AVERAGE(AA15:AA19)</f>
-        <v>0.7560846</v>
-      </c>
-      <c r="AB20" s="72">
-        <f>AVERAGE(AB15:AB19)</f>
-        <v>0.75693180000000004</v>
-      </c>
-      <c r="AC20" s="72">
-        <f>AVERAGE(AC15:AC19)</f>
-        <v>0.75732860000000002</v>
-      </c>
-      <c r="AD20" s="72">
-        <f>AVERAGE(AD15:AD19)</f>
-        <v>0.76003939999999992</v>
-      </c>
-      <c r="AE20" s="72">
-        <f>AVERAGE(AE15:AE19)</f>
-        <v>0.76145180000000001</v>
-      </c>
-      <c r="AF20" s="44">
-        <f>AVERAGE(AF15:AF19)</f>
-        <v>15.3</v>
-      </c>
-      <c r="AG20" s="44">
-        <f t="shared" ref="AG20:BI20" si="51">AVERAGE(AG15:AG19)</f>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="AH20" s="44">
-        <f t="shared" si="51"/>
-        <v>13.8</v>
-      </c>
-      <c r="AI20" s="44">
-        <f t="shared" si="51"/>
-        <v>16.3</v>
-      </c>
-      <c r="AJ20" s="44">
-        <f t="shared" si="51"/>
-        <v>13</v>
-      </c>
-      <c r="AK20" s="44">
-        <f t="shared" si="51"/>
-        <v>17.899999999999999</v>
-      </c>
-      <c r="AL20" s="44">
-        <f t="shared" si="51"/>
-        <v>17.3</v>
-      </c>
-      <c r="AM20" s="44">
-        <f t="shared" si="51"/>
-        <v>17.5</v>
-      </c>
-      <c r="AN20" s="44">
-        <f t="shared" si="51"/>
-        <v>16.5</v>
-      </c>
-      <c r="AO20" s="44">
-        <f t="shared" si="51"/>
-        <v>19.600000000000001</v>
-      </c>
-      <c r="AP20" s="44">
-        <f t="shared" si="51"/>
-        <v>13.8</v>
-      </c>
-      <c r="AQ20" s="44">
-        <f t="shared" si="51"/>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="AR20" s="44">
-        <f t="shared" si="51"/>
-        <v>16.5</v>
-      </c>
-      <c r="AS20" s="44">
-        <f t="shared" si="51"/>
-        <v>10.5</v>
-      </c>
-      <c r="AT20" s="44">
-        <f t="shared" si="51"/>
-        <v>13.2</v>
-      </c>
-      <c r="AU20" s="44">
-        <f t="shared" si="51"/>
-        <v>11.8</v>
-      </c>
-      <c r="AV20" s="44">
-        <f t="shared" si="51"/>
-        <v>14.1</v>
-      </c>
-      <c r="AW20" s="44">
-        <f t="shared" si="51"/>
-        <v>13</v>
-      </c>
-      <c r="AX20" s="44">
-        <f t="shared" si="51"/>
-        <v>10.8</v>
-      </c>
-      <c r="AY20" s="44">
-        <f t="shared" si="51"/>
-        <v>14.1</v>
-      </c>
-      <c r="AZ20" s="44">
-        <f t="shared" si="51"/>
-        <v>17</v>
-      </c>
-      <c r="BA20" s="44">
-        <f t="shared" si="51"/>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="BB20" s="44">
-        <f t="shared" si="51"/>
-        <v>15.2</v>
-      </c>
-      <c r="BC20" s="44">
-        <f t="shared" si="51"/>
-        <v>15.9</v>
-      </c>
-      <c r="BD20" s="44">
-        <f t="shared" si="51"/>
-        <v>16.5</v>
-      </c>
-      <c r="BE20" s="44">
-        <f t="shared" si="51"/>
-        <v>17.3</v>
-      </c>
-      <c r="BF20" s="44">
-        <f t="shared" si="51"/>
-        <v>16.5</v>
-      </c>
-      <c r="BG20" s="44">
-        <f t="shared" si="51"/>
-        <v>19.2</v>
-      </c>
-      <c r="BH20" s="44">
-        <f t="shared" si="51"/>
-        <v>15.2</v>
-      </c>
-      <c r="BI20" s="44">
-        <f t="shared" si="51"/>
-        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="53">
-        <f>COUNTIF(AF15:AF19,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="53">
-        <f t="shared" ref="C21:AE21" si="52">COUNTIF(AG15:AG19,1)</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="53">
+      <c r="A21" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="62">
+        <f t="shared" ref="B21:AF21" si="52">AVERAGE(B16:B20)</f>
+        <v>0.75226459999999995</v>
+      </c>
+      <c r="C21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="53">
+        <v>0.75266100000000002</v>
+      </c>
+      <c r="D21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="53">
+        <v>0.75432279999999996</v>
+      </c>
+      <c r="E21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="53">
+        <v>0.751946</v>
+      </c>
+      <c r="F21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="53">
+        <v>0.75668900000000006</v>
+      </c>
+      <c r="G21" s="62">
         <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="53">
+        <v>0.75123459999999997</v>
+      </c>
+      <c r="H21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="53">
+        <v>0.7508534</v>
+      </c>
+      <c r="I21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="53">
+        <v>0.7484059999999999</v>
+      </c>
+      <c r="J21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="53">
+        <v>0.75004559999999998</v>
+      </c>
+      <c r="K21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="53">
+        <v>0.74893480000000001</v>
+      </c>
+      <c r="L21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="53">
+        <v>0.75021380000000004</v>
+      </c>
+      <c r="M21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="53">
+        <v>0.75087520000000008</v>
+      </c>
+      <c r="N21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="53">
+        <v>0.75152739999999996</v>
+      </c>
+      <c r="O21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="53">
+        <v>0.75798739999999998</v>
+      </c>
+      <c r="P21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="53">
+        <v>0.75627440000000001</v>
+      </c>
+      <c r="Q21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="53">
+        <v>0.75772280000000003</v>
+      </c>
+      <c r="R21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="53">
+        <v>0.75630019999999987</v>
+      </c>
+      <c r="S21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="53">
+        <v>0.75765719999999992</v>
+      </c>
+      <c r="T21" s="62">
         <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="V21" s="53">
+        <v>0.76079419999999998</v>
+      </c>
+      <c r="U21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="53">
+        <v>0.75781139999999991</v>
+      </c>
+      <c r="V21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="53">
+        <v>0.75603039999999999</v>
+      </c>
+      <c r="W21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="53">
+        <v>0.75582779999999994</v>
+      </c>
+      <c r="X21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="53">
+        <v>0.75663000000000002</v>
+      </c>
+      <c r="Y21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="53">
+        <v>0.75679560000000001</v>
+      </c>
+      <c r="Z21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="53">
+        <v>0.75693200000000005</v>
+      </c>
+      <c r="AA21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="53">
+        <v>0.7560846</v>
+      </c>
+      <c r="AB21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="53">
+        <v>0.75693180000000004</v>
+      </c>
+      <c r="AC21" s="62">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="53">
+        <v>0.75732860000000002</v>
+      </c>
+      <c r="AD21" s="62">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0.76003939999999992</v>
+      </c>
+      <c r="AE21" s="62">
+        <f t="shared" si="52"/>
+        <v>0.76145180000000001</v>
+      </c>
+      <c r="AF21" s="44">
+        <f t="shared" si="52"/>
+        <v>15.3</v>
+      </c>
+      <c r="AG21" s="44">
+        <f t="shared" ref="AG21:BI21" si="53">AVERAGE(AG16:AG20)</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AH21" s="44">
+        <f t="shared" si="53"/>
+        <v>13.8</v>
+      </c>
+      <c r="AI21" s="44">
+        <f t="shared" si="53"/>
+        <v>16.3</v>
+      </c>
+      <c r="AJ21" s="44">
+        <f t="shared" si="53"/>
+        <v>13</v>
+      </c>
+      <c r="AK21" s="44">
+        <f t="shared" si="53"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AL21" s="44">
+        <f t="shared" si="53"/>
+        <v>17.3</v>
+      </c>
+      <c r="AM21" s="44">
+        <f t="shared" si="53"/>
+        <v>17.5</v>
+      </c>
+      <c r="AN21" s="44">
+        <f t="shared" si="53"/>
+        <v>16.5</v>
+      </c>
+      <c r="AO21" s="44">
+        <f t="shared" si="53"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AP21" s="44">
+        <f t="shared" si="53"/>
+        <v>13.8</v>
+      </c>
+      <c r="AQ21" s="44">
+        <f t="shared" si="53"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AR21" s="44">
+        <f t="shared" si="53"/>
+        <v>16.5</v>
+      </c>
+      <c r="AS21" s="44">
+        <f t="shared" si="53"/>
+        <v>10.5</v>
+      </c>
+      <c r="AT21" s="44">
+        <f t="shared" si="53"/>
+        <v>13.2</v>
+      </c>
+      <c r="AU21" s="44">
+        <f t="shared" si="53"/>
+        <v>11.8</v>
+      </c>
+      <c r="AV21" s="44">
+        <f t="shared" si="53"/>
+        <v>14.1</v>
+      </c>
+      <c r="AW21" s="44">
+        <f t="shared" si="53"/>
+        <v>13</v>
+      </c>
+      <c r="AX21" s="44">
+        <f t="shared" si="53"/>
+        <v>10.8</v>
+      </c>
+      <c r="AY21" s="44">
+        <f t="shared" si="53"/>
+        <v>14.1</v>
+      </c>
+      <c r="AZ21" s="44">
+        <f t="shared" si="53"/>
+        <v>17</v>
+      </c>
+      <c r="BA21" s="44">
+        <f t="shared" si="53"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="BB21" s="44">
+        <f t="shared" si="53"/>
+        <v>15.2</v>
+      </c>
+      <c r="BC21" s="44">
+        <f t="shared" si="53"/>
+        <v>15.9</v>
+      </c>
+      <c r="BD21" s="44">
+        <f t="shared" si="53"/>
+        <v>16.5</v>
+      </c>
+      <c r="BE21" s="44">
+        <f t="shared" si="53"/>
+        <v>17.3</v>
+      </c>
+      <c r="BF21" s="44">
+        <f t="shared" si="53"/>
+        <v>16.5</v>
+      </c>
+      <c r="BG21" s="44">
+        <f t="shared" si="53"/>
+        <v>19.2</v>
+      </c>
+      <c r="BH21" s="44">
+        <f t="shared" si="53"/>
+        <v>15.2</v>
+      </c>
+      <c r="BI21" s="44">
+        <f t="shared" si="53"/>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="77">
+        <f>COUNTIF(AF16:AF20,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="77">
+        <f t="shared" ref="C22:AE22" si="54">COUNTIF(AG16:AG20,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="77">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="77">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="V22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="77">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="77">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="42">
-        <f>AF20</f>
+      <c r="B23" s="42">
+        <f>AF21</f>
         <v>15.3</v>
       </c>
-      <c r="C22" s="42">
-        <f t="shared" ref="C22:AE22" si="53">AG20</f>
+      <c r="C23" s="42">
+        <f t="shared" ref="C23:AE23" si="55">AG21</f>
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="42">
-        <f t="shared" si="53"/>
+      <c r="D23" s="42">
+        <f t="shared" si="55"/>
         <v>13.8</v>
       </c>
-      <c r="E22" s="42">
-        <f t="shared" si="53"/>
+      <c r="E23" s="42">
+        <f t="shared" si="55"/>
         <v>16.3</v>
       </c>
-      <c r="F22" s="42">
-        <f t="shared" si="53"/>
+      <c r="F23" s="42">
+        <f t="shared" si="55"/>
         <v>13</v>
       </c>
-      <c r="G22" s="42">
-        <f t="shared" si="53"/>
+      <c r="G23" s="42">
+        <f t="shared" si="55"/>
         <v>17.899999999999999</v>
       </c>
-      <c r="H22" s="42">
-        <f t="shared" si="53"/>
+      <c r="H23" s="42">
+        <f t="shared" si="55"/>
         <v>17.3</v>
       </c>
-      <c r="I22" s="42">
-        <f t="shared" si="53"/>
+      <c r="I23" s="42">
+        <f t="shared" si="55"/>
         <v>17.5</v>
       </c>
-      <c r="J22" s="42">
-        <f t="shared" si="53"/>
+      <c r="J23" s="42">
+        <f t="shared" si="55"/>
         <v>16.5</v>
       </c>
-      <c r="K22" s="42">
-        <f t="shared" si="53"/>
+      <c r="K23" s="42">
+        <f t="shared" si="55"/>
         <v>19.600000000000001</v>
       </c>
-      <c r="L22" s="42">
-        <f t="shared" si="53"/>
+      <c r="L23" s="42">
+        <f t="shared" si="55"/>
         <v>13.8</v>
       </c>
-      <c r="M22" s="42">
-        <f t="shared" si="53"/>
+      <c r="M23" s="42">
+        <f t="shared" si="55"/>
         <v>18.600000000000001</v>
       </c>
-      <c r="N22" s="42">
-        <f t="shared" si="53"/>
+      <c r="N23" s="42">
+        <f t="shared" si="55"/>
         <v>16.5</v>
       </c>
-      <c r="O22" s="42">
-        <f t="shared" si="53"/>
+      <c r="O23" s="42">
+        <f t="shared" si="55"/>
         <v>10.5</v>
       </c>
-      <c r="P22" s="42">
-        <f t="shared" si="53"/>
+      <c r="P23" s="42">
+        <f t="shared" si="55"/>
         <v>13.2</v>
       </c>
-      <c r="Q22" s="42">
-        <f t="shared" si="53"/>
+      <c r="Q23" s="42">
+        <f t="shared" si="55"/>
         <v>11.8</v>
       </c>
-      <c r="R22" s="42">
-        <f t="shared" si="53"/>
+      <c r="R23" s="42">
+        <f t="shared" si="55"/>
         <v>14.1</v>
       </c>
-      <c r="S22" s="42">
-        <f t="shared" si="53"/>
+      <c r="S23" s="42">
+        <f t="shared" si="55"/>
         <v>13</v>
       </c>
-      <c r="T22" s="42">
-        <f t="shared" si="53"/>
+      <c r="T23" s="42">
+        <f t="shared" si="55"/>
         <v>10.8</v>
       </c>
-      <c r="U22" s="42">
-        <f t="shared" si="53"/>
+      <c r="U23" s="42">
+        <f t="shared" si="55"/>
         <v>14.1</v>
       </c>
-      <c r="V22" s="42">
-        <f t="shared" si="53"/>
+      <c r="V23" s="42">
+        <f t="shared" si="55"/>
         <v>17</v>
       </c>
-      <c r="W22" s="42">
-        <f t="shared" si="53"/>
+      <c r="W23" s="42">
+        <f t="shared" si="55"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="X22" s="42">
-        <f t="shared" si="53"/>
+      <c r="X23" s="42">
+        <f t="shared" si="55"/>
         <v>15.2</v>
       </c>
-      <c r="Y22" s="42">
-        <f t="shared" si="53"/>
+      <c r="Y23" s="42">
+        <f t="shared" si="55"/>
         <v>15.9</v>
       </c>
-      <c r="Z22" s="42">
-        <f t="shared" si="53"/>
+      <c r="Z23" s="42">
+        <f t="shared" si="55"/>
         <v>16.5</v>
       </c>
-      <c r="AA22" s="42">
-        <f t="shared" si="53"/>
+      <c r="AA23" s="42">
+        <f t="shared" si="55"/>
         <v>17.3</v>
       </c>
-      <c r="AB22" s="42">
-        <f t="shared" si="53"/>
+      <c r="AB23" s="42">
+        <f t="shared" si="55"/>
         <v>16.5</v>
       </c>
-      <c r="AC22" s="42">
-        <f t="shared" si="53"/>
+      <c r="AC23" s="42">
+        <f t="shared" si="55"/>
         <v>19.2</v>
       </c>
-      <c r="AD22" s="42">
-        <f t="shared" si="53"/>
+      <c r="AD23" s="42">
+        <f t="shared" si="55"/>
         <v>15.2</v>
       </c>
-      <c r="AE22" s="42">
-        <f t="shared" si="53"/>
+      <c r="AE23" s="42">
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-    </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
+    <row r="25" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="50">
-        <v>50</v>
-      </c>
-      <c r="C26" s="50">
-        <v>100</v>
-      </c>
-      <c r="D26" s="50">
-        <v>150</v>
-      </c>
-      <c r="E26" s="50">
-        <v>200</v>
-      </c>
-      <c r="F26" s="50">
-        <v>250</v>
-      </c>
-      <c r="G26" s="50">
-        <v>300</v>
-      </c>
-      <c r="H26" s="50">
-        <v>350</v>
-      </c>
-      <c r="I26" s="50">
-        <v>400</v>
-      </c>
-      <c r="J26" s="50">
-        <v>450</v>
-      </c>
-      <c r="K26" s="50">
-        <v>500</v>
-      </c>
-      <c r="L26" s="50">
-        <v>50</v>
-      </c>
-      <c r="M26" s="50">
-        <v>100</v>
-      </c>
-      <c r="N26" s="50">
-        <v>150</v>
-      </c>
-      <c r="O26" s="50">
-        <v>200</v>
-      </c>
-      <c r="P26" s="50">
-        <v>250</v>
-      </c>
-      <c r="Q26" s="50">
-        <v>300</v>
-      </c>
-      <c r="R26" s="50">
-        <v>350</v>
-      </c>
-      <c r="S26" s="50">
-        <v>400</v>
-      </c>
-      <c r="T26" s="50">
-        <v>450</v>
-      </c>
-      <c r="U26" s="50">
-        <v>500</v>
-      </c>
+      <c r="A26" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="46">
-        <v>0.76510999999999996</v>
-      </c>
-      <c r="C27" s="46">
-        <v>0.76236300000000001</v>
-      </c>
-      <c r="D27" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="E27" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="F27" s="46">
-        <v>0.76236300000000001</v>
-      </c>
-      <c r="G27" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="H27" s="46">
-        <v>0.76510999999999996</v>
-      </c>
-      <c r="I27" s="46">
-        <v>0.76510999999999996</v>
-      </c>
-      <c r="J27" s="46">
-        <v>0.76236300000000001</v>
-      </c>
-      <c r="K27" s="46">
-        <v>0.76236300000000001</v>
-      </c>
-      <c r="L27" s="43">
-        <f>_xlfn.RANK.AVG(B27,B27:K27)</f>
-        <v>2</v>
-      </c>
-      <c r="M27" s="43">
-        <f>_xlfn.RANK.AVG(C27,B27:K27)</f>
-        <v>8.5</v>
-      </c>
-      <c r="N27" s="43">
-        <f>_xlfn.RANK.AVG(D27,B27:K27)</f>
-        <v>5</v>
-      </c>
-      <c r="O27" s="43">
-        <f>_xlfn.RANK.AVG(E27,B27:K27)</f>
-        <v>5</v>
-      </c>
-      <c r="P27" s="43">
-        <f>_xlfn.RANK.AVG(F27,B27:K27)</f>
-        <v>8.5</v>
-      </c>
-      <c r="Q27" s="43">
-        <f>_xlfn.RANK.AVG(G27,B27:K27)</f>
-        <v>5</v>
-      </c>
-      <c r="R27" s="43">
-        <f>_xlfn.RANK.AVG(H27,B27:K27)</f>
-        <v>2</v>
-      </c>
-      <c r="S27" s="43">
-        <f>_xlfn.RANK.AVG(I27,B27:K27)</f>
-        <v>2</v>
-      </c>
-      <c r="T27" s="43">
-        <f>_xlfn.RANK.AVG(J27,B27:K27)</f>
-        <v>8.5</v>
-      </c>
-      <c r="U27" s="43">
-        <f>_xlfn.RANK.AVG(K27,B27:K27)</f>
-        <v>8.5</v>
-      </c>
-      <c r="V27">
-        <f>COUNTIF(L27:U27,1)</f>
-        <v>0</v>
+      <c r="A27" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="50">
+        <v>50</v>
+      </c>
+      <c r="C27" s="50">
+        <v>100</v>
+      </c>
+      <c r="D27" s="50">
+        <v>150</v>
+      </c>
+      <c r="E27" s="50">
+        <v>200</v>
+      </c>
+      <c r="F27" s="50">
+        <v>250</v>
+      </c>
+      <c r="G27" s="50">
+        <v>300</v>
+      </c>
+      <c r="H27" s="50">
+        <v>350</v>
+      </c>
+      <c r="I27" s="50">
+        <v>400</v>
+      </c>
+      <c r="J27" s="50">
+        <v>450</v>
+      </c>
+      <c r="K27" s="50">
+        <v>500</v>
+      </c>
+      <c r="L27" s="50">
+        <v>50</v>
+      </c>
+      <c r="M27" s="50">
+        <v>100</v>
+      </c>
+      <c r="N27" s="50">
+        <v>150</v>
+      </c>
+      <c r="O27" s="50">
+        <v>200</v>
+      </c>
+      <c r="P27" s="50">
+        <v>250</v>
+      </c>
+      <c r="Q27" s="50">
+        <v>300</v>
+      </c>
+      <c r="R27" s="50">
+        <v>350</v>
+      </c>
+      <c r="S27" s="50">
+        <v>400</v>
+      </c>
+      <c r="T27" s="50">
+        <v>450</v>
+      </c>
+      <c r="U27" s="50">
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="46">
+        <v>0.76510999999999996</v>
+      </c>
+      <c r="C28" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="D28" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="E28" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="F28" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="G28" s="46">
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="H28" s="46">
+        <v>0.76510999999999996</v>
+      </c>
+      <c r="I28" s="46">
+        <v>0.76510999999999996</v>
+      </c>
+      <c r="J28" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="K28" s="46">
+        <v>0.76236300000000001</v>
+      </c>
+      <c r="L28" s="43">
+        <f>_xlfn.RANK.AVG(B28,B28:K28)</f>
         <v>2</v>
       </c>
-      <c r="B28" s="46">
-        <v>0.57203400000000004</v>
-      </c>
-      <c r="C28" s="46">
-        <v>0.57768399999999998</v>
-      </c>
-      <c r="D28" s="46">
-        <v>0.58474599999999999</v>
-      </c>
-      <c r="E28" s="46">
-        <v>0.910632</v>
-      </c>
-      <c r="F28" s="46">
-        <v>0.59463299999999997</v>
-      </c>
-      <c r="G28" s="46">
-        <v>0.58615799999999996</v>
-      </c>
-      <c r="H28" s="46">
-        <v>0.58175699999999997</v>
-      </c>
-      <c r="I28" s="46">
-        <v>0.591808</v>
-      </c>
-      <c r="J28" s="46">
-        <v>0.58898300000000003</v>
-      </c>
-      <c r="K28" s="46">
-        <v>0.58757099999999995</v>
-      </c>
-      <c r="L28" s="43">
-        <f t="shared" ref="L28:L31" si="54">_xlfn.RANK.AVG(B28,B28:K28)</f>
-        <v>10</v>
-      </c>
       <c r="M28" s="43">
-        <f t="shared" ref="M28:M31" si="55">_xlfn.RANK.AVG(C28,B28:K28)</f>
-        <v>9</v>
+        <f>_xlfn.RANK.AVG(C28,B28:K28)</f>
+        <v>8.5</v>
       </c>
       <c r="N28" s="43">
-        <f t="shared" ref="N28:N31" si="56">_xlfn.RANK.AVG(D28,B28:K28)</f>
-        <v>7</v>
+        <f>_xlfn.RANK.AVG(D28,B28:K28)</f>
+        <v>5</v>
       </c>
       <c r="O28" s="43">
-        <f t="shared" ref="O28:O31" si="57">_xlfn.RANK.AVG(E28,B28:K28)</f>
-        <v>1</v>
+        <f>_xlfn.RANK.AVG(E28,B28:K28)</f>
+        <v>5</v>
       </c>
       <c r="P28" s="43">
-        <f t="shared" ref="P28:P31" si="58">_xlfn.RANK.AVG(F28,B28:K28)</f>
+        <f>_xlfn.RANK.AVG(F28,B28:K28)</f>
+        <v>8.5</v>
+      </c>
+      <c r="Q28" s="43">
+        <f>_xlfn.RANK.AVG(G28,B28:K28)</f>
+        <v>5</v>
+      </c>
+      <c r="R28" s="43">
+        <f>_xlfn.RANK.AVG(H28,B28:K28)</f>
         <v>2</v>
       </c>
-      <c r="Q28" s="43">
-        <f t="shared" ref="Q28:Q31" si="59">_xlfn.RANK.AVG(G28,B28:K28)</f>
-        <v>6</v>
-      </c>
-      <c r="R28" s="43">
-        <f t="shared" ref="R28:R31" si="60">_xlfn.RANK.AVG(H28,B28:K28)</f>
-        <v>8</v>
-      </c>
       <c r="S28" s="43">
-        <f t="shared" ref="S28:S31" si="61">_xlfn.RANK.AVG(I28,B28:K28)</f>
-        <v>3</v>
+        <f>_xlfn.RANK.AVG(I28,B28:K28)</f>
+        <v>2</v>
       </c>
       <c r="T28" s="43">
-        <f t="shared" ref="T28:T31" si="62">_xlfn.RANK.AVG(J28,B28:K28)</f>
-        <v>4</v>
+        <f>_xlfn.RANK.AVG(J28,B28:K28)</f>
+        <v>8.5</v>
       </c>
       <c r="U28" s="43">
-        <f t="shared" ref="U28:U31" si="63">_xlfn.RANK.AVG(K28,B28:K28)</f>
-        <v>5</v>
+        <f>_xlfn.RANK.AVG(K28,B28:K28)</f>
+        <v>8.5</v>
       </c>
       <c r="V28">
-        <f t="shared" ref="V28:V31" si="64">COUNTIF(L28:U28,1)</f>
-        <v>1</v>
+        <f>COUNTIF(L28:U28,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="46">
-        <v>0.913713</v>
+        <v>0.57203400000000004</v>
       </c>
       <c r="C29" s="46">
-        <v>0.913713</v>
+        <v>0.57768399999999998</v>
       </c>
       <c r="D29" s="46">
-        <v>0.91217300000000001</v>
+        <v>0.58474599999999999</v>
       </c>
       <c r="E29" s="46">
         <v>0.910632</v>
       </c>
       <c r="F29" s="46">
-        <v>0.910632</v>
+        <v>0.59463299999999997</v>
       </c>
       <c r="G29" s="46">
-        <v>0.91217300000000001</v>
+        <v>0.58615799999999996</v>
       </c>
       <c r="H29" s="46">
-        <v>0.91217300000000001</v>
+        <v>0.58175699999999997</v>
       </c>
       <c r="I29" s="46">
-        <v>0.91217300000000001</v>
+        <v>0.591808</v>
       </c>
       <c r="J29" s="46">
-        <v>0.91217300000000001</v>
+        <v>0.58898300000000003</v>
       </c>
       <c r="K29" s="46">
-        <v>0.910632</v>
+        <v>0.58757099999999995</v>
       </c>
       <c r="L29" s="43">
-        <f t="shared" si="54"/>
-        <v>1.5</v>
+        <f t="shared" ref="L29:L32" si="56">_xlfn.RANK.AVG(B29,B29:K29)</f>
+        <v>10</v>
       </c>
       <c r="M29" s="43">
-        <f t="shared" si="55"/>
-        <v>1.5</v>
+        <f t="shared" ref="M29:M32" si="57">_xlfn.RANK.AVG(C29,B29:K29)</f>
+        <v>9</v>
       </c>
       <c r="N29" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="N29:N32" si="58">_xlfn.RANK.AVG(D29,B29:K29)</f>
+        <v>7</v>
+      </c>
+      <c r="O29" s="43">
+        <f t="shared" ref="O29:O32" si="59">_xlfn.RANK.AVG(E29,B29:K29)</f>
+        <v>1</v>
+      </c>
+      <c r="P29" s="43">
+        <f t="shared" ref="P29:P32" si="60">_xlfn.RANK.AVG(F29,B29:K29)</f>
+        <v>2</v>
+      </c>
+      <c r="Q29" s="43">
+        <f t="shared" ref="Q29:Q32" si="61">_xlfn.RANK.AVG(G29,B29:K29)</f>
+        <v>6</v>
+      </c>
+      <c r="R29" s="43">
+        <f t="shared" ref="R29:R32" si="62">_xlfn.RANK.AVG(H29,B29:K29)</f>
+        <v>8</v>
+      </c>
+      <c r="S29" s="43">
+        <f t="shared" ref="S29:S32" si="63">_xlfn.RANK.AVG(I29,B29:K29)</f>
+        <v>3</v>
+      </c>
+      <c r="T29" s="43">
+        <f t="shared" ref="T29:T32" si="64">_xlfn.RANK.AVG(J29,B29:K29)</f>
+        <v>4</v>
+      </c>
+      <c r="U29" s="43">
+        <f t="shared" ref="U29:U32" si="65">_xlfn.RANK.AVG(K29,B29:K29)</f>
         <v>5</v>
       </c>
-      <c r="O29" s="43">
-        <f t="shared" si="57"/>
-        <v>9</v>
-      </c>
-      <c r="P29" s="43">
-        <f t="shared" si="58"/>
-        <v>9</v>
-      </c>
-      <c r="Q29" s="43">
-        <f t="shared" si="59"/>
-        <v>5</v>
-      </c>
-      <c r="R29" s="43">
-        <f t="shared" si="60"/>
-        <v>5</v>
-      </c>
-      <c r="S29" s="43">
-        <f t="shared" si="61"/>
-        <v>5</v>
-      </c>
-      <c r="T29" s="43">
-        <f t="shared" si="62"/>
-        <v>5</v>
-      </c>
-      <c r="U29" s="43">
-        <f t="shared" si="63"/>
-        <v>9</v>
-      </c>
       <c r="V29">
-        <f t="shared" si="64"/>
-        <v>0</v>
+        <f t="shared" ref="V29:V32" si="66">COUNTIF(L29:U29,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="46">
-        <v>0.77500000000000002</v>
+        <v>0.913713</v>
       </c>
       <c r="C30" s="46">
-        <v>0.77840900000000002</v>
+        <v>0.913713</v>
       </c>
       <c r="D30" s="46">
-        <v>0.77840900000000002</v>
+        <v>0.91217300000000001</v>
       </c>
       <c r="E30" s="46">
-        <v>0.77727299999999999</v>
+        <v>0.910632</v>
       </c>
       <c r="F30" s="46">
-        <v>0.77727299999999999</v>
+        <v>0.910632</v>
       </c>
       <c r="G30" s="46">
-        <v>0.77954500000000004</v>
+        <v>0.91217300000000001</v>
       </c>
       <c r="H30" s="46">
-        <v>0.77613600000000005</v>
+        <v>0.91217300000000001</v>
       </c>
       <c r="I30" s="46">
-        <v>0.77840900000000002</v>
+        <v>0.91217300000000001</v>
       </c>
       <c r="J30" s="46">
-        <v>0.77954500000000004</v>
+        <v>0.91217300000000001</v>
       </c>
       <c r="K30" s="46">
-        <v>0.77954500000000004</v>
+        <v>0.910632</v>
       </c>
       <c r="L30" s="43">
-        <f t="shared" si="54"/>
-        <v>10</v>
+        <f t="shared" si="56"/>
+        <v>1.5</v>
       </c>
       <c r="M30" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
+        <v>1.5</v>
+      </c>
+      <c r="N30" s="43">
+        <f t="shared" si="58"/>
         <v>5</v>
       </c>
-      <c r="N30" s="43">
-        <f t="shared" si="56"/>
-        <v>5</v>
-      </c>
       <c r="O30" s="43">
-        <f t="shared" si="57"/>
-        <v>7.5</v>
+        <f t="shared" si="59"/>
+        <v>9</v>
       </c>
       <c r="P30" s="43">
-        <f t="shared" si="58"/>
-        <v>7.5</v>
-      </c>
-      <c r="Q30" s="43">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="R30" s="43">
         <f t="shared" si="60"/>
         <v>9</v>
       </c>
-      <c r="S30" s="43">
+      <c r="Q30" s="43">
         <f t="shared" si="61"/>
         <v>5</v>
       </c>
+      <c r="R30" s="43">
+        <f t="shared" si="62"/>
+        <v>5</v>
+      </c>
+      <c r="S30" s="43">
+        <f t="shared" si="63"/>
+        <v>5</v>
+      </c>
       <c r="T30" s="43">
-        <f t="shared" si="62"/>
-        <v>2</v>
+        <f t="shared" si="64"/>
+        <v>5</v>
       </c>
       <c r="U30" s="43">
-        <f t="shared" si="63"/>
-        <v>2</v>
+        <f t="shared" si="65"/>
+        <v>9</v>
       </c>
       <c r="V30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
-        <v>5</v>
+      <c r="A31" s="47" t="s">
+        <v>4</v>
       </c>
       <c r="B31" s="46">
-        <v>0.74545499999999998</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="C31" s="46">
-        <v>0.74318200000000001</v>
+        <v>0.77840900000000002</v>
       </c>
       <c r="D31" s="46">
-        <v>0.74204499999999995</v>
+        <v>0.77840900000000002</v>
       </c>
       <c r="E31" s="46">
-        <v>0.74318200000000001</v>
+        <v>0.77727299999999999</v>
       </c>
       <c r="F31" s="46">
-        <v>0.74431800000000004</v>
+        <v>0.77727299999999999</v>
       </c>
       <c r="G31" s="46">
-        <v>0.746591</v>
+        <v>0.77954500000000004</v>
       </c>
       <c r="H31" s="46">
-        <v>0.746591</v>
+        <v>0.77613600000000005</v>
       </c>
       <c r="I31" s="46">
-        <v>0.746591</v>
+        <v>0.77840900000000002</v>
       </c>
       <c r="J31" s="46">
-        <v>0.74545499999999998</v>
+        <v>0.77954500000000004</v>
       </c>
       <c r="K31" s="46">
-        <v>0.746591</v>
+        <v>0.77954500000000004</v>
       </c>
       <c r="L31" s="43">
-        <f t="shared" si="54"/>
-        <v>5.5</v>
-      </c>
-      <c r="M31" s="43">
-        <f t="shared" si="55"/>
-        <v>8.5</v>
-      </c>
-      <c r="N31" s="43">
         <f t="shared" si="56"/>
         <v>10</v>
       </c>
+      <c r="M31" s="43">
+        <f t="shared" si="57"/>
+        <v>5</v>
+      </c>
+      <c r="N31" s="43">
+        <f t="shared" si="58"/>
+        <v>5</v>
+      </c>
       <c r="O31" s="43">
+        <f t="shared" si="59"/>
+        <v>7.5</v>
+      </c>
+      <c r="P31" s="43">
+        <f t="shared" si="60"/>
+        <v>7.5</v>
+      </c>
+      <c r="Q31" s="43">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="R31" s="43">
+        <f t="shared" si="62"/>
+        <v>9</v>
+      </c>
+      <c r="S31" s="43">
+        <f t="shared" si="63"/>
+        <v>5</v>
+      </c>
+      <c r="T31" s="43">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="U31" s="43">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="46">
+        <v>0.74545499999999998</v>
+      </c>
+      <c r="C32" s="46">
+        <v>0.74318200000000001</v>
+      </c>
+      <c r="D32" s="46">
+        <v>0.74204499999999995</v>
+      </c>
+      <c r="E32" s="46">
+        <v>0.74318200000000001</v>
+      </c>
+      <c r="F32" s="46">
+        <v>0.74431800000000004</v>
+      </c>
+      <c r="G32" s="46">
+        <v>0.746591</v>
+      </c>
+      <c r="H32" s="46">
+        <v>0.746591</v>
+      </c>
+      <c r="I32" s="46">
+        <v>0.746591</v>
+      </c>
+      <c r="J32" s="46">
+        <v>0.74545499999999998</v>
+      </c>
+      <c r="K32" s="46">
+        <v>0.746591</v>
+      </c>
+      <c r="L32" s="43">
+        <f t="shared" si="56"/>
+        <v>5.5</v>
+      </c>
+      <c r="M32" s="43">
         <f t="shared" si="57"/>
         <v>8.5</v>
       </c>
-      <c r="P31" s="43">
+      <c r="N32" s="43">
         <f t="shared" si="58"/>
+        <v>10</v>
+      </c>
+      <c r="O32" s="43">
+        <f t="shared" si="59"/>
+        <v>8.5</v>
+      </c>
+      <c r="P32" s="43">
+        <f t="shared" si="60"/>
         <v>7</v>
       </c>
-      <c r="Q31" s="43">
-        <f t="shared" si="59"/>
-        <v>2.5</v>
-      </c>
-      <c r="R31" s="43">
-        <f t="shared" si="60"/>
-        <v>2.5</v>
-      </c>
-      <c r="S31" s="43">
+      <c r="Q32" s="43">
         <f t="shared" si="61"/>
         <v>2.5</v>
       </c>
-      <c r="T31" s="43">
+      <c r="R32" s="43">
         <f t="shared" si="62"/>
-        <v>5.5</v>
-      </c>
-      <c r="U31" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="S32" s="43">
         <f t="shared" si="63"/>
         <v>2.5</v>
       </c>
-      <c r="V31">
+      <c r="T32" s="43">
         <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="71">
-        <f>AVERAGE(B27:B31)</f>
-        <v>0.7542624</v>
-      </c>
-      <c r="C32" s="71">
-        <f>AVERAGE(C27:C31)</f>
-        <v>0.75507019999999991</v>
-      </c>
-      <c r="D32" s="71">
-        <f>AVERAGE(D27:D31)</f>
-        <v>0.75622179999999994</v>
-      </c>
-      <c r="E32" s="71">
-        <f>AVERAGE(E27:E31)</f>
-        <v>0.82109100000000002</v>
-      </c>
-      <c r="F32" s="71">
-        <f>AVERAGE(F27:F31)</f>
-        <v>0.75784380000000007</v>
-      </c>
-      <c r="G32" s="71">
-        <f>AVERAGE(G27:G31)</f>
-        <v>0.7576406</v>
-      </c>
-      <c r="H32" s="71">
-        <f>AVERAGE(H27:H31)</f>
-        <v>0.75635340000000006</v>
-      </c>
-      <c r="I32" s="71">
-        <f>AVERAGE(I27:I31)</f>
-        <v>0.7588182</v>
-      </c>
-      <c r="J32" s="71">
-        <f>AVERAGE(J27:J31)</f>
-        <v>0.75770380000000004</v>
-      </c>
-      <c r="K32" s="71">
-        <f>AVERAGE(K27:K31)</f>
-        <v>0.75734040000000002</v>
-      </c>
-      <c r="L32" s="44">
-        <f>AVERAGE(L27:L31)</f>
-        <v>5.8</v>
-      </c>
-      <c r="M32" s="44">
-        <f t="shared" ref="M32:U32" si="65">AVERAGE(M27:M31)</f>
-        <v>6.5</v>
-      </c>
-      <c r="N32" s="44">
+        <v>5.5</v>
+      </c>
+      <c r="U32" s="43">
         <f t="shared" si="65"/>
-        <v>6.4</v>
-      </c>
-      <c r="O32" s="44">
-        <f t="shared" si="65"/>
-        <v>6.2</v>
-      </c>
-      <c r="P32" s="44">
-        <f>AVERAGE(P27:P31)</f>
-        <v>6.8</v>
-      </c>
-      <c r="Q32" s="44">
-        <f t="shared" si="65"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="R32" s="44">
-        <f t="shared" si="65"/>
-        <v>5.3</v>
-      </c>
-      <c r="S32" s="44">
-        <f t="shared" si="65"/>
-        <v>3.5</v>
-      </c>
-      <c r="T32" s="44">
-        <f t="shared" si="65"/>
-        <v>5</v>
-      </c>
-      <c r="U32" s="44">
-        <f t="shared" si="65"/>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="42">
-        <f>COUNTIF(L27:L31,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="42">
-        <f t="shared" ref="C33:K33" si="66">COUNTIF(M27:M31,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="42">
+        <v>2.5</v>
+      </c>
+      <c r="V32">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="E33" s="42">
-        <f t="shared" si="66"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="61">
+        <f t="shared" ref="B33:L33" si="67">AVERAGE(B28:B32)</f>
+        <v>0.7542624</v>
+      </c>
+      <c r="C33" s="61">
+        <f t="shared" si="67"/>
+        <v>0.75507019999999991</v>
+      </c>
+      <c r="D33" s="61">
+        <f t="shared" si="67"/>
+        <v>0.75622179999999994</v>
+      </c>
+      <c r="E33" s="61">
+        <f t="shared" si="67"/>
+        <v>0.82109100000000002</v>
+      </c>
+      <c r="F33" s="61">
+        <f t="shared" si="67"/>
+        <v>0.75784380000000007</v>
+      </c>
+      <c r="G33" s="61">
+        <f t="shared" si="67"/>
+        <v>0.7576406</v>
+      </c>
+      <c r="H33" s="61">
+        <f t="shared" si="67"/>
+        <v>0.75635340000000006</v>
+      </c>
+      <c r="I33" s="61">
+        <f t="shared" si="67"/>
+        <v>0.7588182</v>
+      </c>
+      <c r="J33" s="61">
+        <f t="shared" si="67"/>
+        <v>0.75770380000000004</v>
+      </c>
+      <c r="K33" s="61">
+        <f t="shared" si="67"/>
+        <v>0.75734040000000002</v>
+      </c>
+      <c r="L33" s="44">
+        <f t="shared" si="67"/>
+        <v>5.8</v>
+      </c>
+      <c r="M33" s="44">
+        <f t="shared" ref="M33:U33" si="68">AVERAGE(M28:M32)</f>
+        <v>6.5</v>
+      </c>
+      <c r="N33" s="44">
+        <f t="shared" si="68"/>
+        <v>6.4</v>
+      </c>
+      <c r="O33" s="44">
+        <f t="shared" si="68"/>
+        <v>6.2</v>
+      </c>
+      <c r="P33" s="44">
+        <f>AVERAGE(P28:P32)</f>
+        <v>6.8</v>
+      </c>
+      <c r="Q33" s="44">
+        <f t="shared" si="68"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R33" s="44">
+        <f t="shared" si="68"/>
+        <v>5.3</v>
+      </c>
+      <c r="S33" s="44">
+        <f t="shared" si="68"/>
+        <v>3.5</v>
+      </c>
+      <c r="T33" s="44">
+        <f t="shared" si="68"/>
+        <v>5</v>
+      </c>
+      <c r="U33" s="44">
+        <f t="shared" si="68"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="78">
+        <f>COUNTIF(L28:L32,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="78">
+        <f t="shared" ref="C34:K34" si="69">COUNTIF(M28:M32,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="78">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="78">
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="F33" s="42">
-        <f t="shared" si="66"/>
+      <c r="F34" s="78">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="G33" s="42">
-        <f t="shared" si="66"/>
+      <c r="G34" s="78">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="H33" s="42">
-        <f t="shared" si="66"/>
+      <c r="H34" s="78">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="I33" s="42">
-        <f t="shared" si="66"/>
+      <c r="I34" s="78">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="J33" s="42">
-        <f t="shared" si="66"/>
+      <c r="J34" s="78">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="K33" s="42">
-        <f t="shared" si="66"/>
+      <c r="K34" s="78">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="42">
-        <f>L32</f>
+      <c r="B35" s="42">
+        <f>L33</f>
         <v>5.8</v>
       </c>
-      <c r="C34" s="42">
-        <f t="shared" ref="C34:K34" si="67">M32</f>
+      <c r="C35" s="42">
+        <f t="shared" ref="C35:K35" si="70">M33</f>
         <v>6.5</v>
       </c>
-      <c r="D34" s="42">
-        <f t="shared" si="67"/>
+      <c r="D35" s="42">
+        <f t="shared" si="70"/>
         <v>6.4</v>
       </c>
-      <c r="E34" s="42">
-        <f t="shared" si="67"/>
+      <c r="E35" s="42">
+        <f t="shared" si="70"/>
         <v>6.2</v>
       </c>
-      <c r="F34" s="42">
-        <f t="shared" si="67"/>
+      <c r="F35" s="42">
+        <f t="shared" si="70"/>
         <v>6.8</v>
       </c>
-      <c r="G34" s="42">
-        <f t="shared" si="67"/>
+      <c r="G35" s="42">
+        <f t="shared" si="70"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="H34" s="42">
-        <f t="shared" si="67"/>
+      <c r="H35" s="42">
+        <f t="shared" si="70"/>
         <v>5.3</v>
       </c>
-      <c r="I34" s="42">
-        <f>S32</f>
+      <c r="I35" s="42">
+        <f>S33</f>
         <v>3.5</v>
       </c>
-      <c r="J34" s="42">
-        <f t="shared" si="67"/>
+      <c r="J35" s="42">
+        <f t="shared" si="70"/>
         <v>5</v>
       </c>
-      <c r="K34" s="42">
-        <f t="shared" si="67"/>
+      <c r="K35" s="42">
+        <f t="shared" si="70"/>
         <v>5.4</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B39" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C39" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D39" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E39" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F39" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="G39" s="50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B40" s="46">
         <v>0.76098900000000003</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C40" s="46">
         <v>0.76373599999999997</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D40" s="46">
         <v>0.76373599999999997</v>
       </c>
-      <c r="E39" s="43">
-        <f>_xlfn.RANK.AVG(B39,B39:D39)</f>
+      <c r="E40" s="43">
+        <f>_xlfn.RANK.AVG(B40,B40:D40)</f>
         <v>3</v>
       </c>
-      <c r="F39" s="43">
-        <f>_xlfn.RANK.AVG(C39,B39:D39)</f>
+      <c r="F40" s="43">
+        <f>_xlfn.RANK.AVG(C40,B40:D40)</f>
         <v>1.5</v>
       </c>
-      <c r="G39" s="43">
-        <f>_xlfn.RANK.AVG(D39,B39:D39)</f>
+      <c r="G40" s="43">
+        <f>_xlfn.RANK.AVG(D40,B40:D40)</f>
         <v>1.5</v>
       </c>
-      <c r="H39">
-        <f>COUNTIF(E39:G39,1)</f>
+      <c r="H40">
+        <f>COUNTIF(E40:G40,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="46">
+      <c r="B41" s="46">
         <v>0.85028199999999998</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C41" s="46">
         <v>0.83757099999999995</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D41" s="46">
         <v>0.88700599999999996</v>
       </c>
-      <c r="E40" s="43">
-        <f t="shared" ref="E40:E44" si="68">_xlfn.RANK.AVG(B40,B40:D40)</f>
+      <c r="E41" s="43">
+        <f t="shared" ref="E41:E45" si="71">_xlfn.RANK.AVG(B41,B41:D41)</f>
         <v>2</v>
       </c>
-      <c r="F40" s="43">
-        <f t="shared" ref="F40:F44" si="69">_xlfn.RANK.AVG(C40,B40:D40)</f>
+      <c r="F41" s="43">
+        <f t="shared" ref="F41:F45" si="72">_xlfn.RANK.AVG(C41,B41:D41)</f>
         <v>3</v>
       </c>
-      <c r="G40" s="43">
-        <f t="shared" ref="G40:G44" si="70">_xlfn.RANK.AVG(D40,B40:D40)</f>
+      <c r="G41" s="43">
+        <f t="shared" ref="G41:G45" si="73">_xlfn.RANK.AVG(D41,B41:D41)</f>
         <v>1</v>
       </c>
-      <c r="H40">
-        <f t="shared" ref="H40:H43" si="71">COUNTIF(E40:G40,1)</f>
+      <c r="H41">
+        <f t="shared" ref="H41:H44" si="74">COUNTIF(E41:G41,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B42" s="46">
         <v>0.91679500000000003</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C42" s="46">
         <v>0.90909099999999998</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D42" s="46">
         <v>0.90909099999999998</v>
       </c>
-      <c r="E41" s="43">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="F41" s="43">
-        <f t="shared" si="69"/>
-        <v>2.5</v>
-      </c>
-      <c r="G41" s="43">
-        <f t="shared" si="70"/>
-        <v>2.5</v>
-      </c>
-      <c r="H41">
+      <c r="E42" s="43">
         <f t="shared" si="71"/>
         <v>1</v>
       </c>
+      <c r="F42" s="43">
+        <f t="shared" si="72"/>
+        <v>2.5</v>
+      </c>
+      <c r="G42" s="43">
+        <f t="shared" si="73"/>
+        <v>2.5</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="46">
+      <c r="B43" s="46">
         <v>0.773864</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C43" s="46">
         <v>0.76136400000000004</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D43" s="46">
         <v>0.773864</v>
       </c>
-      <c r="E42" s="43">
-        <f t="shared" si="68"/>
+      <c r="E43" s="43">
+        <f t="shared" si="71"/>
         <v>1.5</v>
       </c>
-      <c r="F42" s="43">
-        <f t="shared" si="69"/>
+      <c r="F43" s="43">
+        <f t="shared" si="72"/>
         <v>3</v>
       </c>
-      <c r="G42" s="43">
-        <f t="shared" si="70"/>
+      <c r="G43" s="43">
+        <f t="shared" si="73"/>
         <v>1.5</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="71"/>
+      <c r="H43">
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B44" s="46">
         <v>0.75568199999999996</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C44" s="46">
         <v>0.73977300000000001</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D44" s="46">
         <v>0.73977300000000001</v>
       </c>
-      <c r="E43" s="43">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="F43" s="43">
-        <f t="shared" si="69"/>
-        <v>2.5</v>
-      </c>
-      <c r="G43" s="43">
-        <f t="shared" si="70"/>
-        <v>2.5</v>
-      </c>
-      <c r="H43">
+      <c r="E44" s="43">
         <f t="shared" si="71"/>
         <v>1</v>
       </c>
+      <c r="F44" s="43">
+        <f t="shared" si="72"/>
+        <v>2.5</v>
+      </c>
+      <c r="G44" s="43">
+        <f t="shared" si="73"/>
+        <v>2.5</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="71">
-        <f>AVERAGE(B39:B43)</f>
+      <c r="B45" s="61">
+        <f>AVERAGE(B40:B44)</f>
         <v>0.81152239999999998</v>
       </c>
-      <c r="C44" s="71">
-        <f>AVERAGE(C39:C43)</f>
+      <c r="C45" s="61">
+        <f>AVERAGE(C40:C44)</f>
         <v>0.8023070000000001</v>
       </c>
-      <c r="D44" s="71">
-        <f>AVERAGE(D39:D43)</f>
+      <c r="D45" s="61">
+        <f>AVERAGE(D40:D44)</f>
         <v>0.81469400000000003</v>
       </c>
-      <c r="E44" s="43">
-        <f t="shared" si="68"/>
+      <c r="E45" s="43">
+        <f t="shared" si="71"/>
         <v>2</v>
       </c>
-      <c r="F44" s="43">
-        <f t="shared" si="69"/>
+      <c r="F45" s="43">
+        <f t="shared" si="72"/>
         <v>3</v>
       </c>
-      <c r="G44" s="43">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="42">
-        <f>COUNTIF(E39:E43,1)</f>
-        <v>2</v>
-      </c>
-      <c r="C45" s="42">
-        <f t="shared" ref="C45:D45" si="72">COUNTIF(F39:F43,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="42">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="42">
-        <f>E44</f>
-        <v>2</v>
-      </c>
-      <c r="C46" s="42">
-        <f t="shared" ref="C46:D46" si="73">F44</f>
-        <v>3</v>
-      </c>
-      <c r="D46" s="42">
+      <c r="G45" s="43">
         <f t="shared" si="73"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="61" t="s">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="78">
+        <f>COUNTIF(E40:E44,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C46" s="78">
+        <f t="shared" ref="C46:D46" si="75">COUNTIF(F40:F44,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="78">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="42">
+        <f>E45</f>
+        <v>2</v>
+      </c>
+      <c r="C47" s="42">
+        <f t="shared" ref="C47:D47" si="76">F45</f>
+        <v>3</v>
+      </c>
+      <c r="D47" s="42">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
-      <c r="S49" s="61"/>
-      <c r="T49" s="61"/>
-      <c r="U49" s="61"/>
-      <c r="V49" s="61"/>
-      <c r="W49" s="61"/>
-      <c r="X49" s="61"/>
-      <c r="Y49" s="61"/>
-      <c r="Z49" s="61"/>
-      <c r="AA49" s="61"/>
-      <c r="AB49" s="61"/>
-      <c r="AC49" s="61"/>
-      <c r="AD49" s="61"/>
-      <c r="AE49" s="61"/>
-      <c r="AF49" s="61"/>
-      <c r="AG49" s="61"/>
-      <c r="AH49" s="61"/>
-      <c r="AI49" s="61"/>
-      <c r="AJ49" s="61"/>
-      <c r="AK49" s="61"/>
-      <c r="AL49" s="61"/>
-      <c r="AM49" s="61"/>
-      <c r="AN49" s="61"/>
-      <c r="AO49" s="61"/>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A50" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="50">
-        <v>1</v>
-      </c>
-      <c r="C50" s="50">
-        <v>2</v>
-      </c>
-      <c r="D50" s="50">
-        <v>3</v>
-      </c>
-      <c r="E50" s="50">
-        <v>4</v>
-      </c>
-      <c r="F50" s="50">
-        <v>5</v>
-      </c>
-      <c r="G50" s="50">
-        <v>6</v>
-      </c>
-      <c r="H50" s="50">
-        <v>7</v>
-      </c>
-      <c r="I50" s="50">
-        <v>8</v>
-      </c>
-      <c r="J50" s="50">
-        <v>9</v>
-      </c>
-      <c r="K50" s="50">
-        <v>10</v>
-      </c>
-      <c r="L50" s="50">
-        <v>11</v>
-      </c>
-      <c r="M50" s="50">
-        <v>12</v>
-      </c>
-      <c r="N50" s="50">
-        <v>13</v>
-      </c>
-      <c r="O50" s="50">
-        <v>14</v>
-      </c>
-      <c r="P50" s="50">
-        <v>15</v>
-      </c>
-      <c r="Q50" s="50">
-        <v>16</v>
-      </c>
-      <c r="R50" s="50">
-        <v>17</v>
-      </c>
-      <c r="S50" s="50">
-        <v>18</v>
-      </c>
-      <c r="T50" s="50">
-        <v>19</v>
-      </c>
-      <c r="U50" s="50">
-        <v>20</v>
-      </c>
-      <c r="V50" s="50">
-        <v>1</v>
-      </c>
-      <c r="W50" s="50">
-        <v>2</v>
-      </c>
-      <c r="X50" s="50">
-        <v>3</v>
-      </c>
-      <c r="Y50" s="50">
-        <v>4</v>
-      </c>
-      <c r="Z50" s="50">
-        <v>5</v>
-      </c>
-      <c r="AA50" s="50">
-        <v>6</v>
-      </c>
-      <c r="AB50" s="50">
-        <v>7</v>
-      </c>
-      <c r="AC50" s="50">
-        <v>8</v>
-      </c>
-      <c r="AD50" s="50">
-        <v>9</v>
-      </c>
-      <c r="AE50" s="50">
-        <v>10</v>
-      </c>
-      <c r="AF50" s="50">
-        <v>11</v>
-      </c>
-      <c r="AG50" s="50">
-        <v>12</v>
-      </c>
-      <c r="AH50" s="50">
-        <v>13</v>
-      </c>
-      <c r="AI50" s="50">
-        <v>14</v>
-      </c>
-      <c r="AJ50" s="50">
-        <v>15</v>
-      </c>
-      <c r="AK50" s="50">
-        <v>16</v>
-      </c>
-      <c r="AL50" s="50">
-        <v>17</v>
-      </c>
-      <c r="AM50" s="50">
-        <v>18</v>
-      </c>
-      <c r="AN50" s="50">
-        <v>19</v>
-      </c>
-      <c r="AO50" s="50">
-        <v>20</v>
-      </c>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="74"/>
+      <c r="T50" s="74"/>
+      <c r="U50" s="74"/>
+      <c r="V50" s="74"/>
+      <c r="W50" s="74"/>
+      <c r="X50" s="74"/>
+      <c r="Y50" s="74"/>
+      <c r="Z50" s="74"/>
+      <c r="AA50" s="74"/>
+      <c r="AB50" s="74"/>
+      <c r="AC50" s="74"/>
+      <c r="AD50" s="74"/>
+      <c r="AE50" s="74"/>
+      <c r="AF50" s="74"/>
+      <c r="AG50" s="74"/>
+      <c r="AH50" s="74"/>
+      <c r="AI50" s="74"/>
+      <c r="AJ50" s="74"/>
+      <c r="AK50" s="74"/>
+      <c r="AL50" s="74"/>
+      <c r="AM50" s="74"/>
+      <c r="AN50" s="74"/>
+      <c r="AO50" s="74"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="50">
         <v>1</v>
       </c>
-      <c r="B51" s="46">
-        <v>0.72802199999999995</v>
-      </c>
-      <c r="C51" s="46">
-        <v>0.74587899999999996</v>
-      </c>
-      <c r="D51" s="46">
-        <v>0.75274700000000005</v>
-      </c>
-      <c r="E51" s="46">
-        <v>0.75686799999999999</v>
-      </c>
-      <c r="F51" s="46">
-        <v>0.76235299999999995</v>
-      </c>
-      <c r="G51" s="46">
-        <v>0.76098900000000003</v>
-      </c>
-      <c r="H51" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="I51" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="J51" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="K51" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="L51" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="M51" s="46">
-        <v>0.76236300000000001</v>
-      </c>
-      <c r="N51" s="46">
-        <v>0.76236300000000001</v>
-      </c>
-      <c r="O51" s="46">
-        <v>0.76236300000000001</v>
-      </c>
-      <c r="P51" s="46">
-        <v>0.76236300000000001</v>
-      </c>
-      <c r="Q51" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="R51" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="S51" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="T51" s="46">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="U51" s="75">
-        <v>0.76373599999999997</v>
-      </c>
-      <c r="V51" s="43">
-        <f>_xlfn.RANK.AVG(B51,B51:U51)</f>
+      <c r="C51" s="50">
+        <v>2</v>
+      </c>
+      <c r="D51" s="50">
+        <v>3</v>
+      </c>
+      <c r="E51" s="50">
+        <v>4</v>
+      </c>
+      <c r="F51" s="50">
+        <v>5</v>
+      </c>
+      <c r="G51" s="50">
+        <v>6</v>
+      </c>
+      <c r="H51" s="50">
+        <v>7</v>
+      </c>
+      <c r="I51" s="50">
+        <v>8</v>
+      </c>
+      <c r="J51" s="50">
+        <v>9</v>
+      </c>
+      <c r="K51" s="50">
+        <v>10</v>
+      </c>
+      <c r="L51" s="50">
+        <v>11</v>
+      </c>
+      <c r="M51" s="50">
+        <v>12</v>
+      </c>
+      <c r="N51" s="50">
+        <v>13</v>
+      </c>
+      <c r="O51" s="50">
+        <v>14</v>
+      </c>
+      <c r="P51" s="50">
+        <v>15</v>
+      </c>
+      <c r="Q51" s="50">
+        <v>16</v>
+      </c>
+      <c r="R51" s="50">
+        <v>17</v>
+      </c>
+      <c r="S51" s="50">
+        <v>18</v>
+      </c>
+      <c r="T51" s="50">
+        <v>19</v>
+      </c>
+      <c r="U51" s="50">
         <v>20</v>
       </c>
-      <c r="W51" s="43">
-        <f>_xlfn.RANK.AVG(C51,B51:U51)</f>
+      <c r="V51" s="50">
+        <v>1</v>
+      </c>
+      <c r="W51" s="50">
+        <v>2</v>
+      </c>
+      <c r="X51" s="50">
+        <v>3</v>
+      </c>
+      <c r="Y51" s="50">
+        <v>4</v>
+      </c>
+      <c r="Z51" s="50">
+        <v>5</v>
+      </c>
+      <c r="AA51" s="50">
+        <v>6</v>
+      </c>
+      <c r="AB51" s="50">
+        <v>7</v>
+      </c>
+      <c r="AC51" s="50">
+        <v>8</v>
+      </c>
+      <c r="AD51" s="50">
+        <v>9</v>
+      </c>
+      <c r="AE51" s="50">
+        <v>10</v>
+      </c>
+      <c r="AF51" s="50">
+        <v>11</v>
+      </c>
+      <c r="AG51" s="50">
+        <v>12</v>
+      </c>
+      <c r="AH51" s="50">
+        <v>13</v>
+      </c>
+      <c r="AI51" s="50">
+        <v>14</v>
+      </c>
+      <c r="AJ51" s="50">
+        <v>15</v>
+      </c>
+      <c r="AK51" s="50">
+        <v>16</v>
+      </c>
+      <c r="AL51" s="50">
+        <v>17</v>
+      </c>
+      <c r="AM51" s="50">
+        <v>18</v>
+      </c>
+      <c r="AN51" s="50">
         <v>19</v>
       </c>
-      <c r="X51" s="43">
-        <f>_xlfn.RANK.AVG(D51,B51:U51)</f>
-        <v>18</v>
-      </c>
-      <c r="Y51" s="43">
-        <f>_xlfn.RANK.AVG(E51,B51:U51)</f>
-        <v>17</v>
-      </c>
-      <c r="Z51" s="43">
-        <f>_xlfn.RANK.AVG(F51,B51:U51)</f>
-        <v>15</v>
-      </c>
-      <c r="AA51" s="43">
-        <f>_xlfn.RANK.AVG(G51,B51:U51)</f>
-        <v>16</v>
-      </c>
-      <c r="AB51" s="43">
-        <f>_xlfn.RANK.AVG(H51,B51:U51)</f>
-        <v>5.5</v>
-      </c>
-      <c r="AC51" s="43">
-        <f>_xlfn.RANK.AVG(I51,B51:U51)</f>
-        <v>5.5</v>
-      </c>
-      <c r="AD51" s="43">
-        <f>_xlfn.RANK.AVG(J51,B51:U51)</f>
-        <v>5.5</v>
-      </c>
-      <c r="AE51" s="43">
-        <f>_xlfn.RANK.AVG(K51,B51:U51)</f>
-        <v>5.5</v>
-      </c>
-      <c r="AF51" s="43">
-        <f>_xlfn.RANK.AVG(L51,B51:U51)</f>
-        <v>5.5</v>
-      </c>
-      <c r="AG51" s="43">
-        <f>_xlfn.RANK.AVG(M51,B51:U51)</f>
-        <v>12.5</v>
-      </c>
-      <c r="AH51" s="43">
-        <f>_xlfn.RANK.AVG(N51,B51:U51)</f>
-        <v>12.5</v>
-      </c>
-      <c r="AI51" s="43">
-        <f>_xlfn.RANK.AVG(O51,B51:U51)</f>
-        <v>12.5</v>
-      </c>
-      <c r="AJ51" s="43">
-        <f>_xlfn.RANK.AVG(P51,B51:U51)</f>
-        <v>12.5</v>
-      </c>
-      <c r="AK51" s="43">
-        <f>_xlfn.RANK.AVG(Q51,B51:U51)</f>
-        <v>5.5</v>
-      </c>
-      <c r="AL51" s="43">
-        <f>_xlfn.RANK.AVG(R51,B51:U51)</f>
-        <v>5.5</v>
-      </c>
-      <c r="AM51" s="43">
-        <f>_xlfn.RANK.AVG(S51,B51:U51)</f>
-        <v>5.5</v>
-      </c>
-      <c r="AN51" s="43">
-        <f>_xlfn.RANK.AVG(T51,B51:U51)</f>
-        <v>5.5</v>
-      </c>
-      <c r="AO51" s="43">
-        <f>_xlfn.RANK.AVG(U51,B51:U51)</f>
-        <v>5.5</v>
-      </c>
-      <c r="AP51">
-        <f>COUNTIF(V51:AO51,1)</f>
-        <v>0</v>
+      <c r="AO51" s="50">
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A52" s="68" t="s">
-        <v>2</v>
+      <c r="A52" s="57" t="s">
+        <v>1</v>
       </c>
       <c r="B52" s="46">
-        <v>0.54661000000000004</v>
+        <v>0.72802199999999995</v>
       </c>
       <c r="C52" s="46">
-        <v>0.55508500000000005</v>
+        <v>0.74587899999999996</v>
       </c>
       <c r="D52" s="46">
-        <v>0.52824899999999997</v>
+        <v>0.75274700000000005</v>
       </c>
       <c r="E52" s="46">
-        <v>0.55084699999999998</v>
+        <v>0.75686799999999999</v>
       </c>
       <c r="F52" s="46">
-        <v>0.59463299999999997</v>
+        <v>0.76235299999999995</v>
       </c>
       <c r="G52" s="46">
-        <v>0.58474599999999999</v>
+        <v>0.76098900000000003</v>
       </c>
       <c r="H52" s="46">
-        <v>0.57062100000000004</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="I52" s="46">
-        <v>0.58615799999999996</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="J52" s="46">
-        <v>0.54802300000000004</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="K52" s="46">
-        <v>0.53389799999999998</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="L52" s="46">
-        <v>0.53107300000000002</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="M52" s="46">
-        <v>0.51694899999999999</v>
+        <v>0.76236300000000001</v>
       </c>
       <c r="N52" s="46">
-        <v>0.52966100000000005</v>
+        <v>0.76236300000000001</v>
       </c>
       <c r="O52" s="46">
-        <v>0.50988699999999998</v>
+        <v>0.76236300000000001</v>
       </c>
       <c r="P52" s="46">
-        <v>0.53672299999999995</v>
+        <v>0.76236300000000001</v>
       </c>
       <c r="Q52" s="46">
-        <v>0.55932199999999999</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="R52" s="46">
-        <v>0.56497200000000003</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="S52" s="46">
-        <v>0.56920899999999996</v>
+        <v>0.76373599999999997</v>
       </c>
       <c r="T52" s="46">
-        <v>0.61299400000000004</v>
-      </c>
-      <c r="U52" s="75">
-        <v>0.62005600000000005</v>
+        <v>0.76373599999999997</v>
+      </c>
+      <c r="U52" s="65">
+        <v>0.76373599999999997</v>
       </c>
       <c r="V52" s="43">
-        <f t="shared" ref="V52:V55" si="74">_xlfn.RANK.AVG(B52,B52:U52)</f>
-        <v>13</v>
+        <f>_xlfn.RANK.AVG(B52,B52:U52)</f>
+        <v>20</v>
       </c>
       <c r="W52" s="43">
-        <f t="shared" ref="W52:W55" si="75">_xlfn.RANK.AVG(C52,B52:U52)</f>
-        <v>10</v>
+        <f>_xlfn.RANK.AVG(C52,B52:U52)</f>
+        <v>19</v>
       </c>
       <c r="X52" s="43">
-        <f t="shared" ref="X52:X55" si="76">_xlfn.RANK.AVG(D52,B52:U52)</f>
+        <f>_xlfn.RANK.AVG(D52,B52:U52)</f>
         <v>18</v>
       </c>
       <c r="Y52" s="43">
-        <f t="shared" ref="Y52:Y55" si="77">_xlfn.RANK.AVG(E52,B52:U52)</f>
-        <v>11</v>
+        <f>_xlfn.RANK.AVG(E52,B52:U52)</f>
+        <v>17</v>
       </c>
       <c r="Z52" s="43">
-        <f t="shared" ref="Z52:Z55" si="78">_xlfn.RANK.AVG(F52,B52:U52)</f>
-        <v>3</v>
+        <f>_xlfn.RANK.AVG(F52,B52:U52)</f>
+        <v>15</v>
       </c>
       <c r="AA52" s="43">
-        <f t="shared" ref="AA52:AA55" si="79">_xlfn.RANK.AVG(G52,B52:U52)</f>
-        <v>5</v>
+        <f>_xlfn.RANK.AVG(G52,B52:U52)</f>
+        <v>16</v>
       </c>
       <c r="AB52" s="43">
-        <f t="shared" ref="AB52:AB55" si="80">_xlfn.RANK.AVG(H52,B52:U52)</f>
-        <v>6</v>
+        <f>_xlfn.RANK.AVG(H52,B52:U52)</f>
+        <v>5.5</v>
       </c>
       <c r="AC52" s="43">
-        <f t="shared" ref="AC52:AC55" si="81">_xlfn.RANK.AVG(I52,B52:U52)</f>
-        <v>4</v>
+        <f>_xlfn.RANK.AVG(I52,B52:U52)</f>
+        <v>5.5</v>
       </c>
       <c r="AD52" s="43">
-        <f t="shared" ref="AD52:AD55" si="82">_xlfn.RANK.AVG(J52,B52:U52)</f>
-        <v>12</v>
+        <f>_xlfn.RANK.AVG(J52,B52:U52)</f>
+        <v>5.5</v>
       </c>
       <c r="AE52" s="43">
-        <f t="shared" ref="AE52:AE55" si="83">_xlfn.RANK.AVG(K52,B52:U52)</f>
-        <v>15</v>
+        <f>_xlfn.RANK.AVG(K52,B52:U52)</f>
+        <v>5.5</v>
       </c>
       <c r="AF52" s="43">
-        <f t="shared" ref="AF52:AF55" si="84">_xlfn.RANK.AVG(L52,B52:U52)</f>
-        <v>16</v>
+        <f>_xlfn.RANK.AVG(L52,B52:U52)</f>
+        <v>5.5</v>
       </c>
       <c r="AG52" s="43">
-        <f t="shared" ref="AG52:AG55" si="85">_xlfn.RANK.AVG(M52,B52:U52)</f>
-        <v>19</v>
+        <f>_xlfn.RANK.AVG(M52,B52:U52)</f>
+        <v>12.5</v>
       </c>
       <c r="AH52" s="43">
-        <f t="shared" ref="AH52:AH55" si="86">_xlfn.RANK.AVG(N52,B52:U52)</f>
-        <v>17</v>
+        <f>_xlfn.RANK.AVG(N52,B52:U52)</f>
+        <v>12.5</v>
       </c>
       <c r="AI52" s="43">
-        <f t="shared" ref="AI52:AI55" si="87">_xlfn.RANK.AVG(O52,B52:U52)</f>
-        <v>20</v>
+        <f>_xlfn.RANK.AVG(O52,B52:U52)</f>
+        <v>12.5</v>
       </c>
       <c r="AJ52" s="43">
-        <f t="shared" ref="AJ52:AJ55" si="88">_xlfn.RANK.AVG(P52,B52:U52)</f>
-        <v>14</v>
+        <f>_xlfn.RANK.AVG(P52,B52:U52)</f>
+        <v>12.5</v>
       </c>
       <c r="AK52" s="43">
-        <f t="shared" ref="AK52:AK55" si="89">_xlfn.RANK.AVG(Q52,B52:U52)</f>
-        <v>9</v>
+        <f>_xlfn.RANK.AVG(Q52,B52:U52)</f>
+        <v>5.5</v>
       </c>
       <c r="AL52" s="43">
-        <f t="shared" ref="AL52:AL55" si="90">_xlfn.RANK.AVG(R52,B52:U52)</f>
-        <v>8</v>
+        <f>_xlfn.RANK.AVG(R52,B52:U52)</f>
+        <v>5.5</v>
       </c>
       <c r="AM52" s="43">
-        <f t="shared" ref="AM52:AM55" si="91">_xlfn.RANK.AVG(S52,B52:U52)</f>
-        <v>7</v>
+        <f>_xlfn.RANK.AVG(S52,B52:U52)</f>
+        <v>5.5</v>
       </c>
       <c r="AN52" s="43">
-        <f t="shared" ref="AN52:AN55" si="92">_xlfn.RANK.AVG(T52,B52:U52)</f>
-        <v>2</v>
+        <f>_xlfn.RANK.AVG(T52,B52:U52)</f>
+        <v>5.5</v>
       </c>
       <c r="AO52" s="43">
-        <f t="shared" ref="AO52:AO55" si="93">_xlfn.RANK.AVG(U52,B52:U52)</f>
-        <v>1</v>
+        <f>_xlfn.RANK.AVG(U52,B52:U52)</f>
+        <v>5.5</v>
       </c>
       <c r="AP52">
-        <f t="shared" ref="AP52:AP55" si="94">COUNTIF(V52:AO52,1)</f>
-        <v>1</v>
+        <f>COUNTIF(V52:AO52,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A53" s="68" t="s">
+      <c r="A53" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="46">
+        <v>0.54661000000000004</v>
+      </c>
+      <c r="C53" s="46">
+        <v>0.55508500000000005</v>
+      </c>
+      <c r="D53" s="46">
+        <v>0.52824899999999997</v>
+      </c>
+      <c r="E53" s="46">
+        <v>0.55084699999999998</v>
+      </c>
+      <c r="F53" s="46">
+        <v>0.59463299999999997</v>
+      </c>
+      <c r="G53" s="46">
+        <v>0.58474599999999999</v>
+      </c>
+      <c r="H53" s="46">
+        <v>0.57062100000000004</v>
+      </c>
+      <c r="I53" s="46">
+        <v>0.58615799999999996</v>
+      </c>
+      <c r="J53" s="46">
+        <v>0.54802300000000004</v>
+      </c>
+      <c r="K53" s="46">
+        <v>0.53389799999999998</v>
+      </c>
+      <c r="L53" s="46">
+        <v>0.53107300000000002</v>
+      </c>
+      <c r="M53" s="46">
+        <v>0.51694899999999999</v>
+      </c>
+      <c r="N53" s="46">
+        <v>0.52966100000000005</v>
+      </c>
+      <c r="O53" s="46">
+        <v>0.50988699999999998</v>
+      </c>
+      <c r="P53" s="46">
+        <v>0.53672299999999995</v>
+      </c>
+      <c r="Q53" s="46">
+        <v>0.55932199999999999</v>
+      </c>
+      <c r="R53" s="46">
+        <v>0.56497200000000003</v>
+      </c>
+      <c r="S53" s="46">
+        <v>0.56920899999999996</v>
+      </c>
+      <c r="T53" s="46">
+        <v>0.61299400000000004</v>
+      </c>
+      <c r="U53" s="65">
+        <v>0.62005600000000005</v>
+      </c>
+      <c r="V53" s="43">
+        <f t="shared" ref="V53:V56" si="77">_xlfn.RANK.AVG(B53,B53:U53)</f>
+        <v>13</v>
+      </c>
+      <c r="W53" s="43">
+        <f t="shared" ref="W53:W56" si="78">_xlfn.RANK.AVG(C53,B53:U53)</f>
+        <v>10</v>
+      </c>
+      <c r="X53" s="43">
+        <f t="shared" ref="X53:X56" si="79">_xlfn.RANK.AVG(D53,B53:U53)</f>
+        <v>18</v>
+      </c>
+      <c r="Y53" s="43">
+        <f t="shared" ref="Y53:Y56" si="80">_xlfn.RANK.AVG(E53,B53:U53)</f>
+        <v>11</v>
+      </c>
+      <c r="Z53" s="43">
+        <f t="shared" ref="Z53:Z56" si="81">_xlfn.RANK.AVG(F53,B53:U53)</f>
         <v>3</v>
       </c>
-      <c r="B53" s="46">
+      <c r="AA53" s="43">
+        <f t="shared" ref="AA53:AA56" si="82">_xlfn.RANK.AVG(G53,B53:U53)</f>
+        <v>5</v>
+      </c>
+      <c r="AB53" s="43">
+        <f t="shared" ref="AB53:AB56" si="83">_xlfn.RANK.AVG(H53,B53:U53)</f>
+        <v>6</v>
+      </c>
+      <c r="AC53" s="43">
+        <f t="shared" ref="AC53:AC56" si="84">_xlfn.RANK.AVG(I53,B53:U53)</f>
+        <v>4</v>
+      </c>
+      <c r="AD53" s="43">
+        <f t="shared" ref="AD53:AD56" si="85">_xlfn.RANK.AVG(J53,B53:U53)</f>
+        <v>12</v>
+      </c>
+      <c r="AE53" s="43">
+        <f t="shared" ref="AE53:AE56" si="86">_xlfn.RANK.AVG(K53,B53:U53)</f>
+        <v>15</v>
+      </c>
+      <c r="AF53" s="43">
+        <f t="shared" ref="AF53:AF56" si="87">_xlfn.RANK.AVG(L53,B53:U53)</f>
+        <v>16</v>
+      </c>
+      <c r="AG53" s="43">
+        <f t="shared" ref="AG53:AG56" si="88">_xlfn.RANK.AVG(M53,B53:U53)</f>
+        <v>19</v>
+      </c>
+      <c r="AH53" s="43">
+        <f t="shared" ref="AH53:AH56" si="89">_xlfn.RANK.AVG(N53,B53:U53)</f>
+        <v>17</v>
+      </c>
+      <c r="AI53" s="43">
+        <f t="shared" ref="AI53:AI56" si="90">_xlfn.RANK.AVG(O53,B53:U53)</f>
+        <v>20</v>
+      </c>
+      <c r="AJ53" s="43">
+        <f t="shared" ref="AJ53:AJ56" si="91">_xlfn.RANK.AVG(P53,B53:U53)</f>
+        <v>14</v>
+      </c>
+      <c r="AK53" s="43">
+        <f t="shared" ref="AK53:AK56" si="92">_xlfn.RANK.AVG(Q53,B53:U53)</f>
+        <v>9</v>
+      </c>
+      <c r="AL53" s="43">
+        <f t="shared" ref="AL53:AL56" si="93">_xlfn.RANK.AVG(R53,B53:U53)</f>
+        <v>8</v>
+      </c>
+      <c r="AM53" s="43">
+        <f t="shared" ref="AM53:AM56" si="94">_xlfn.RANK.AVG(S53,B53:U53)</f>
+        <v>7</v>
+      </c>
+      <c r="AN53" s="43">
+        <f t="shared" ref="AN53:AN56" si="95">_xlfn.RANK.AVG(T53,B53:U53)</f>
+        <v>2</v>
+      </c>
+      <c r="AO53" s="43">
+        <f t="shared" ref="AO53:AO56" si="96">_xlfn.RANK.AVG(U53,B53:U53)</f>
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <f t="shared" ref="AP53:AP56" si="97">COUNTIF(V53:AO53,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A54" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="46">
         <v>0.88905999999999996</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C54" s="46">
         <v>0.913713</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D54" s="46">
         <v>0.90754999999999997</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E54" s="46">
         <v>0.90909099999999998</v>
       </c>
-      <c r="F53" s="46">
+      <c r="F54" s="46">
         <v>0.91217300000000001</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G54" s="46">
         <v>0.91217300000000001</v>
       </c>
-      <c r="H53" s="46">
+      <c r="H54" s="46">
         <v>0.913713</v>
       </c>
-      <c r="I53" s="46">
+      <c r="I54" s="46">
         <v>0.910632</v>
       </c>
-      <c r="J53" s="46">
+      <c r="J54" s="46">
         <v>0.90600899999999995</v>
       </c>
-      <c r="K53" s="46">
+      <c r="K54" s="46">
         <v>0.90138700000000005</v>
       </c>
-      <c r="L53" s="46">
+      <c r="L54" s="46">
         <v>0.90754999999999997</v>
       </c>
-      <c r="M53" s="46">
+      <c r="M54" s="46">
         <v>0.90446800000000005</v>
       </c>
-      <c r="N53" s="46">
+      <c r="N54" s="46">
         <v>0.90909099999999998</v>
       </c>
-      <c r="O53" s="46">
+      <c r="O54" s="46">
         <v>0.91525400000000001</v>
       </c>
-      <c r="P53" s="46">
+      <c r="P54" s="46">
         <v>0.91217300000000001</v>
       </c>
-      <c r="Q53" s="46">
+      <c r="Q54" s="46">
         <v>0.90754999999999997</v>
       </c>
-      <c r="R53" s="46">
+      <c r="R54" s="46">
         <v>0.90909099999999998</v>
       </c>
-      <c r="S53" s="46">
+      <c r="S54" s="46">
         <v>0.90909099999999998</v>
       </c>
-      <c r="T53" s="46">
+      <c r="T54" s="46">
         <v>0.90292799999999995</v>
       </c>
-      <c r="U53" s="75">
+      <c r="U54" s="65">
         <v>0.90138700000000005</v>
       </c>
-      <c r="V53" s="43">
-        <f t="shared" si="74"/>
+      <c r="V54" s="43">
+        <f t="shared" si="77"/>
         <v>20</v>
       </c>
-      <c r="W53" s="43">
-        <f t="shared" si="75"/>
+      <c r="W54" s="43">
+        <f t="shared" si="78"/>
         <v>2.5</v>
       </c>
-      <c r="X53" s="43">
-        <f t="shared" si="76"/>
+      <c r="X54" s="43">
+        <f t="shared" si="79"/>
         <v>13</v>
       </c>
-      <c r="Y53" s="43">
+      <c r="Y54" s="43">
+        <f t="shared" si="80"/>
+        <v>9.5</v>
+      </c>
+      <c r="Z54" s="43">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="AA54" s="43">
+        <f t="shared" si="82"/>
+        <v>5</v>
+      </c>
+      <c r="AB54" s="43">
+        <f t="shared" si="83"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC54" s="43">
+        <f t="shared" si="84"/>
+        <v>7</v>
+      </c>
+      <c r="AD54" s="43">
+        <f t="shared" si="85"/>
+        <v>15</v>
+      </c>
+      <c r="AE54" s="43">
+        <f t="shared" si="86"/>
+        <v>18.5</v>
+      </c>
+      <c r="AF54" s="43">
+        <f t="shared" si="87"/>
+        <v>13</v>
+      </c>
+      <c r="AG54" s="43">
+        <f t="shared" si="88"/>
+        <v>16</v>
+      </c>
+      <c r="AH54" s="43">
+        <f t="shared" si="89"/>
+        <v>9.5</v>
+      </c>
+      <c r="AI54" s="43">
+        <f t="shared" si="90"/>
+        <v>1</v>
+      </c>
+      <c r="AJ54" s="43">
+        <f t="shared" si="91"/>
+        <v>5</v>
+      </c>
+      <c r="AK54" s="43">
+        <f t="shared" si="92"/>
+        <v>13</v>
+      </c>
+      <c r="AL54" s="43">
+        <f t="shared" si="93"/>
+        <v>9.5</v>
+      </c>
+      <c r="AM54" s="43">
+        <f t="shared" si="94"/>
+        <v>9.5</v>
+      </c>
+      <c r="AN54" s="43">
+        <f t="shared" si="95"/>
+        <v>17</v>
+      </c>
+      <c r="AO54" s="43">
+        <f t="shared" si="96"/>
+        <v>18.5</v>
+      </c>
+      <c r="AP54">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A55" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="C55" s="46">
+        <v>0.77954500000000004</v>
+      </c>
+      <c r="D55" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="E55" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="F55" s="46">
+        <v>0.78636399999999995</v>
+      </c>
+      <c r="G55" s="46">
+        <v>0.78068199999999999</v>
+      </c>
+      <c r="H55" s="46">
+        <v>0.78295499999999996</v>
+      </c>
+      <c r="I55" s="46">
+        <v>0.77272700000000005</v>
+      </c>
+      <c r="J55" s="46">
+        <v>0.77613600000000005</v>
+      </c>
+      <c r="K55" s="46">
+        <v>0.770455</v>
+      </c>
+      <c r="L55" s="46">
+        <v>0.77727299999999999</v>
+      </c>
+      <c r="M55" s="46">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="N55" s="46">
+        <v>0.77272700000000005</v>
+      </c>
+      <c r="O55" s="46">
+        <v>0.77613600000000005</v>
+      </c>
+      <c r="P55" s="46">
+        <v>0.77272700000000005</v>
+      </c>
+      <c r="Q55" s="46">
+        <v>0.76931799999999995</v>
+      </c>
+      <c r="R55" s="46">
+        <v>0.76931799999999995</v>
+      </c>
+      <c r="S55" s="46">
+        <v>0.76590899999999995</v>
+      </c>
+      <c r="T55" s="46">
+        <v>0.773864</v>
+      </c>
+      <c r="U55" s="65">
+        <v>0.78181800000000001</v>
+      </c>
+      <c r="V55" s="43">
         <f t="shared" si="77"/>
-        <v>9.5</v>
-      </c>
-      <c r="Z53" s="43">
+        <v>16.5</v>
+      </c>
+      <c r="W55" s="43">
         <f t="shared" si="78"/>
         <v>5</v>
       </c>
-      <c r="AA53" s="43">
+      <c r="X55" s="43">
         <f t="shared" si="79"/>
+        <v>11</v>
+      </c>
+      <c r="Y55" s="43">
+        <f t="shared" si="80"/>
+        <v>11</v>
+      </c>
+      <c r="Z55" s="43">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="AA55" s="43">
+        <f t="shared" si="82"/>
+        <v>4</v>
+      </c>
+      <c r="AB55" s="43">
+        <f t="shared" si="83"/>
+        <v>2</v>
+      </c>
+      <c r="AC55" s="43">
+        <f t="shared" si="84"/>
+        <v>14</v>
+      </c>
+      <c r="AD55" s="43">
+        <f t="shared" si="85"/>
+        <v>7.5</v>
+      </c>
+      <c r="AE55" s="43">
+        <f t="shared" si="86"/>
+        <v>16.5</v>
+      </c>
+      <c r="AF55" s="43">
+        <f t="shared" si="87"/>
+        <v>6</v>
+      </c>
+      <c r="AG55" s="43">
+        <f t="shared" si="88"/>
+        <v>9</v>
+      </c>
+      <c r="AH55" s="43">
+        <f t="shared" si="89"/>
+        <v>14</v>
+      </c>
+      <c r="AI55" s="43">
+        <f t="shared" si="90"/>
+        <v>7.5</v>
+      </c>
+      <c r="AJ55" s="43">
+        <f t="shared" si="91"/>
+        <v>14</v>
+      </c>
+      <c r="AK55" s="43">
+        <f t="shared" si="92"/>
+        <v>18.5</v>
+      </c>
+      <c r="AL55" s="43">
+        <f t="shared" si="93"/>
+        <v>18.5</v>
+      </c>
+      <c r="AM55" s="43">
+        <f t="shared" si="94"/>
+        <v>20</v>
+      </c>
+      <c r="AN55" s="43">
+        <f t="shared" si="95"/>
+        <v>11</v>
+      </c>
+      <c r="AO55" s="43">
+        <f t="shared" si="96"/>
+        <v>3</v>
+      </c>
+      <c r="AP55">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A56" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AB53" s="43">
+      <c r="B56" s="46">
+        <v>0.65113600000000005</v>
+      </c>
+      <c r="C56" s="46">
+        <v>0.74886399999999997</v>
+      </c>
+      <c r="D56" s="46">
+        <v>0.75113600000000003</v>
+      </c>
+      <c r="E56" s="46">
+        <v>0.73863599999999996</v>
+      </c>
+      <c r="F56" s="46">
+        <v>0.746591</v>
+      </c>
+      <c r="G56" s="46">
+        <v>0.73636400000000002</v>
+      </c>
+      <c r="H56" s="46">
+        <v>0.73636400000000002</v>
+      </c>
+      <c r="I56" s="46">
+        <v>0.74431800000000004</v>
+      </c>
+      <c r="J56" s="46">
+        <v>0.74318200000000001</v>
+      </c>
+      <c r="K56" s="46">
+        <v>0.74090900000000004</v>
+      </c>
+      <c r="L56" s="46">
+        <v>0.73977300000000001</v>
+      </c>
+      <c r="M56" s="46">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="N56" s="46">
+        <v>0.73863599999999996</v>
+      </c>
+      <c r="O56" s="46">
+        <v>0.73977300000000001</v>
+      </c>
+      <c r="P56" s="46">
+        <v>0.74090900000000004</v>
+      </c>
+      <c r="Q56" s="46">
+        <v>0.74545499999999998</v>
+      </c>
+      <c r="R56" s="46">
+        <v>0.74318200000000001</v>
+      </c>
+      <c r="S56" s="46">
+        <v>0.74318200000000001</v>
+      </c>
+      <c r="T56" s="46">
+        <v>0.73863599999999996</v>
+      </c>
+      <c r="U56" s="65">
+        <v>0.73636400000000002</v>
+      </c>
+      <c r="V56" s="43">
+        <f t="shared" si="77"/>
+        <v>20</v>
+      </c>
+      <c r="W56" s="43">
+        <f t="shared" si="78"/>
+        <v>2</v>
+      </c>
+      <c r="X56" s="43">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="Y56" s="43">
         <f t="shared" si="80"/>
-        <v>2.5</v>
-      </c>
-      <c r="AC53" s="43">
+        <v>14</v>
+      </c>
+      <c r="Z56" s="43">
         <f t="shared" si="81"/>
+        <v>3</v>
+      </c>
+      <c r="AA56" s="43">
+        <f t="shared" si="82"/>
+        <v>18</v>
+      </c>
+      <c r="AB56" s="43">
+        <f t="shared" si="83"/>
+        <v>18</v>
+      </c>
+      <c r="AC56" s="43">
+        <f t="shared" si="84"/>
+        <v>5</v>
+      </c>
+      <c r="AD56" s="43">
+        <f t="shared" si="85"/>
         <v>7</v>
       </c>
-      <c r="AD53" s="43">
-        <f t="shared" si="82"/>
-        <v>15</v>
-      </c>
-      <c r="AE53" s="43">
-        <f t="shared" si="83"/>
-        <v>18.5</v>
-      </c>
-      <c r="AF53" s="43">
-        <f t="shared" si="84"/>
-        <v>13</v>
-      </c>
-      <c r="AG53" s="43">
-        <f t="shared" si="85"/>
-        <v>16</v>
-      </c>
-      <c r="AH53" s="43">
+      <c r="AE56" s="43">
         <f t="shared" si="86"/>
         <v>9.5</v>
       </c>
-      <c r="AI53" s="43">
+      <c r="AF56" s="43">
         <f t="shared" si="87"/>
-        <v>1</v>
-      </c>
-      <c r="AJ53" s="43">
+        <v>11.5</v>
+      </c>
+      <c r="AG56" s="43">
         <f t="shared" si="88"/>
-        <v>5</v>
-      </c>
-      <c r="AK53" s="43">
+        <v>16</v>
+      </c>
+      <c r="AH56" s="43">
         <f t="shared" si="89"/>
-        <v>13</v>
-      </c>
-      <c r="AL53" s="43">
+        <v>14</v>
+      </c>
+      <c r="AI56" s="43">
         <f t="shared" si="90"/>
-        <v>9.5</v>
-      </c>
-      <c r="AM53" s="43">
+        <v>11.5</v>
+      </c>
+      <c r="AJ56" s="43">
         <f t="shared" si="91"/>
         <v>9.5</v>
       </c>
-      <c r="AN53" s="43">
+      <c r="AK56" s="43">
         <f t="shared" si="92"/>
-        <v>17</v>
-      </c>
-      <c r="AO53" s="43">
+        <v>4</v>
+      </c>
+      <c r="AL56" s="43">
         <f t="shared" si="93"/>
-        <v>18.5</v>
-      </c>
-      <c r="AP53">
+        <v>7</v>
+      </c>
+      <c r="AM56" s="43">
         <f t="shared" si="94"/>
+        <v>7</v>
+      </c>
+      <c r="AN56" s="43">
+        <f t="shared" si="95"/>
+        <v>14</v>
+      </c>
+      <c r="AO56" s="43">
+        <f t="shared" si="96"/>
+        <v>18</v>
+      </c>
+      <c r="AP56">
+        <f t="shared" si="97"/>
         <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A54" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="46">
-        <v>0.770455</v>
-      </c>
-      <c r="C54" s="46">
-        <v>0.77954500000000004</v>
-      </c>
-      <c r="D54" s="46">
-        <v>0.773864</v>
-      </c>
-      <c r="E54" s="46">
-        <v>0.773864</v>
-      </c>
-      <c r="F54" s="46">
-        <v>0.78636399999999995</v>
-      </c>
-      <c r="G54" s="46">
-        <v>0.78068199999999999</v>
-      </c>
-      <c r="H54" s="46">
-        <v>0.78295499999999996</v>
-      </c>
-      <c r="I54" s="46">
-        <v>0.77272700000000005</v>
-      </c>
-      <c r="J54" s="46">
-        <v>0.77613600000000005</v>
-      </c>
-      <c r="K54" s="46">
-        <v>0.770455</v>
-      </c>
-      <c r="L54" s="46">
-        <v>0.77727299999999999</v>
-      </c>
-      <c r="M54" s="46">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="N54" s="46">
-        <v>0.77272700000000005</v>
-      </c>
-      <c r="O54" s="46">
-        <v>0.77613600000000005</v>
-      </c>
-      <c r="P54" s="46">
-        <v>0.77272700000000005</v>
-      </c>
-      <c r="Q54" s="46">
-        <v>0.76931799999999995</v>
-      </c>
-      <c r="R54" s="46">
-        <v>0.76931799999999995</v>
-      </c>
-      <c r="S54" s="46">
-        <v>0.76590899999999995</v>
-      </c>
-      <c r="T54" s="46">
-        <v>0.773864</v>
-      </c>
-      <c r="U54" s="75">
-        <v>0.78181800000000001</v>
-      </c>
-      <c r="V54" s="43">
-        <f t="shared" si="74"/>
-        <v>16.5</v>
-      </c>
-      <c r="W54" s="43">
-        <f t="shared" si="75"/>
-        <v>5</v>
-      </c>
-      <c r="X54" s="43">
-        <f t="shared" si="76"/>
-        <v>11</v>
-      </c>
-      <c r="Y54" s="43">
-        <f t="shared" si="77"/>
-        <v>11</v>
-      </c>
-      <c r="Z54" s="43">
-        <f t="shared" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="AA54" s="43">
-        <f t="shared" si="79"/>
-        <v>4</v>
-      </c>
-      <c r="AB54" s="43">
-        <f t="shared" si="80"/>
-        <v>2</v>
-      </c>
-      <c r="AC54" s="43">
-        <f t="shared" si="81"/>
-        <v>14</v>
-      </c>
-      <c r="AD54" s="43">
-        <f t="shared" si="82"/>
-        <v>7.5</v>
-      </c>
-      <c r="AE54" s="43">
-        <f t="shared" si="83"/>
-        <v>16.5</v>
-      </c>
-      <c r="AF54" s="43">
-        <f t="shared" si="84"/>
-        <v>6</v>
-      </c>
-      <c r="AG54" s="43">
-        <f t="shared" si="85"/>
-        <v>9</v>
-      </c>
-      <c r="AH54" s="43">
-        <f t="shared" si="86"/>
-        <v>14</v>
-      </c>
-      <c r="AI54" s="43">
-        <f t="shared" si="87"/>
-        <v>7.5</v>
-      </c>
-      <c r="AJ54" s="43">
-        <f t="shared" si="88"/>
-        <v>14</v>
-      </c>
-      <c r="AK54" s="43">
-        <f t="shared" si="89"/>
-        <v>18.5</v>
-      </c>
-      <c r="AL54" s="43">
-        <f t="shared" si="90"/>
-        <v>18.5</v>
-      </c>
-      <c r="AM54" s="43">
-        <f t="shared" si="91"/>
-        <v>20</v>
-      </c>
-      <c r="AN54" s="43">
-        <f t="shared" si="92"/>
-        <v>11</v>
-      </c>
-      <c r="AO54" s="43">
-        <f t="shared" si="93"/>
-        <v>3</v>
-      </c>
-      <c r="AP54">
-        <f t="shared" si="94"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A55" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="46">
-        <v>0.65113600000000005</v>
-      </c>
-      <c r="C55" s="46">
-        <v>0.74886399999999997</v>
-      </c>
-      <c r="D55" s="46">
-        <v>0.75113600000000003</v>
-      </c>
-      <c r="E55" s="46">
-        <v>0.73863599999999996</v>
-      </c>
-      <c r="F55" s="46">
-        <v>0.746591</v>
-      </c>
-      <c r="G55" s="46">
-        <v>0.73636400000000002</v>
-      </c>
-      <c r="H55" s="46">
-        <v>0.73636400000000002</v>
-      </c>
-      <c r="I55" s="46">
-        <v>0.74431800000000004</v>
-      </c>
-      <c r="J55" s="46">
-        <v>0.74318200000000001</v>
-      </c>
-      <c r="K55" s="46">
-        <v>0.74090900000000004</v>
-      </c>
-      <c r="L55" s="46">
-        <v>0.73977300000000001</v>
-      </c>
-      <c r="M55" s="46">
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="N55" s="46">
-        <v>0.73863599999999996</v>
-      </c>
-      <c r="O55" s="46">
-        <v>0.73977300000000001</v>
-      </c>
-      <c r="P55" s="46">
-        <v>0.74090900000000004</v>
-      </c>
-      <c r="Q55" s="46">
-        <v>0.74545499999999998</v>
-      </c>
-      <c r="R55" s="46">
-        <v>0.74318200000000001</v>
-      </c>
-      <c r="S55" s="46">
-        <v>0.74318200000000001</v>
-      </c>
-      <c r="T55" s="46">
-        <v>0.73863599999999996</v>
-      </c>
-      <c r="U55" s="75">
-        <v>0.73636400000000002</v>
-      </c>
-      <c r="V55" s="43">
-        <f t="shared" si="74"/>
-        <v>20</v>
-      </c>
-      <c r="W55" s="43">
-        <f t="shared" si="75"/>
-        <v>2</v>
-      </c>
-      <c r="X55" s="43">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="Y55" s="43">
-        <f t="shared" si="77"/>
-        <v>14</v>
-      </c>
-      <c r="Z55" s="43">
-        <f t="shared" si="78"/>
-        <v>3</v>
-      </c>
-      <c r="AA55" s="43">
-        <f t="shared" si="79"/>
-        <v>18</v>
-      </c>
-      <c r="AB55" s="43">
-        <f t="shared" si="80"/>
-        <v>18</v>
-      </c>
-      <c r="AC55" s="43">
-        <f t="shared" si="81"/>
-        <v>5</v>
-      </c>
-      <c r="AD55" s="43">
-        <f t="shared" si="82"/>
-        <v>7</v>
-      </c>
-      <c r="AE55" s="43">
-        <f t="shared" si="83"/>
-        <v>9.5</v>
-      </c>
-      <c r="AF55" s="43">
-        <f t="shared" si="84"/>
-        <v>11.5</v>
-      </c>
-      <c r="AG55" s="43">
-        <f t="shared" si="85"/>
-        <v>16</v>
-      </c>
-      <c r="AH55" s="43">
-        <f t="shared" si="86"/>
-        <v>14</v>
-      </c>
-      <c r="AI55" s="43">
-        <f t="shared" si="87"/>
-        <v>11.5</v>
-      </c>
-      <c r="AJ55" s="43">
-        <f t="shared" si="88"/>
-        <v>9.5</v>
-      </c>
-      <c r="AK55" s="43">
-        <f t="shared" si="89"/>
-        <v>4</v>
-      </c>
-      <c r="AL55" s="43">
-        <f t="shared" si="90"/>
-        <v>7</v>
-      </c>
-      <c r="AM55" s="43">
-        <f t="shared" si="91"/>
-        <v>7</v>
-      </c>
-      <c r="AN55" s="43">
-        <f t="shared" si="92"/>
-        <v>14</v>
-      </c>
-      <c r="AO55" s="43">
-        <f t="shared" si="93"/>
-        <v>18</v>
-      </c>
-      <c r="AP55">
-        <f t="shared" si="94"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A56" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="74">
-        <f>AVERAGE(B51:B55)</f>
-        <v>0.71705660000000004</v>
-      </c>
-      <c r="C56" s="74">
-        <f>AVERAGE(C51:C55)</f>
-        <v>0.74861719999999998</v>
-      </c>
-      <c r="D56" s="74">
-        <f>AVERAGE(D51:D55)</f>
-        <v>0.74270919999999996</v>
-      </c>
-      <c r="E56" s="74">
-        <f>AVERAGE(E51:E55)</f>
-        <v>0.7458612</v>
-      </c>
-      <c r="F56" s="74">
-        <f>AVERAGE(F51:F55)</f>
-        <v>0.76042279999999995</v>
-      </c>
-      <c r="G56" s="74">
-        <f>AVERAGE(G51:G55)</f>
-        <v>0.75499080000000007</v>
-      </c>
-      <c r="H56" s="74">
-        <f>AVERAGE(H51:H55)</f>
-        <v>0.75347779999999998</v>
-      </c>
-      <c r="I56" s="74">
-        <f>AVERAGE(I51:I55)</f>
-        <v>0.75551420000000002</v>
-      </c>
-      <c r="J56" s="74">
-        <f>AVERAGE(J51:J55)</f>
-        <v>0.7474172</v>
-      </c>
-      <c r="K56" s="74">
-        <f>AVERAGE(K51:K55)</f>
-        <v>0.7420770000000001</v>
-      </c>
-      <c r="L56" s="74">
-        <f>AVERAGE(L51:L55)</f>
-        <v>0.74388100000000001</v>
-      </c>
-      <c r="M56" s="74">
-        <f>AVERAGE(M51:M55)</f>
-        <v>0.73925599999999991</v>
-      </c>
-      <c r="N56" s="74">
-        <f>AVERAGE(N51:N55)</f>
-        <v>0.74249560000000003</v>
-      </c>
-      <c r="O56" s="74">
-        <f>AVERAGE(O51:O55)</f>
-        <v>0.74068260000000008</v>
-      </c>
-      <c r="P56" s="74">
-        <f>AVERAGE(P51:P55)</f>
-        <v>0.74497900000000006</v>
-      </c>
-      <c r="Q56" s="74">
-        <f>AVERAGE(Q51:Q55)</f>
-        <v>0.74907619999999997</v>
-      </c>
-      <c r="R56" s="74">
-        <f>AVERAGE(R51:R55)</f>
-        <v>0.75005980000000005</v>
-      </c>
-      <c r="S56" s="74">
-        <f>AVERAGE(S51:S55)</f>
-        <v>0.75022540000000004</v>
-      </c>
-      <c r="T56" s="74">
-        <f>AVERAGE(T51:T55)</f>
-        <v>0.75843159999999998</v>
-      </c>
-      <c r="U56" s="74">
-        <f>AVERAGE(U51:U55)</f>
-        <v>0.76067220000000002</v>
-      </c>
-      <c r="V56" s="44">
-        <f>AVERAGE(V51:V55)</f>
-        <v>17.899999999999999</v>
-      </c>
-      <c r="W56" s="44">
-        <f t="shared" ref="W56:AO56" si="95">AVERAGE(W51:W55)</f>
-        <v>7.7</v>
-      </c>
-      <c r="X56" s="44">
-        <f t="shared" si="95"/>
-        <v>12.2</v>
-      </c>
-      <c r="Y56" s="44">
-        <f t="shared" si="95"/>
-        <v>12.5</v>
-      </c>
-      <c r="Z56" s="44">
-        <f t="shared" si="95"/>
-        <v>5.4</v>
-      </c>
-      <c r="AA56" s="44">
-        <f t="shared" si="95"/>
-        <v>9.6</v>
-      </c>
-      <c r="AB56" s="44">
-        <f t="shared" si="95"/>
-        <v>6.8</v>
-      </c>
-      <c r="AC56" s="44">
-        <f t="shared" si="95"/>
-        <v>7.1</v>
-      </c>
-      <c r="AD56" s="44">
-        <f t="shared" si="95"/>
-        <v>9.4</v>
-      </c>
-      <c r="AE56" s="44">
-        <f t="shared" si="95"/>
-        <v>13</v>
-      </c>
-      <c r="AF56" s="44">
-        <f t="shared" si="95"/>
-        <v>10.4</v>
-      </c>
-      <c r="AG56" s="44">
-        <f t="shared" si="95"/>
-        <v>14.5</v>
-      </c>
-      <c r="AH56" s="44">
-        <f t="shared" si="95"/>
-        <v>13.4</v>
-      </c>
-      <c r="AI56" s="44">
-        <f t="shared" si="95"/>
-        <v>10.5</v>
-      </c>
-      <c r="AJ56" s="44">
-        <f t="shared" si="95"/>
-        <v>11</v>
-      </c>
-      <c r="AK56" s="44">
-        <f t="shared" si="95"/>
-        <v>10</v>
-      </c>
-      <c r="AL56" s="44">
-        <f t="shared" si="95"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AM56" s="44">
-        <f t="shared" si="95"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AN56" s="44">
-        <f t="shared" si="95"/>
-        <v>9.9</v>
-      </c>
-      <c r="AO56" s="44">
-        <f t="shared" si="95"/>
-        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A57" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="42">
-        <f>COUNTIF(V51:V55,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="42">
-        <f t="shared" ref="C57:U57" si="96">COUNTIF(W51:W55,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="42">
-        <f t="shared" si="96"/>
-        <v>1</v>
-      </c>
-      <c r="E57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="42">
-        <f t="shared" si="96"/>
-        <v>1</v>
-      </c>
-      <c r="G57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="42">
-        <f t="shared" si="96"/>
-        <v>1</v>
-      </c>
-      <c r="P57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="42">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="42">
-        <f t="shared" si="96"/>
-        <v>1</v>
+      <c r="A57" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="64">
+        <f t="shared" ref="B57:V57" si="98">AVERAGE(B52:B56)</f>
+        <v>0.71705660000000004</v>
+      </c>
+      <c r="C57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.74861719999999998</v>
+      </c>
+      <c r="D57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.74270919999999996</v>
+      </c>
+      <c r="E57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.7458612</v>
+      </c>
+      <c r="F57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.76042279999999995</v>
+      </c>
+      <c r="G57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.75499080000000007</v>
+      </c>
+      <c r="H57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.75347779999999998</v>
+      </c>
+      <c r="I57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.75551420000000002</v>
+      </c>
+      <c r="J57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.7474172</v>
+      </c>
+      <c r="K57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.7420770000000001</v>
+      </c>
+      <c r="L57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.74388100000000001</v>
+      </c>
+      <c r="M57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.73925599999999991</v>
+      </c>
+      <c r="N57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.74249560000000003</v>
+      </c>
+      <c r="O57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.74068260000000008</v>
+      </c>
+      <c r="P57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.74497900000000006</v>
+      </c>
+      <c r="Q57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.74907619999999997</v>
+      </c>
+      <c r="R57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.75005980000000005</v>
+      </c>
+      <c r="S57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.75022540000000004</v>
+      </c>
+      <c r="T57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.75843159999999998</v>
+      </c>
+      <c r="U57" s="64">
+        <f t="shared" si="98"/>
+        <v>0.76067220000000002</v>
+      </c>
+      <c r="V57" s="44">
+        <f t="shared" si="98"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="W57" s="44">
+        <f t="shared" ref="W57:AO57" si="99">AVERAGE(W52:W56)</f>
+        <v>7.7</v>
+      </c>
+      <c r="X57" s="44">
+        <f t="shared" si="99"/>
+        <v>12.2</v>
+      </c>
+      <c r="Y57" s="44">
+        <f t="shared" si="99"/>
+        <v>12.5</v>
+      </c>
+      <c r="Z57" s="44">
+        <f t="shared" si="99"/>
+        <v>5.4</v>
+      </c>
+      <c r="AA57" s="44">
+        <f t="shared" si="99"/>
+        <v>9.6</v>
+      </c>
+      <c r="AB57" s="44">
+        <f t="shared" si="99"/>
+        <v>6.8</v>
+      </c>
+      <c r="AC57" s="44">
+        <f t="shared" si="99"/>
+        <v>7.1</v>
+      </c>
+      <c r="AD57" s="44">
+        <f t="shared" si="99"/>
+        <v>9.4</v>
+      </c>
+      <c r="AE57" s="44">
+        <f t="shared" si="99"/>
+        <v>13</v>
+      </c>
+      <c r="AF57" s="44">
+        <f t="shared" si="99"/>
+        <v>10.4</v>
+      </c>
+      <c r="AG57" s="44">
+        <f t="shared" si="99"/>
+        <v>14.5</v>
+      </c>
+      <c r="AH57" s="44">
+        <f t="shared" si="99"/>
+        <v>13.4</v>
+      </c>
+      <c r="AI57" s="44">
+        <f t="shared" si="99"/>
+        <v>10.5</v>
+      </c>
+      <c r="AJ57" s="44">
+        <f t="shared" si="99"/>
+        <v>11</v>
+      </c>
+      <c r="AK57" s="44">
+        <f t="shared" si="99"/>
+        <v>10</v>
+      </c>
+      <c r="AL57" s="44">
+        <f t="shared" si="99"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AM57" s="44">
+        <f t="shared" si="99"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AN57" s="44">
+        <f t="shared" si="99"/>
+        <v>9.9</v>
+      </c>
+      <c r="AO57" s="44">
+        <f t="shared" si="99"/>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="78">
+        <f>COUNTIF(V52:V56,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="78">
+        <f t="shared" ref="C58:U58" si="100">COUNTIF(W52:W56,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="78">
+        <f t="shared" si="100"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="78">
+        <f t="shared" si="100"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="78">
+        <f t="shared" si="100"/>
+        <v>1</v>
+      </c>
+      <c r="P58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="78">
+        <f t="shared" si="100"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A59" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="42">
-        <f>V56</f>
+      <c r="B59" s="42">
+        <f>V57</f>
         <v>17.899999999999999</v>
       </c>
-      <c r="C58" s="42">
-        <f t="shared" ref="C58:U58" si="97">W56</f>
+      <c r="C59" s="42">
+        <f t="shared" ref="C59:U59" si="101">W57</f>
         <v>7.7</v>
       </c>
-      <c r="D58" s="42">
-        <f t="shared" si="97"/>
+      <c r="D59" s="42">
+        <f t="shared" si="101"/>
         <v>12.2</v>
       </c>
-      <c r="E58" s="42">
-        <f t="shared" si="97"/>
+      <c r="E59" s="42">
+        <f t="shared" si="101"/>
         <v>12.5</v>
       </c>
-      <c r="F58" s="42">
-        <f t="shared" si="97"/>
+      <c r="F59" s="42">
+        <f t="shared" si="101"/>
         <v>5.4</v>
       </c>
-      <c r="G58" s="42">
-        <f t="shared" si="97"/>
+      <c r="G59" s="42">
+        <f t="shared" si="101"/>
         <v>9.6</v>
       </c>
-      <c r="H58" s="42">
-        <f t="shared" si="97"/>
+      <c r="H59" s="42">
+        <f t="shared" si="101"/>
         <v>6.8</v>
       </c>
-      <c r="I58" s="42">
-        <f t="shared" si="97"/>
+      <c r="I59" s="42">
+        <f t="shared" si="101"/>
         <v>7.1</v>
       </c>
-      <c r="J58" s="42">
-        <f t="shared" si="97"/>
+      <c r="J59" s="42">
+        <f t="shared" si="101"/>
         <v>9.4</v>
       </c>
-      <c r="K58" s="42">
-        <f t="shared" si="97"/>
+      <c r="K59" s="42">
+        <f t="shared" si="101"/>
         <v>13</v>
       </c>
-      <c r="L58" s="42">
-        <f t="shared" si="97"/>
+      <c r="L59" s="42">
+        <f t="shared" si="101"/>
         <v>10.4</v>
       </c>
-      <c r="M58" s="42">
-        <f t="shared" si="97"/>
+      <c r="M59" s="42">
+        <f t="shared" si="101"/>
         <v>14.5</v>
       </c>
-      <c r="N58" s="42">
-        <f t="shared" si="97"/>
+      <c r="N59" s="42">
+        <f t="shared" si="101"/>
         <v>13.4</v>
       </c>
-      <c r="O58" s="42">
-        <f t="shared" si="97"/>
+      <c r="O59" s="42">
+        <f t="shared" si="101"/>
         <v>10.5</v>
       </c>
-      <c r="P58" s="42">
-        <f t="shared" si="97"/>
+      <c r="P59" s="42">
+        <f t="shared" si="101"/>
         <v>11</v>
       </c>
-      <c r="Q58" s="42">
-        <f t="shared" si="97"/>
+      <c r="Q59" s="42">
+        <f t="shared" si="101"/>
         <v>10</v>
       </c>
-      <c r="R58" s="42">
-        <f t="shared" si="97"/>
+      <c r="R59" s="42">
+        <f t="shared" si="101"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="S58" s="42">
-        <f t="shared" si="97"/>
+      <c r="S59" s="42">
+        <f t="shared" si="101"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="T58" s="42">
-        <f t="shared" si="97"/>
+      <c r="T59" s="42">
+        <f t="shared" si="101"/>
         <v>9.9</v>
       </c>
-      <c r="U58" s="42">
-        <f t="shared" si="97"/>
+      <c r="U59" s="42">
+        <f t="shared" si="101"/>
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="74" spans="10:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J74" s="63"/>
-    </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J75" s="64"/>
+    <row r="75" spans="10:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J75" s="53"/>
     </row>
     <row r="76" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J76" s="64"/>
+      <c r="J76" s="54"/>
     </row>
     <row r="77" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J77" s="64"/>
+      <c r="J77" s="54"/>
     </row>
     <row r="78" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J78" s="64"/>
+      <c r="J78" s="54"/>
     </row>
     <row r="79" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J79" s="64"/>
+      <c r="J79" s="54"/>
     </row>
     <row r="80" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J80" s="64"/>
+      <c r="J80" s="54"/>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J81" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A49:AO49"/>
-    <mergeCell ref="A13:BI13"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A25:U25"/>
+    <mergeCell ref="A50:AO50"/>
+    <mergeCell ref="A14:BI14"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A26:U26"/>
     <mergeCell ref="A1:AE1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
